--- a/00/RHAG00.xlsx
+++ b/00/RHAG00.xlsx
@@ -1247,42 +1247,50 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="str">
+        <v>UID</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>Code</v>
+      </c>
+      <c r="C1" s="3" t="str">
         <v>Name</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="D1" s="3" t="str">
         <v>Last updated</v>
       </c>
-      <c r="C1" s="3" t="str">
-        <v>UID</v>
-      </c>
-      <c r="D1" s="3" t="str">
+      <c r="F1" s="3" t="str">
         <v>Options</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
+        <v>TdDqpX1kdd2</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <v>YES_NO_NUM</v>
+      </c>
+      <c r="C2" s="4" t="str">
         <v>YES/NO (numeric)</v>
       </c>
-      <c r="B2" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>TdDqpX1kdd2</v>
-      </c>
       <c r="D2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E2" s="4" t="str">
         <v>Yes; No</v>
       </c>
     </row>
@@ -1309,10 +1317,10 @@
         <v>UID</v>
       </c>
       <c r="B1" s="3" t="str">
+        <v>Code</v>
+      </c>
+      <c r="C1" s="3" t="str">
         <v>Name</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>Code</v>
       </c>
       <c r="D1" s="3" t="str">
         <v>Last updated</v>
@@ -1326,10 +1334,10 @@
         <v>Xu8ieCbS7jH</v>
       </c>
       <c r="B2" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="str">
         <v>No</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>0</v>
       </c>
       <c r="D2" s="4" t="str">
         <v/>
@@ -1343,10 +1351,10 @@
         <v>VavIEUmBv8j</v>
       </c>
       <c r="B3" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="str">
         <v>Yes</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <v>1</v>
       </c>
       <c r="D3" s="5" t="str">
         <v/>
@@ -13324,7 +13332,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="71.7109375" customWidth="1"/>
@@ -13350,7 +13358,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Incidence data</v>
+        <v>REHAB - bed density and incidence data</v>
       </c>
       <c r="B2" s="4" t="str">
         <v>Bed density</v>
@@ -13367,7 +13375,7 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Incidence data</v>
+        <v>REHAB - bed density and incidence data</v>
       </c>
       <c r="B3" s="5" t="str">
         <v>Incidence data</v>
@@ -13384,7 +13392,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Incidence data</v>
+        <v>REHAB - bed density and incidence data</v>
       </c>
       <c r="B4" s="4" t="str">
         <v>Incidence data</v>
@@ -13401,7 +13409,7 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Incidence data</v>
+        <v>REHAB - bed density and incidence data</v>
       </c>
       <c r="B5" s="5" t="str">
         <v>Incidence data</v>
@@ -13418,7 +13426,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>Incidence data</v>
+        <v>REHAB - bed density and incidence data</v>
       </c>
       <c r="B6" s="4" t="str">
         <v>Incidence data</v>
@@ -13435,7 +13443,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>Incidence data</v>
+        <v>REHAB - bed density and incidence data</v>
       </c>
       <c r="B7" s="5" t="str">
         <v>Incidence data</v>
@@ -13452,7 +13460,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>Incidence data</v>
+        <v>REHAB - bed density and incidence data</v>
       </c>
       <c r="B8" s="4" t="str">
         <v>Incidence data</v>
@@ -13469,7 +13477,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>Essential package availability</v>
+        <v>REHAB - essential package availability at PHC</v>
       </c>
       <c r="B9" s="5" t="str">
         <v>Essential package availability</v>
@@ -13486,7 +13494,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>Essential package availability</v>
+        <v>REHAB - essential package availability at PHC</v>
       </c>
       <c r="B10" s="4" t="str">
         <v>Essential package availability</v>
@@ -13503,7 +13511,7 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>Assistive products</v>
+        <v>REHAB - inpatient report</v>
       </c>
       <c r="B11" s="5" t="str">
         <v>Rehabilitation cases and sessions</v>
@@ -13520,7 +13528,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>Assistive products</v>
+        <v>REHAB - inpatient report</v>
       </c>
       <c r="B12" s="4" t="str">
         <v>Rehabilitation cases and sessions</v>
@@ -13537,7 +13545,7 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>Assistive products</v>
+        <v>REHAB - inpatient report</v>
       </c>
       <c r="B13" s="5" t="str">
         <v>Reabilitation service utilization</v>
@@ -13554,7 +13562,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>Assistive products</v>
+        <v>REHAB - inpatient report</v>
       </c>
       <c r="B14" s="4" t="str">
         <v>Reabilitation service utilization</v>
@@ -13571,7 +13579,7 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>Assistive products</v>
+        <v>REHAB - inpatient report</v>
       </c>
       <c r="B15" s="5" t="str">
         <v>Reabilitation service utilization</v>
@@ -13588,7 +13596,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>Assistive products</v>
+        <v>REHAB - inpatient report</v>
       </c>
       <c r="B16" s="4" t="str">
         <v>Reabilitation service utilization</v>
@@ -13605,7 +13613,7 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>Assistive products</v>
+        <v>REHAB - inpatient report</v>
       </c>
       <c r="B17" s="5" t="str">
         <v>Reabilitation service utilization</v>
@@ -13622,7 +13630,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>Assistive products</v>
+        <v>REHAB - inpatient report</v>
       </c>
       <c r="B18" s="4" t="str">
         <v>Reabilitation service utilization</v>
@@ -13639,7 +13647,7 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>Assistive products</v>
+        <v>REHAB - inpatient report</v>
       </c>
       <c r="B19" s="5" t="str">
         <v>Reabilitation service utilization</v>
@@ -13656,7 +13664,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>Assistive products</v>
+        <v>REHAB - inpatient report</v>
       </c>
       <c r="B20" s="4" t="str">
         <v>Rehabilitation uptake</v>
@@ -13673,7 +13681,7 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>Assistive products</v>
+        <v>REHAB - inpatient report</v>
       </c>
       <c r="B21" s="5" t="str">
         <v>Rehabilitation uptake</v>
@@ -13690,7 +13698,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>Assistive products</v>
+        <v>REHAB - inpatient report</v>
       </c>
       <c r="B22" s="4" t="str">
         <v>Rehabilitation uptake</v>
@@ -13707,7 +13715,7 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>Assistive products</v>
+        <v>REHAB - inpatient report</v>
       </c>
       <c r="B23" s="5" t="str">
         <v>Rehabilitation uptake</v>
@@ -13724,7 +13732,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>Assistive products</v>
+        <v>REHAB - inpatient report</v>
       </c>
       <c r="B24" s="4" t="str">
         <v>Rehabilitation uptake</v>
@@ -13741,7 +13749,7 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>Assistive products</v>
+        <v>REHAB - inpatient report</v>
       </c>
       <c r="B25" s="5" t="str">
         <v>Rehabilitation uptake</v>
@@ -13758,7 +13766,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>Assistive products</v>
+        <v>REHAB - inpatient report</v>
       </c>
       <c r="B26" s="4" t="str">
         <v>Rehabilitation uptake</v>
@@ -13775,7 +13783,7 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>Assistive products</v>
+        <v>REHAB - inpatient report</v>
       </c>
       <c r="B27" s="5" t="str">
         <v>Rehabilitation facility-based uptake</v>
@@ -13792,7 +13800,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>Assistive products</v>
+        <v>REHAB - inpatient report</v>
       </c>
       <c r="B28" s="4" t="str">
         <v>Assistive products</v>
@@ -13809,7 +13817,7 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>Assistive products</v>
+        <v>REHAB - inpatient report</v>
       </c>
       <c r="B29" s="5" t="str">
         <v>Assistive products</v>
@@ -13826,7 +13834,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B30" s="4" t="str">
         <v>Rehabilitation cases</v>
@@ -13843,7 +13851,7 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B31" s="5" t="str">
         <v>Rehabilitation cases</v>
@@ -13860,7 +13868,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B32" s="4" t="str">
         <v>Rehabilitation cases</v>
@@ -13877,7 +13885,7 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B33" s="5" t="str">
         <v>Rehabilitation cases</v>
@@ -13894,7 +13902,7 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B34" s="4" t="str">
         <v>Rehabilitation cases</v>
@@ -13911,7 +13919,7 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B35" s="5" t="str">
         <v>Rehabilitation cases</v>
@@ -13928,7 +13936,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B36" s="4" t="str">
         <v>Rehabilitation cases</v>
@@ -13945,7 +13953,7 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B37" s="5" t="str">
         <v>Rehabilitation cases</v>
@@ -13962,7 +13970,7 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B38" s="4" t="str">
         <v>Rehabilitation uptake</v>
@@ -13979,7 +13987,7 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B39" s="5" t="str">
         <v>Rehabilitation uptake</v>
@@ -13996,7 +14004,7 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B40" s="4" t="str">
         <v>Rehabilitation uptake</v>
@@ -14013,7 +14021,7 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B41" s="5" t="str">
         <v>Rehabilitation uptake</v>
@@ -14030,7 +14038,7 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B42" s="4" t="str">
         <v>Rehabilitation uptake</v>
@@ -14047,7 +14055,7 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B43" s="5" t="str">
         <v>Rehabilitation uptake</v>
@@ -14064,7 +14072,7 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B44" s="4" t="str">
         <v>Rehabilitation uptake</v>
@@ -14081,7 +14089,7 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B45" s="5" t="str">
         <v>Rehabilitation uptake</v>
@@ -14098,7 +14106,7 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B46" s="4" t="str">
         <v>Rehabilitation referral</v>
@@ -14115,7 +14123,7 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B47" s="5" t="str">
         <v>Rehabilitation referral</v>
@@ -14132,7 +14140,7 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B48" s="4" t="str">
         <v>Rehabilitation facility-based uptake</v>
@@ -14149,7 +14157,7 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B49" s="5" t="str">
         <v>Rehabilitation facility-based uptake</v>
@@ -14166,7 +14174,7 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B50" s="4" t="str">
         <v>Rehabilitation facility-based uptake</v>
@@ -14183,7 +14191,7 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B51" s="5" t="str">
         <v>Assistive products</v>
@@ -14200,7 +14208,7 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B52" s="4" t="str">
         <v>Assistive products</v>
@@ -14217,7 +14225,7 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>Outreach program uptake</v>
+        <v>REHAB - outpatient report</v>
       </c>
       <c r="B53" s="5" t="str">
         <v>Outreach program uptake</v>
@@ -14234,7 +14242,7 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>Population</v>
+        <v>REHAB - personnel density</v>
       </c>
       <c r="B54" s="4" t="str">
         <v>Rehabilitation occupational groups</v>
@@ -14251,7 +14259,7 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>Population</v>
+        <v>REHAB - personnel density</v>
       </c>
       <c r="B55" s="5" t="str">
         <v>Population</v>
@@ -14268,7 +14276,7 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B56" s="4" t="str">
         <v>Rehabilitation cases and sessions</v>
@@ -14285,7 +14293,7 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B57" s="5" t="str">
         <v>Rehabilitation cases and sessions</v>
@@ -14302,7 +14310,7 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B58" s="4" t="str">
         <v>Rehabilitation cases and sessions</v>
@@ -14319,7 +14327,7 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B59" s="5" t="str">
         <v>Rehabilitation cases and sessions</v>
@@ -14336,7 +14344,7 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B60" s="4" t="str">
         <v>Rehabilitation stay by health condition</v>
@@ -14353,7 +14361,7 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B61" s="5" t="str">
         <v>Rehabilitation stay by health condition</v>
@@ -14370,7 +14378,7 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B62" s="4" t="str">
         <v>Rehabilitation stay by health condition</v>
@@ -14387,7 +14395,7 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B63" s="5" t="str">
         <v>Rehabilitation service utilization</v>
@@ -14404,7 +14412,7 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B64" s="4" t="str">
         <v>Rehabilitation service utilization</v>
@@ -14421,7 +14429,7 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B65" s="5" t="str">
         <v>Rehabilitation service utilization</v>
@@ -14438,7 +14446,7 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B66" s="4" t="str">
         <v>Rehabilitation service utilization</v>
@@ -14455,7 +14463,7 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B67" s="5" t="str">
         <v>Rehabilitation service utilization</v>
@@ -14472,7 +14480,7 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B68" s="4" t="str">
         <v>Rehabilitation service utilization</v>
@@ -14489,7 +14497,7 @@
     </row>
     <row r="69">
       <c r="A69" s="5" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B69" s="5" t="str">
         <v>Rehabilitation service utilization</v>
@@ -14506,7 +14514,7 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B70" s="4" t="str">
         <v>Rehabilitation uptake</v>
@@ -14523,7 +14531,7 @@
     </row>
     <row r="71">
       <c r="A71" s="5" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B71" s="5" t="str">
         <v>Rehabilitation uptake</v>
@@ -14540,7 +14548,7 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B72" s="4" t="str">
         <v>Rehabilitation uptake</v>
@@ -14557,7 +14565,7 @@
     </row>
     <row r="73">
       <c r="A73" s="5" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B73" s="5" t="str">
         <v>Rehabilitation uptake</v>
@@ -14574,7 +14582,7 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B74" s="4" t="str">
         <v>Rehabilitation uptake</v>
@@ -14591,7 +14599,7 @@
     </row>
     <row r="75">
       <c r="A75" s="5" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B75" s="5" t="str">
         <v>Rehabilitation uptake</v>
@@ -14608,7 +14616,7 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B76" s="4" t="str">
         <v>Rehabilitation uptake</v>
@@ -14625,7 +14633,7 @@
     </row>
     <row r="77">
       <c r="A77" s="5" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B77" s="5" t="str">
         <v>Rehabilitation facility-based uptake</v>
@@ -14642,7 +14650,7 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B78" s="4" t="str">
         <v>Rehabilitation referrals</v>
@@ -14659,7 +14667,7 @@
     </row>
     <row r="79">
       <c r="A79" s="5" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B79" s="5" t="str">
         <v>Assistive products</v>
@@ -14676,7 +14684,7 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B80" s="4" t="str">
         <v>Assistive products</v>
@@ -14693,7 +14701,7 @@
     </row>
     <row r="81">
       <c r="A81" s="5" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B81" s="5" t="str">
         <v>Functioning score</v>
@@ -14710,7 +14718,7 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="str">
-        <v>Functioning score</v>
+        <v>REHAB - rehab ward report</v>
       </c>
       <c r="B82" s="4" t="str">
         <v>Functioning score</v>
@@ -14731,7 +14739,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -14746,6 +14754,7 @@
     <col min="8" max="8" width="19.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14779,6 +14788,9 @@
       <c r="J1" s="3" t="str">
         <v>categoryCombo Name</v>
       </c>
+      <c r="K1" s="3" t="str">
+        <v>Form Name</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
@@ -14811,6 +14823,9 @@
       <c r="J2" s="4" t="str">
         <v/>
       </c>
+      <c r="K2" s="4" t="str">
+        <v>Population</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
@@ -14843,6 +14858,9 @@
       <c r="J3" s="5" t="str">
         <v/>
       </c>
+      <c r="K3" s="5" t="str">
+        <v>Amputation incidence %</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
@@ -14875,6 +14893,9 @@
       <c r="J4" s="4" t="str">
         <v/>
       </c>
+      <c r="K4" s="4" t="str">
+        <v>Number of assistive products provided (total)</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
@@ -14907,6 +14928,9 @@
       <c r="J5" s="5" t="str">
         <v/>
       </c>
+      <c r="K5" s="5" t="str">
+        <v>Number of assistive products provided (total)</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
@@ -14939,6 +14963,9 @@
       <c r="J6" s="4" t="str">
         <v/>
       </c>
+      <c r="K6" s="4" t="str">
+        <v>Number of assistive products provided (total)</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
@@ -14971,6 +14998,9 @@
       <c r="J7" s="5" t="str">
         <v/>
       </c>
+      <c r="K7" s="5" t="str">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
@@ -15003,6 +15033,9 @@
       <c r="J8" s="4" t="str">
         <v/>
       </c>
+      <c r="K8" s="4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
@@ -15035,6 +15068,9 @@
       <c r="J9" s="5" t="str">
         <v/>
       </c>
+      <c r="K9" s="5" t="str">
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
@@ -15067,6 +15103,9 @@
       <c r="J10" s="4" t="str">
         <v/>
       </c>
+      <c r="K10" s="4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
@@ -15099,6 +15138,9 @@
       <c r="J11" s="5" t="str">
         <v/>
       </c>
+      <c r="K11" s="5" t="str">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
@@ -15131,6 +15173,9 @@
       <c r="J12" s="4" t="str">
         <v/>
       </c>
+      <c r="K12" s="4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
@@ -15163,6 +15208,9 @@
       <c r="J13" s="5" t="str">
         <v/>
       </c>
+      <c r="K13" s="5" t="str">
+        <v>Total number of beds</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
@@ -15195,6 +15243,9 @@
       <c r="J14" s="4" t="str">
         <v/>
       </c>
+      <c r="K14" s="4" t="str">
+        <v>Burns incidence %</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
@@ -15227,6 +15278,9 @@
       <c r="J15" s="5" t="str">
         <v/>
       </c>
+      <c r="K15" s="5" t="str">
+        <v>Cases discharged from rehab ward</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
@@ -15259,6 +15313,9 @@
       <c r="J16" s="4" t="str">
         <v/>
       </c>
+      <c r="K16" s="4" t="str">
+        <v>First-time admissions</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
@@ -15291,6 +15348,9 @@
       <c r="J17" s="5" t="str">
         <v/>
       </c>
+      <c r="K17" s="5" t="str">
+        <v>Average functioning score at discharge</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
@@ -15323,6 +15383,9 @@
       <c r="J18" s="4" t="str">
         <v/>
       </c>
+      <c r="K18" s="4" t="str">
+        <v>Number of cases (total)</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
@@ -15355,6 +15418,9 @@
       <c r="J19" s="5" t="str">
         <v/>
       </c>
+      <c r="K19" s="5" t="str">
+        <v>Number of cases (total)</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
@@ -15387,6 +15453,9 @@
       <c r="J20" s="4" t="str">
         <v/>
       </c>
+      <c r="K20" s="4" t="str">
+        <v>Cases with cancer condition</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
@@ -15419,6 +15488,9 @@
       <c r="J21" s="5" t="str">
         <v/>
       </c>
+      <c r="K21" s="5" t="str">
+        <v>Cases with cancer condition</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
@@ -15451,6 +15523,9 @@
       <c r="J22" s="4" t="str">
         <v/>
       </c>
+      <c r="K22" s="4" t="str">
+        <v>Cases with cardiovascular condition</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
@@ -15483,6 +15558,9 @@
       <c r="J23" s="5" t="str">
         <v/>
       </c>
+      <c r="K23" s="5" t="str">
+        <v>Cases with cardiovascular condition</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
@@ -15515,6 +15593,9 @@
       <c r="J24" s="4" t="str">
         <v/>
       </c>
+      <c r="K24" s="4" t="str">
+        <v>Cases with mental condition</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
@@ -15547,6 +15628,9 @@
       <c r="J25" s="5" t="str">
         <v/>
       </c>
+      <c r="K25" s="5" t="str">
+        <v>Cases with musculoskeletal condition</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
@@ -15579,6 +15663,9 @@
       <c r="J26" s="4" t="str">
         <v/>
       </c>
+      <c r="K26" s="4" t="str">
+        <v>Cases with musculoskeletal condition</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
@@ -15611,6 +15698,9 @@
       <c r="J27" s="5" t="str">
         <v/>
       </c>
+      <c r="K27" s="5" t="str">
+        <v>Cases with respiratory condition</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
@@ -15643,6 +15733,9 @@
       <c r="J28" s="4" t="str">
         <v/>
       </c>
+      <c r="K28" s="4" t="str">
+        <v>Cases with respiratory condition</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
@@ -15675,6 +15768,9 @@
       <c r="J29" s="5" t="str">
         <v/>
       </c>
+      <c r="K29" s="5" t="str">
+        <v>Cases with sensory condition</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
@@ -15707,6 +15803,9 @@
       <c r="J30" s="4" t="str">
         <v/>
       </c>
+      <c r="K30" s="4" t="str">
+        <v>Cases with sensory condition</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
@@ -15739,6 +15838,9 @@
       <c r="J31" s="5" t="str">
         <v/>
       </c>
+      <c r="K31" s="5" t="str">
+        <v>Length of stay in rehab ward in days (totals)</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
@@ -15771,6 +15873,9 @@
       <c r="J32" s="4" t="str">
         <v/>
       </c>
+      <c r="K32" s="4" t="str">
+        <v>Package selected from national guidance</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
@@ -15803,6 +15908,9 @@
       <c r="J33" s="5" t="str">
         <v/>
       </c>
+      <c r="K33" s="5" t="str">
+        <v>Number of new cases</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
@@ -15835,6 +15943,9 @@
       <c r="J34" s="4" t="str">
         <v/>
       </c>
+      <c r="K34" s="4" t="str">
+        <v>Number of new cases</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
@@ -15867,6 +15978,9 @@
       <c r="J35" s="5" t="str">
         <v/>
       </c>
+      <c r="K35" s="5" t="str">
+        <v>New cases with comprehensive individualised care plan</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
@@ -15899,6 +16013,9 @@
       <c r="J36" s="4" t="str">
         <v/>
       </c>
+      <c r="K36" s="4" t="str">
+        <v>Rehabilitation personnel</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
@@ -15931,6 +16048,9 @@
       <c r="J37" s="5" t="str">
         <v/>
       </c>
+      <c r="K37" s="5" t="str">
+        <v>Occupational therapists</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
@@ -15963,6 +16083,9 @@
       <c r="J38" s="4" t="str">
         <v/>
       </c>
+      <c r="K38" s="4" t="str">
+        <v>Number of cases (total)</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
@@ -15995,6 +16118,9 @@
       <c r="J39" s="5" t="str">
         <v/>
       </c>
+      <c r="K39" s="5" t="str">
+        <v>Cases with cancer condition</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
@@ -16027,6 +16153,9 @@
       <c r="J40" s="4" t="str">
         <v/>
       </c>
+      <c r="K40" s="4" t="str">
+        <v>Cases with neurological condition</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
@@ -16059,6 +16188,9 @@
       <c r="J41" s="5" t="str">
         <v/>
       </c>
+      <c r="K41" s="5" t="str">
+        <v>Cases with respiratory condition</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
@@ -16091,6 +16223,9 @@
       <c r="J42" s="4" t="str">
         <v/>
       </c>
+      <c r="K42" s="4" t="str">
+        <v>Cases with sensory condition</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
@@ -16123,6 +16258,9 @@
       <c r="J43" s="5" t="str">
         <v/>
       </c>
+      <c r="K43" s="5" t="str">
+        <v>Number of outreach sessions</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
@@ -16155,6 +16293,9 @@
       <c r="J44" s="4" t="str">
         <v/>
       </c>
+      <c r="K44" s="4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
@@ -16187,6 +16328,9 @@
       <c r="J45" s="5" t="str">
         <v/>
       </c>
+      <c r="K45" s="5" t="str">
+        <v>Physiotherapists</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
@@ -16219,6 +16363,9 @@
       <c r="J46" s="4" t="str">
         <v/>
       </c>
+      <c r="K46" s="4" t="str">
+        <v>Prosthetists/orthotists</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
@@ -16251,6 +16398,9 @@
       <c r="J47" s="5" t="str">
         <v/>
       </c>
+      <c r="K47" s="5" t="str">
+        <v>Psychologists</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
@@ -16283,6 +16433,9 @@
       <c r="J48" s="4" t="str">
         <v/>
       </c>
+      <c r="K48" s="4" t="str">
+        <v>Number of new referral cases</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
@@ -16315,6 +16468,9 @@
       <c r="J49" s="5" t="str">
         <v/>
       </c>
+      <c r="K49" s="5" t="str">
+        <v>Number of new referral cases</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
@@ -16347,6 +16503,9 @@
       <c r="J50" s="4" t="str">
         <v/>
       </c>
+      <c r="K50" s="4" t="str">
+        <v>Rehabilitation doctors</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
@@ -16379,6 +16538,9 @@
       <c r="J51" s="5" t="str">
         <v/>
       </c>
+      <c r="K51" s="5" t="str">
+        <v>SCI incidence %</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
@@ -16411,6 +16573,9 @@
       <c r="J52" s="4" t="str">
         <v/>
       </c>
+      <c r="K52" s="4" t="str">
+        <v>Sessions provided for patients with cancer condition</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
@@ -16443,6 +16608,9 @@
       <c r="J53" s="5" t="str">
         <v/>
       </c>
+      <c r="K53" s="5" t="str">
+        <v>Sessions provided for patients with cancer condition</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
@@ -16475,6 +16643,9 @@
       <c r="J54" s="4" t="str">
         <v/>
       </c>
+      <c r="K54" s="4" t="str">
+        <v>Sessions provided for patients with cancer condition</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
@@ -16507,6 +16678,9 @@
       <c r="J55" s="5" t="str">
         <v/>
       </c>
+      <c r="K55" s="5" t="str">
+        <v>Sessions provided for patients with cardiovascular condition</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
@@ -16539,6 +16713,9 @@
       <c r="J56" s="4" t="str">
         <v/>
       </c>
+      <c r="K56" s="4" t="str">
+        <v>Sessions provided for patients with cardiovascular condition</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
@@ -16571,6 +16748,9 @@
       <c r="J57" s="5" t="str">
         <v/>
       </c>
+      <c r="K57" s="5" t="str">
+        <v>Sessions provided (total)</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
@@ -16603,6 +16783,9 @@
       <c r="J58" s="4" t="str">
         <v/>
       </c>
+      <c r="K58" s="4" t="str">
+        <v>Sessions provided (total)</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="str">
@@ -16635,6 +16818,9 @@
       <c r="J59" s="5" t="str">
         <v/>
       </c>
+      <c r="K59" s="5" t="str">
+        <v>Sessions provided for patients with mental condition</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="str">
@@ -16667,6 +16853,9 @@
       <c r="J60" s="4" t="str">
         <v/>
       </c>
+      <c r="K60" s="4" t="str">
+        <v>Sessions provided for patients with mental condition</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="5" t="str">
@@ -16699,6 +16888,9 @@
       <c r="J61" s="5" t="str">
         <v/>
       </c>
+      <c r="K61" s="5" t="str">
+        <v>Sessions provided for patients with mental condition</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="str">
@@ -16731,6 +16923,9 @@
       <c r="J62" s="4" t="str">
         <v/>
       </c>
+      <c r="K62" s="4" t="str">
+        <v>Sessions provided for patients with musculoskeletal condition</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="str">
@@ -16763,6 +16958,9 @@
       <c r="J63" s="5" t="str">
         <v/>
       </c>
+      <c r="K63" s="5" t="str">
+        <v>Sessions provided for patients with musculoskeletal condition</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="str">
@@ -16795,6 +16993,9 @@
       <c r="J64" s="4" t="str">
         <v/>
       </c>
+      <c r="K64" s="4" t="str">
+        <v>Sessions provided for patients with musculoskeletal condition</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="str">
@@ -16827,6 +17028,9 @@
       <c r="J65" s="5" t="str">
         <v/>
       </c>
+      <c r="K65" s="5" t="str">
+        <v>Sessions provided for patients with neurological condition</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="str">
@@ -16859,6 +17063,9 @@
       <c r="J66" s="4" t="str">
         <v/>
       </c>
+      <c r="K66" s="4" t="str">
+        <v>Sessions provided for patients with neurological condition</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="5" t="str">
@@ -16891,6 +17098,9 @@
       <c r="J67" s="5" t="str">
         <v/>
       </c>
+      <c r="K67" s="5" t="str">
+        <v>Number of sessions provided by</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="str">
@@ -16923,6 +17133,9 @@
       <c r="J68" s="4" t="str">
         <v/>
       </c>
+      <c r="K68" s="4" t="str">
+        <v>Sessions provided (total)</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="5" t="str">
@@ -16955,6 +17168,9 @@
       <c r="J69" s="5" t="str">
         <v/>
       </c>
+      <c r="K69" s="5" t="str">
+        <v>Sessions provided for patients with respiratory condition</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="str">
@@ -16987,6 +17203,9 @@
       <c r="J70" s="4" t="str">
         <v/>
       </c>
+      <c r="K70" s="4" t="str">
+        <v>Sessions provided for patients with respiratory condition</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="5" t="str">
@@ -17019,6 +17238,9 @@
       <c r="J71" s="5" t="str">
         <v/>
       </c>
+      <c r="K71" s="5" t="str">
+        <v>Sessions provided for patients with sensory condition</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="str">
@@ -17051,6 +17273,9 @@
       <c r="J72" s="4" t="str">
         <v/>
       </c>
+      <c r="K72" s="4" t="str">
+        <v>Speech language therapists</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="5" t="str">
@@ -17083,6 +17308,9 @@
       <c r="J73" s="5" t="str">
         <v/>
       </c>
+      <c r="K73" s="5" t="str">
+        <v>Stroke incidence %</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="str">
@@ -17115,6 +17343,9 @@
       <c r="J74" s="4" t="str">
         <v/>
       </c>
+      <c r="K74" s="4" t="str">
+        <v>Number of waiting days for the assistive product (total)</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="5" t="str">
@@ -17147,6 +17378,9 @@
       <c r="J75" s="5" t="str">
         <v/>
       </c>
+      <c r="K75" s="5" t="str">
+        <v>Number of waiting days for the assistive product (total)</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="str">
@@ -17179,6 +17413,9 @@
       <c r="J76" s="4" t="str">
         <v/>
       </c>
+      <c r="K76" s="4" t="str">
+        <v>Number of waiting days for the assistive product (total)</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="5" t="str">
@@ -17211,6 +17448,9 @@
       <c r="J77" s="5" t="str">
         <v/>
       </c>
+      <c r="K77" s="5" t="str">
+        <v>Number of first sessions provided by</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="str">
@@ -17243,6 +17483,9 @@
       <c r="J78" s="4" t="str">
         <v/>
       </c>
+      <c r="K78" s="4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="5" t="str">
@@ -17275,6 +17518,9 @@
       <c r="J79" s="5" t="str">
         <v/>
       </c>
+      <c r="K79" s="5" t="str">
+        <v>Average functioning score at admission for discharged patients</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="str">
@@ -17307,6 +17553,9 @@
       <c r="J80" s="4" t="str">
         <v/>
       </c>
+      <c r="K80" s="4" t="str">
+        <v>Cases with mental condition</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="str">
@@ -17339,6 +17588,9 @@
       <c r="J81" s="5" t="str">
         <v/>
       </c>
+      <c r="K81" s="5" t="str">
+        <v>Cases with neurological condition</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="str">
@@ -17371,6 +17623,9 @@
       <c r="J82" s="4" t="str">
         <v/>
       </c>
+      <c r="K82" s="4" t="str">
+        <v>Cases with neurological condition</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="5" t="str">
@@ -17403,6 +17658,9 @@
       <c r="J83" s="5" t="str">
         <v/>
       </c>
+      <c r="K83" s="5" t="str">
+        <v>MMT Incidence %</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="str">
@@ -17435,6 +17693,9 @@
       <c r="J84" s="4" t="str">
         <v/>
       </c>
+      <c r="K84" s="4" t="str">
+        <v>Other</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="5" t="str">
@@ -17467,6 +17728,9 @@
       <c r="J85" s="5" t="str">
         <v/>
       </c>
+      <c r="K85" s="5" t="str">
+        <v>Cases with cardiovascular condition</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="str">
@@ -17499,6 +17763,9 @@
       <c r="J86" s="4" t="str">
         <v/>
       </c>
+      <c r="K86" s="4" t="str">
+        <v>Cases with mental condition</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="5" t="str">
@@ -17531,6 +17798,9 @@
       <c r="J87" s="5" t="str">
         <v/>
       </c>
+      <c r="K87" s="5" t="str">
+        <v>Cases with musculoskeletal condition</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="str">
@@ -17563,6 +17833,9 @@
       <c r="J88" s="4" t="str">
         <v/>
       </c>
+      <c r="K88" s="4" t="str">
+        <v>Sessions provided for patients with cardiovascular condition</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="5" t="str">
@@ -17595,6 +17868,9 @@
       <c r="J89" s="5" t="str">
         <v/>
       </c>
+      <c r="K89" s="5" t="str">
+        <v>Sessions provided by</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="str">
@@ -17627,6 +17903,9 @@
       <c r="J90" s="4" t="str">
         <v/>
       </c>
+      <c r="K90" s="4" t="str">
+        <v>Sessions provided by</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="5" t="str">
@@ -17659,6 +17938,9 @@
       <c r="J91" s="5" t="str">
         <v/>
       </c>
+      <c r="K91" s="5" t="str">
+        <v>Sessions provided for patients with neurological condition</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="str">
@@ -17691,6 +17973,9 @@
       <c r="J92" s="4" t="str">
         <v/>
       </c>
+      <c r="K92" s="4" t="str">
+        <v>Sessions provided for patients with respiratory condition</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="5" t="str">
@@ -17723,6 +18008,9 @@
       <c r="J93" s="5" t="str">
         <v/>
       </c>
+      <c r="K93" s="5" t="str">
+        <v>Sessions provided for patients with sensory condition</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="str">
@@ -17755,6 +18043,9 @@
       <c r="J94" s="4" t="str">
         <v/>
       </c>
+      <c r="K94" s="4" t="str">
+        <v>Sessions provided for patients with sensory condition</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="5" t="str">
@@ -17787,6 +18078,9 @@
       <c r="J95" s="5" t="str">
         <v/>
       </c>
+      <c r="K95" s="5" t="str">
+        <v>TBI incidence %</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="4" t="str">
@@ -17819,6 +18113,9 @@
       <c r="J96" s="4" t="str">
         <v/>
       </c>
+      <c r="K96" s="4" t="str">
+        <v>Number of waiting days for the 1st session (total)</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="5" t="str">
@@ -17850,6 +18147,9 @@
       </c>
       <c r="J97" s="5" t="str">
         <v/>
+      </c>
+      <c r="K97" s="5" t="str">
+        <v>WHO basic package for rehab services</v>
       </c>
     </row>
   </sheetData>
@@ -18649,113 +18949,157 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="str">
+        <v>UID</v>
+      </c>
+      <c r="B1" s="3" t="str">
         <v>Name</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="C1" s="3" t="str">
         <v>Last updated</v>
       </c>
-      <c r="C1" s="3" t="str">
-        <v>UID</v>
-      </c>
       <c r="D1" s="3" t="str">
+        <v>Code</v>
+      </c>
+      <c r="E1" s="3" t="str">
         <v>Categories</v>
+      </c>
+      <c r="F1" s="3" t="str">
+        <v>dataDimensionType</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
+        <v>ko7kJ4s0HYi</v>
+      </c>
+      <c r="B2" s="4" t="str">
         <v>Age and sex (Rehabilitation)</v>
       </c>
-      <c r="B2" s="4" t="str">
-        <v/>
-      </c>
       <c r="C2" s="4" t="str">
-        <v>ko7kJ4s0HYi</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E2" s="4" t="str">
         <v>Age (Rehabilitation); Sex</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <v>DISAGGREGATION</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
+        <v>zOKNYuzC99P</v>
+      </c>
+      <c r="B3" s="5" t="str">
         <v>APL and age (Rehabilitation)</v>
       </c>
-      <c r="B3" s="5" t="str">
-        <v/>
-      </c>
       <c r="C3" s="5" t="str">
-        <v>zOKNYuzC99P</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
+        <v>REHAB_APL_AGE</v>
+      </c>
+      <c r="E3" s="5" t="str">
         <v>Age (Rehabilitation); Rehabilitation APL</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <v>DISAGGREGATION</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
+        <v>bjDvmb4bfuf</v>
+      </c>
+      <c r="B4" s="4" t="str">
         <v>default</v>
       </c>
-      <c r="B4" s="4" t="str">
-        <v/>
-      </c>
       <c r="C4" s="4" t="str">
-        <v>bjDvmb4bfuf</v>
+        <v/>
       </c>
       <c r="D4" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="E4" s="4" t="str">
         <v xml:space="preserve"> </v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <v>DISAGGREGATION</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
+        <v>WWS4HnG4qGC</v>
+      </c>
+      <c r="B5" s="5" t="str">
         <v>Rehabilitation health conditions</v>
       </c>
-      <c r="B5" s="5" t="str">
-        <v/>
-      </c>
       <c r="C5" s="5" t="str">
-        <v>WWS4HnG4qGC</v>
+        <v/>
       </c>
       <c r="D5" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E5" s="5" t="str">
         <v>Rehabilitation health conditions</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <v>DISAGGREGATION</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
+        <v>uurBibNDwhs</v>
+      </c>
+      <c r="B6" s="4" t="str">
         <v>Rehabilitation personnel</v>
       </c>
-      <c r="B6" s="4" t="str">
-        <v/>
-      </c>
       <c r="C6" s="4" t="str">
-        <v>uurBibNDwhs</v>
+        <v/>
       </c>
       <c r="D6" s="4" t="str">
+        <v>REHAB_PERS</v>
+      </c>
+      <c r="E6" s="4" t="str">
         <v>Rehabilitation occupational groups</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <v>DISAGGREGATION</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
+        <v>nMiZqJMTtZ7</v>
+      </c>
+      <c r="B7" s="5" t="str">
         <v>Rehabilitation services</v>
       </c>
-      <c r="B7" s="5" t="str">
-        <v/>
-      </c>
       <c r="C7" s="5" t="str">
-        <v>nMiZqJMTtZ7</v>
+        <v/>
       </c>
       <c r="D7" s="5" t="str">
+        <v>REHAB_SERVICES</v>
+      </c>
+      <c r="E7" s="5" t="str">
         <v>Rehabilitation services</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <v>DISAGGREGATION</v>
       </c>
     </row>
   </sheetData>
@@ -18764,127 +19108,202 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="152.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="152.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="str">
+        <v>UID</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>Code</v>
+      </c>
+      <c r="C1" s="3" t="str">
         <v>Name</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="D1" s="3" t="str">
+        <v>shortName</v>
+      </c>
+      <c r="E1" s="3" t="str">
+        <v>Category options</v>
+      </c>
+      <c r="F1" s="3" t="str">
+        <v>dataDimensionType</v>
+      </c>
+      <c r="G1" s="3" t="str">
         <v>Last updated</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>UID</v>
-      </c>
-      <c r="D1" s="3" t="str">
-        <v>Category options</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
+        <v>cWCABxOGWjc</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <v>AGE_REHAB</v>
+      </c>
+      <c r="C2" s="4" t="str">
         <v>Age (Rehabilitation)</v>
       </c>
-      <c r="B2" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>cWCABxOGWjc</v>
-      </c>
       <c r="D2" s="4" t="str">
+        <v>Age (Rehabilitation)</v>
+      </c>
+      <c r="E2" s="4" t="str">
         <v>0-4 years; 5-17 years; 18+ years</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G2" s="4" t="str">
+        <v>DISAGGREGATION</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
+        <v>GLevLNI9wkl</v>
+      </c>
+      <c r="B3" s="5" t="str">
         <v>default</v>
       </c>
-      <c r="B3" s="5" t="str">
-        <v/>
-      </c>
       <c r="C3" s="5" t="str">
-        <v>GLevLNI9wkl</v>
+        <v>default</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>default</v>
       </c>
+      <c r="E3" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G3" s="5" t="str">
+        <v>DISAGGREGATION</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
+        <v>LaUCSDrAfEM</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <v>REHAB_APL</v>
+      </c>
+      <c r="C4" s="4" t="str">
         <v>Rehabilitation APL</v>
       </c>
-      <c r="B4" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C4" s="4" t="str">
-        <v>LaUCSDrAfEM</v>
-      </c>
       <c r="D4" s="4" t="str">
+        <v>Rehabilitation APL</v>
+      </c>
+      <c r="E4" s="4" t="str">
         <v>Vision; Hearing; Cognition; Communication; Self-care; Mobility</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G4" s="4" t="str">
+        <v>DISAGGREGATION</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
+        <v>Zbp5R88Wprl</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <v>REHAB_HEALTH_COND</v>
+      </c>
+      <c r="C5" s="5" t="str">
         <v>Rehabilitation health conditions</v>
       </c>
-      <c r="B5" s="5" t="str">
-        <v/>
-      </c>
-      <c r="C5" s="5" t="str">
-        <v>Zbp5R88Wprl</v>
-      </c>
       <c r="D5" s="5" t="str">
+        <v>Rehabilitation health conditions</v>
+      </c>
+      <c r="E5" s="5" t="str">
         <v>SCI; TBI; Burns; Major multiple trauma; Amputation; Stroke</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G5" s="5" t="str">
+        <v>DISAGGREGATION</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
+        <v>ePUdGQbYT6A</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <v>REHAB_PERS</v>
+      </c>
+      <c r="C6" s="4" t="str">
         <v>Rehabilitation occupational groups</v>
       </c>
-      <c r="B6" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C6" s="4" t="str">
-        <v>ePUdGQbYT6A</v>
-      </c>
       <c r="D6" s="4" t="str">
+        <v>Rehabilitation occupational groups</v>
+      </c>
+      <c r="E6" s="4" t="str">
         <v>Rehabilitation doctors; Physiotherapists; Occupational therapists; Speech language therapists; Prosthetists/orthotists; Psychologists; Other personnel</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G6" s="4" t="str">
+        <v>DISAGGREGATION</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
+        <v>t73PQgK8FJv</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C7" s="5" t="str">
         <v>Rehabilitation services</v>
       </c>
-      <c r="B7" s="5" t="str">
-        <v/>
-      </c>
-      <c r="C7" s="5" t="str">
-        <v>t73PQgK8FJv</v>
-      </c>
       <c r="D7" s="5" t="str">
+        <v>Rehabilitation services</v>
+      </c>
+      <c r="E7" s="5" t="str">
         <v>Assistive products; Other rehab</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G7" s="5" t="str">
+        <v>DISAGGREGATION</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
+        <v>FRwO58KwwJt</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v>SEX</v>
+      </c>
+      <c r="C8" s="4" t="str">
         <v>Sex</v>
       </c>
-      <c r="B8" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C8" s="4" t="str">
-        <v>FRwO58KwwJt</v>
-      </c>
       <c r="D8" s="4" t="str">
+        <v>Sex</v>
+      </c>
+      <c r="E8" s="4" t="str">
         <v>Male; Female</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G8" s="4" t="str">
+        <v>DISAGGREGATION</v>
       </c>
     </row>
   </sheetData>

--- a/00/RHAG00.xlsx
+++ b/00/RHAG00.xlsx
@@ -447,7 +447,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -463,7 +463,7 @@
         <v>Code</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>RHAG00</v>
+        <v>RHAG_00</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>1.0.0</v>
+        <v>1.0.1</v>
       </c>
     </row>
     <row r="5">
@@ -487,7 +487,7 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2.35.8</v>
+        <v>2.35.12</v>
       </c>
     </row>
     <row r="6">
@@ -495,7 +495,7 @@
         <v>DHIS2 build</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>834b25f</v>
+        <v>81c0502</v>
       </c>
     </row>
     <row r="7">
@@ -503,7 +503,7 @@
         <v>Last updated</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>20220221T181704</v>
+        <v>20220420T093730</v>
       </c>
     </row>
     <row r="8">
@@ -511,7 +511,7 @@
         <v>Name</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>RHAG00_DHIS2.35</v>
+        <v>RHAG00_1.0.1_DHIS2.35.12-en</v>
       </c>
     </row>
   </sheetData>
@@ -5158,7 +5158,7 @@
         <v>REHAB - OPD report</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>REHAB - OPD report - Total sessions vs sum of sessions provided by rehab personnel</v>
+        <v>REHAB - OPD report - APs provided vs waiting days for AP provision, Communication, 5-17 years</v>
       </c>
     </row>
     <row r="39">
@@ -5166,7 +5166,7 @@
         <v>REHAB - OPD report</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>REHAB - OPD report - APs provided vs waiting days for AP provision, Communication, 5-17 years</v>
+        <v>REHAB - OPD report - Total sessions vs sum of sessions provided by rehab personnel</v>
       </c>
     </row>
     <row r="40">
@@ -5182,7 +5182,7 @@
         <v>REHAB - OPD report</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>REHAB - OPD report - 1st sessions vs waiting days for the 1st session (rehabilitation doctors)</v>
+        <v>REHAB - OPD report - APs provided vs waiting days for AP provision, Hearing, 18+ years</v>
       </c>
     </row>
     <row r="42">
@@ -5190,7 +5190,7 @@
         <v>REHAB - OPD report</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>REHAB - OPD report - APs provided vs waiting days for AP provision, Hearing, 18+ years</v>
+        <v>REHAB - OPD report - 1st sessions vs waiting days for the 1st session (rehabilitation doctors)</v>
       </c>
     </row>
     <row r="43">
@@ -5318,7 +5318,7 @@
         <v>REHAB - Rehab ward report</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>REHAB - rehab ward report - Total sessions vs sum of sessions provided for patients by HCG</v>
+        <v>REHAB - rehab ward report - APs provided vs waiting days for AP provision, Self-Care, 5-17 years</v>
       </c>
     </row>
     <row r="59">
@@ -5326,7 +5326,7 @@
         <v>REHAB - Rehab ward report</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>REHAB - rehab ward report - APs provided vs waiting days for AP provision, Self-Care, 5-17 years</v>
+        <v>REHAB - rehab ward report - Total sessions vs sum of sessions provided for patients by HCG</v>
       </c>
     </row>
     <row r="60">
@@ -5374,7 +5374,7 @@
         <v>REHAB - Rehab ward report</v>
       </c>
       <c r="B65" s="5" t="str">
-        <v>REHAB - rehab ward report - Average admission score vs number of discharged cases for Amputation</v>
+        <v>REHAB - rehab ward report - APs provided vs waiting days for AP provision, Communication, 5-17 years</v>
       </c>
     </row>
     <row r="66">
@@ -5382,7 +5382,7 @@
         <v>REHAB - Rehab ward report</v>
       </c>
       <c r="B66" s="4" t="str">
-        <v>REHAB - rehab ward report - APs provided vs waiting days for AP provision, Communication, 5-17 years</v>
+        <v>REHAB - rehab ward report - Average admission score vs number of discharged cases for Amputation</v>
       </c>
     </row>
     <row r="67">
@@ -5558,7 +5558,7 @@
         <v>REHAB - Rehab ward report</v>
       </c>
       <c r="B88" s="4" t="str">
-        <v>REHAB - rehab ward report - Total sessions vs sum of sessions provided by rehab personnel</v>
+        <v>REHAB - rehab ward report - Average admission score vs number of discharged cases for TBI</v>
       </c>
     </row>
     <row r="89">
@@ -5566,7 +5566,7 @@
         <v>REHAB - Rehab ward report</v>
       </c>
       <c r="B89" s="5" t="str">
-        <v>REHAB - rehab ward report - Average admission score vs number of discharged cases for TBI</v>
+        <v>REHAB - rehab ward report - Total sessions vs sum of sessions provided by rehab personnel</v>
       </c>
     </row>
     <row r="90">
@@ -5675,7 +5675,7 @@
         <v>DmiEPcNi1rA</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>REHAB - Availability (Essential package); REHAB - Availability (other personnel); REHAB - Availability (occupational therapists); REHAB - Availability (speech language therapists); REHAB - Availability (rehabilitation doctors); REHAB - Availability (physiotherapists); REHAB - Availability (prosthetists/orthotists); REHAB - Availability (psychologists)</v>
+        <v>REHAB - Availability (Essential package); REHAB - Availability (other personnel); REHAB - Availability (occupational therapists); REHAB - Availability (speech language therapists); REHAB - Availability (physiotherapists); REHAB - Availability (rehabilitation doctors); REHAB - Availability (prosthetists/orthotists); REHAB - Availability (psychologists)</v>
       </c>
     </row>
   </sheetData>
@@ -6205,7 +6205,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -6213,7 +6213,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="90.7109375" customWidth="1"/>
     <col min="3" max="3" width="49.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
     <col min="5" max="5" width="592.7109375" customWidth="1"/>
     <col min="6" max="6" width="173.7109375" customWidth="1"/>
     <col min="7" max="7" width="244.7109375" customWidth="1"/>
@@ -7050,10 +7050,10 @@
         <v>tsIeJwq6x8L</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>REHAB - Density of rehabilitation occupational groups (total)</v>
+        <v>REHAB - Density of rehabilitation personnel (total)</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>Density of rehab occupational groups (total)</v>
+        <v>Density of rehab personnel (total)</v>
       </c>
       <c r="D21" s="5" t="str">
         <v>REHAB_PERS_D</v>
@@ -7580,25 +7580,25 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>MxxbcSLmClE</v>
+        <v>p1rqxMgiJvg</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>REHAB - Outpatient referrals</v>
+        <v>REHAB - New cases (OPD and dedicated ward)</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>Rehab outpatient referrals</v>
+        <v>REHAB - New cases (OPD and dedicated ward)</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>REHAB_OPD_REF</v>
+        <v>RHAG_NEW_CASES_OPD_REHAB_WARD</v>
       </c>
       <c r="E34" s="4" t="str">
-        <v>Number of new outpatients accessing rehabilitation services at the facility following a visit (for the same health condition) at another level of health care.</v>
+        <v/>
       </c>
       <c r="F34" s="4" t="str">
-        <v>#{e9QjmObyVwa}</v>
+        <v>#{TzoKnhQi27z} + #{pG9tD7eFsSx}</v>
       </c>
       <c r="G34" s="4" t="str">
-        <v>Number of new clients accessing a rehabilitation service at the facility following a visit (for the same health condition) at another level of health care</v>
+        <v>REHAB - New cases (OPD and dedicated ward)</v>
       </c>
       <c r="H34" s="4" t="str">
         <v>1</v>
@@ -7621,25 +7621,25 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>JO34RZEeVDa</v>
+        <v>MxxbcSLmClE</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>REHAB - Outpatient referrals (AP)</v>
+        <v>REHAB - Outpatient referrals</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>Rehab outpatient referrals (AP)</v>
+        <v>Rehab outpatient referrals</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>REHAB_OPD_REF_AP</v>
+        <v>REHAB_OPD_REF</v>
       </c>
       <c r="E35" s="5" t="str">
-        <v>Number of new outpatients accessing rehabilitation services at the facility following a visit (for the same health condition) at another level of health care for AP provision</v>
+        <v>Number of new outpatients accessing rehabilitation services at the facility following a visit (for the same health condition) at another level of health care.</v>
       </c>
       <c r="F35" s="5" t="str">
-        <v>#{e9QjmObyVwa.SbdROR4Plgu}</v>
+        <v>#{e9QjmObyVwa}</v>
       </c>
       <c r="G35" s="5" t="str">
-        <v>Number of new clients accessing a rehabilitation service at the facility following a visit (for the same health condition) at another level of health care for AP</v>
+        <v>Number of new clients accessing a rehabilitation service at the facility following a visit (for the same health condition) at another level of health care</v>
       </c>
       <c r="H35" s="5" t="str">
         <v>1</v>
@@ -7662,40 +7662,40 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>hLkZBsoxgwG</v>
+        <v>JO34RZEeVDa</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>REHAB - Outpatients uptake (total)</v>
+        <v>REHAB - Outpatient referrals (AP)</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>Rehab uptake OPD</v>
+        <v>Rehab outpatient referrals (AP)</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>REHAB_UPT_OPD</v>
+        <v>REHAB_OPD_REF_AP</v>
       </c>
       <c r="E36" s="4" t="str">
-        <v>Number of rehabilitation sessions provided for outpatients.</v>
+        <v>Number of new outpatients accessing rehabilitation services at the facility following a visit (for the same health condition) at another level of health care for AP provision</v>
       </c>
       <c r="F36" s="4" t="str">
-        <v>#{Ip5R8pwhhZv}</v>
+        <v>#{e9QjmObyVwa.SbdROR4Plgu}</v>
       </c>
       <c r="G36" s="4" t="str">
-        <v>Number of rehabilitation sessions provided for outpatients at the health facility. This excludes clients accessing rehabilitation through outreach programs</v>
+        <v>Number of new clients accessing a rehabilitation service at the facility following a visit (for the same health condition) at another level of health care for AP</v>
       </c>
       <c r="H36" s="4" t="str">
-        <v>#{DkmMEcubiPv}</v>
+        <v>1</v>
       </c>
       <c r="I36" s="4" t="str">
-        <v>Total population</v>
+        <v>1</v>
       </c>
       <c r="J36" s="4" t="str">
-        <v>Per 10 000</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="K36" s="4" t="str">
         <v/>
       </c>
-      <c r="L36" s="4" t="b">
-        <v>1</v>
+      <c r="L36" s="4" t="str">
+        <v/>
       </c>
       <c r="M36" s="4" t="str">
         <v>GBsGhzdFlTB</v>
@@ -7703,40 +7703,40 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>SPzFhw6wpH1</v>
+        <v>hLkZBsoxgwG</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>REHAB - Outpatient totals</v>
+        <v>REHAB - Outpatients uptake (total)</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>Outpatient totals</v>
+        <v>Rehab uptake OPD</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>REHAB_OPD_TOTAL</v>
+        <v>REHAB_UPT_OPD</v>
       </c>
       <c r="E37" s="5" t="str">
-        <v>Total number of outpatients accessing rehabilitation facilities.</v>
+        <v>Number of rehabilitation sessions provided for outpatients.</v>
       </c>
       <c r="F37" s="5" t="str">
-        <v>#{CQbZPMj0hiv}</v>
+        <v>#{Ip5R8pwhhZv}</v>
       </c>
       <c r="G37" s="5" t="str">
-        <v>Outpatients (total)</v>
+        <v>Number of rehabilitation sessions provided for outpatients at the health facility. This excludes clients accessing rehabilitation through outreach programs</v>
       </c>
       <c r="H37" s="5" t="str">
+        <v>#{DkmMEcubiPv}</v>
+      </c>
+      <c r="I37" s="5" t="str">
+        <v>Total population</v>
+      </c>
+      <c r="J37" s="5" t="str">
+        <v>Per 10 000</v>
+      </c>
+      <c r="K37" s="5" t="str">
+        <v/>
+      </c>
+      <c r="L37" s="5" t="b">
         <v>1</v>
-      </c>
-      <c r="I37" s="5" t="str">
-        <v>1</v>
-      </c>
-      <c r="J37" s="5" t="str">
-        <v>Numerator only (number)</v>
-      </c>
-      <c r="K37" s="5" t="str">
-        <v/>
-      </c>
-      <c r="L37" s="5" t="str">
-        <v/>
       </c>
       <c r="M37" s="5" t="str">
         <v>GBsGhzdFlTB</v>
@@ -7744,25 +7744,25 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>b4541WVyNiD</v>
+        <v>SPzFhw6wpH1</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>REHAB - Outreach programs uptake</v>
+        <v>REHAB - Outpatient totals</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>Rehabilitation outreach programs uptake</v>
+        <v>Outpatient totals</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>REHAB_OR_UPT</v>
+        <v>REHAB_OPD_TOTAL</v>
       </c>
       <c r="E38" s="4" t="str">
-        <v>Number of rehabilitation sessions provided through outreach visits.</v>
+        <v>Total number of outpatients accessing rehabilitation facilities.</v>
       </c>
       <c r="F38" s="4" t="str">
-        <v>#{vUgr6Gw1DQO}</v>
+        <v>#{CQbZPMj0hiv}</v>
       </c>
       <c r="G38" s="4" t="str">
-        <v>Number of rehabilitation sessions provided by the outreach programs</v>
+        <v>Outpatients (total)</v>
       </c>
       <c r="H38" s="4" t="str">
         <v>1</v>
@@ -7785,25 +7785,25 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>EkGfQTvm2Yr</v>
+        <v>b4541WVyNiD</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>REHAB - Patients with individualised care plan</v>
+        <v>REHAB - Outreach programs uptake</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>Patients with individualised care plan</v>
+        <v>Rehabilitation outreach programs uptake</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>REHAB_IND_CARE_PLAN</v>
+        <v>REHAB_OR_UPT</v>
       </c>
       <c r="E39" s="5" t="str">
-        <v/>
+        <v>Number of rehabilitation sessions provided through outreach visits.</v>
       </c>
       <c r="F39" s="5" t="str">
-        <v>#{iNWQOzyha6z}</v>
+        <v>#{vUgr6Gw1DQO}</v>
       </c>
       <c r="G39" s="5" t="str">
-        <v>Number of patients with individualised care plan</v>
+        <v>Number of rehabilitation sessions provided by the outreach programs</v>
       </c>
       <c r="H39" s="5" t="str">
         <v>1</v>
@@ -7826,25 +7826,25 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>X5nPa0TvK23</v>
+        <v>EkGfQTvm2Yr</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>REHAB - PHC facilities that offer EP</v>
+        <v>REHAB - Patients with individualised care plan</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>PHC facilities with EP</v>
+        <v>Patients with individualised care plan</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>REHAB_PHC_EP_AVBL</v>
+        <v>REHAB_IND_CARE_PLAN</v>
       </c>
       <c r="E40" s="4" t="str">
         <v/>
       </c>
       <c r="F40" s="4" t="str">
-        <v>#{bUJKsy9u2xv}</v>
+        <v>#{iNWQOzyha6z}</v>
       </c>
       <c r="G40" s="4" t="str">
-        <v>Number of facilities at PHC level offering an essential package of rehabilitation based on the national standards</v>
+        <v>Number of patients with individualised care plan</v>
       </c>
       <c r="H40" s="4" t="str">
         <v>1</v>
@@ -7867,34 +7867,34 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>GXJK7DeiqCt</v>
+        <v>X5nPa0TvK23</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>REHAB - Referrals (%)</v>
+        <v>REHAB - PHC facilities that offer EP</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>Rehab referrals %</v>
+        <v>PHC facilities with EP</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>REHAB_REF_%</v>
+        <v>REHAB_PHC_EP_AVBL</v>
       </c>
       <c r="E41" s="5" t="str">
-        <v>The proportion of new clients (OPD &amp; Rehab ward) accessing rehabilitation services at the facility following a visit (for the same health condition) at another level of health care.</v>
+        <v/>
       </c>
       <c r="F41" s="5" t="str">
-        <v>#{e9QjmObyVwa} + #{xzqhA0pPOYm}</v>
+        <v>#{bUJKsy9u2xv}</v>
       </c>
       <c r="G41" s="5" t="str">
-        <v>Number of new clients accessing a rehabilitation service at the facility following a visit (for the same health condition) at another level of health care</v>
+        <v>Number of facilities at PHC level offering an essential package of rehabilitation based on the national standards</v>
       </c>
       <c r="H41" s="5" t="str">
-        <v>#{TzoKnhQi27z} + #{pG9tD7eFsSx}</v>
+        <v>1</v>
       </c>
       <c r="I41" s="5" t="str">
-        <v>Number of new rehabilitation clients accessing the facility</v>
+        <v>1</v>
       </c>
       <c r="J41" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="K41" s="5" t="str">
         <v/>
@@ -7908,34 +7908,34 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>t8ENR92duAJ</v>
+        <v>GXJK7DeiqCt</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>REHAB - Referrals (AP)</v>
+        <v>REHAB - Referrals (%)</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>Rehab referrals (AP)</v>
+        <v>Rehab referrals %</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>REHAB_REF_AP</v>
+        <v>REHAB_REF_%</v>
       </c>
       <c r="E42" s="4" t="str">
-        <v>Number of new clients (OPD &amp; rehab ward) accessing rehabilitation services at the facility following a visit (for the same health condition) at another level of health care for AP provision</v>
+        <v>The proportion of new clients (OPD &amp; Rehab ward) accessing rehabilitation services at the facility following a visit (for the same health condition) at another level of health care.</v>
       </c>
       <c r="F42" s="4" t="str">
-        <v>#{e9QjmObyVwa.SbdROR4Plgu} + #{xzqhA0pPOYm.SbdROR4Plgu}</v>
+        <v>#{e9QjmObyVwa} + #{xzqhA0pPOYm}</v>
       </c>
       <c r="G42" s="4" t="str">
-        <v>Number of new clients accessing a rehabilitation service at the facility following a visit (for the same health condition) at another level of health care for AP</v>
+        <v>Number of new clients accessing a rehabilitation service at the facility following a visit (for the same health condition) at another level of health care</v>
       </c>
       <c r="H42" s="4" t="str">
-        <v>1</v>
+        <v>#{TzoKnhQi27z} + #{pG9tD7eFsSx}</v>
       </c>
       <c r="I42" s="4" t="str">
-        <v>1</v>
+        <v>Number of new rehabilitation clients accessing the facility</v>
       </c>
       <c r="J42" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="K42" s="4" t="str">
         <v/>
@@ -7949,25 +7949,25 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>CNYovEySiyD</v>
+        <v>t8ENR92duAJ</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>REHAB - Referrals (Other services)</v>
+        <v>REHAB - Referrals (AP)</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v>Rehab referrals (Other services)</v>
+        <v>Rehab referrals (AP)</v>
       </c>
       <c r="D43" s="5" t="str">
-        <v>REHAB_REF_OTHER</v>
+        <v>REHAB_REF_AP</v>
       </c>
       <c r="E43" s="5" t="str">
-        <v>Number of new clients (OPD &amp; rehab ward) accessing rehabilitation services at the facility following a visit (for the same health condition) at another level of health care (excl. AP)</v>
+        <v>Number of new clients (OPD &amp; rehab ward) accessing rehabilitation services at the facility following a visit (for the same health condition) at another level of health care for AP provision</v>
       </c>
       <c r="F43" s="5" t="str">
-        <v>#{e9QjmObyVwa.bjVuzcYLeb1} + #{xzqhA0pPOYm.bjVuzcYLeb1}</v>
+        <v>#{e9QjmObyVwa.SbdROR4Plgu} + #{xzqhA0pPOYm.SbdROR4Plgu}</v>
       </c>
       <c r="G43" s="5" t="str">
-        <v>Number of new clients accessing a rehabilitation service at the facility following a visit (for the same health condition) at another level of health care (excl. AP)</v>
+        <v>Number of new clients accessing a rehabilitation service at the facility following a visit (for the same health condition) at another level of health care for AP</v>
       </c>
       <c r="H43" s="5" t="str">
         <v>1</v>
@@ -7990,25 +7990,25 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>y1AGsAnuSwX</v>
+        <v>CNYovEySiyD</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>REHAB - Referral totals</v>
+        <v>REHAB - Referrals (Other services)</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>Rehab referral totals</v>
+        <v>Rehab referrals (Other services)</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>REHAB_REF</v>
+        <v>REHAB_REF_OTHER</v>
       </c>
       <c r="E44" s="4" t="str">
-        <v>Number of new clients (OPD &amp; Rehab ward) accessing rehabilitation services at the facility following a visit (for the same health condition) at another level of health care.</v>
+        <v>Number of new clients (OPD &amp; rehab ward) accessing rehabilitation services at the facility following a visit (for the same health condition) at another level of health care (excl. AP)</v>
       </c>
       <c r="F44" s="4" t="str">
-        <v>#{e9QjmObyVwa} + #{xzqhA0pPOYm}</v>
+        <v>#{e9QjmObyVwa.bjVuzcYLeb1} + #{xzqhA0pPOYm.bjVuzcYLeb1}</v>
       </c>
       <c r="G44" s="4" t="str">
-        <v>Number of new clients accessing a rehabilitation service at the facility following a visit (for the same health condition) at another level of health care</v>
+        <v>Number of new clients accessing a rehabilitation service at the facility following a visit (for the same health condition) at another level of health care (excl. AP)</v>
       </c>
       <c r="H44" s="4" t="str">
         <v>1</v>
@@ -8022,8 +8022,8 @@
       <c r="K44" s="4" t="str">
         <v/>
       </c>
-      <c r="L44" s="4" t="b">
-        <v>1</v>
+      <c r="L44" s="4" t="str">
+        <v/>
       </c>
       <c r="M44" s="4" t="str">
         <v>GBsGhzdFlTB</v>
@@ -8031,40 +8031,40 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>VOdQ2YRmSzf</v>
+        <v>y1AGsAnuSwX</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>REHAB - Rehabilitation bed density</v>
+        <v>REHAB - Referral totals</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>Rehab bed density</v>
+        <v>Rehab referral totals</v>
       </c>
       <c r="D45" s="5" t="str">
-        <v>REHAB_BED_D</v>
+        <v>REHAB_REF</v>
       </c>
       <c r="E45" s="5" t="str">
-        <v>Dedicated rehabilitation beds per capita is an indicator of the availability of specialist, high-intensity, longer stay rehabilitation services for the population.</v>
+        <v>Number of new clients (OPD &amp; Rehab ward) accessing rehabilitation services at the facility following a visit (for the same health condition) at another level of health care.</v>
       </c>
       <c r="F45" s="5" t="str">
-        <v>#{K0Y94lADtGw}</v>
+        <v>#{e9QjmObyVwa} + #{xzqhA0pPOYm}</v>
       </c>
       <c r="G45" s="5" t="str">
-        <v>Number of rehabilitation beds available in the facility</v>
+        <v>Number of new clients accessing a rehabilitation service at the facility following a visit (for the same health condition) at another level of health care</v>
       </c>
       <c r="H45" s="5" t="str">
-        <v>#{DkmMEcubiPv}</v>
+        <v>1</v>
       </c>
       <c r="I45" s="5" t="str">
-        <v>Total population</v>
+        <v>1</v>
       </c>
       <c r="J45" s="5" t="str">
-        <v>Per 10 000</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="K45" s="5" t="str">
         <v/>
       </c>
-      <c r="L45" s="5" t="str">
-        <v/>
+      <c r="L45" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="M45" s="5" t="str">
         <v>GBsGhzdFlTB</v>
@@ -8072,34 +8072,34 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>s4XJNfkBVa5</v>
+        <v>VOdQ2YRmSzf</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>REHAB - Rehabilitation personnel (total)</v>
+        <v>REHAB - Rehabilitation bed density</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>Rehab personnel</v>
+        <v>Rehab bed density</v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>REHAB_PERS</v>
+        <v>REHAB_BED_D</v>
       </c>
       <c r="E46" s="4" t="str">
-        <v>Rehabilitation personnel usually include rehabilitation doctors, rehabilitation nurses, physiotherapists, occupational therapists, speech language therapists, prosthetists and orthotists, and psychologists. Other rehabilitation professions relevant to the country can also be included, for example audiologists, social workers and mid-level rehabilitation cadres. It also allows to include hospital rehabilitation personnel that are not counted for and working for the rehabilitation department. Distribution of the workforce is measured by geographic area, across, for instance, provinces.</v>
+        <v>Dedicated rehabilitation beds per capita is an indicator of the availability of specialist, high-intensity, longer stay rehabilitation services for the population.</v>
       </c>
       <c r="F46" s="4" t="str">
-        <v>#{tHHAasM37vd}</v>
+        <v>#{K0Y94lADtGw}</v>
       </c>
       <c r="G46" s="4" t="str">
-        <v>Number of rehabilitation personnel providing services</v>
+        <v>Number of rehabilitation beds available in the facility</v>
       </c>
       <c r="H46" s="4" t="str">
-        <v>1</v>
+        <v>#{DkmMEcubiPv}</v>
       </c>
       <c r="I46" s="4" t="str">
-        <v>1</v>
+        <v>Total population</v>
       </c>
       <c r="J46" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Per 10 000</v>
       </c>
       <c r="K46" s="4" t="str">
         <v/>
@@ -8113,40 +8113,40 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>U5tL3Eqq3Vj</v>
+        <v>s4XJNfkBVa5</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>REHAB - Rehabilitation service utilization (total)</v>
+        <v>REHAB - Rehabilitation personnel (total)</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v xml:space="preserve">Rehabilitation service utilization </v>
+        <v>Rehab personnel</v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>REHAB_SER_UTIL</v>
+        <v>REHAB_PERS</v>
       </c>
       <c r="E47" s="5" t="str">
-        <v>Number of clients accessing rehabilitation services.</v>
+        <v>Rehabilitation personnel usually include rehabilitation doctors, rehabilitation nurses, physiotherapists, occupational therapists, speech language therapists, prosthetists and orthotists, and psychologists. Other rehabilitation professions relevant to the country can also be included, for example audiologists, social workers and mid-level rehabilitation cadres. It also allows to include hospital rehabilitation personnel that are not counted for and working for the rehabilitation department. Distribution of the workforce is measured by geographic area, across, for instance, provinces.</v>
       </c>
       <c r="F47" s="5" t="str">
-        <v>#{CQbZPMj0hiv} + #{dsF0mFdSZf3} + #{Uujiv09bCBw}</v>
+        <v>#{tHHAasM37vd}</v>
       </c>
       <c r="G47" s="5" t="str">
-        <v>Number of clients that receive any rehabilitation service in the facility. It includes in-and outpatients, and excludes people accessing rehabilitation through outreach programs.</v>
+        <v>Number of rehabilitation personnel providing services</v>
       </c>
       <c r="H47" s="5" t="str">
-        <v>#{DkmMEcubiPv}</v>
+        <v>1</v>
       </c>
       <c r="I47" s="5" t="str">
-        <v>Total population</v>
+        <v>1</v>
       </c>
       <c r="J47" s="5" t="str">
-        <v>Per 10 000</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="K47" s="5" t="str">
         <v/>
       </c>
-      <c r="L47" s="5" t="b">
-        <v>1</v>
+      <c r="L47" s="5" t="str">
+        <v/>
       </c>
       <c r="M47" s="5" t="str">
         <v>GBsGhzdFlTB</v>
@@ -8154,25 +8154,25 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>M0UPequfEYf</v>
+        <v>U5tL3Eqq3Vj</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>REHAB - Service utilization (cancer HCG)</v>
+        <v>REHAB - Rehabilitation service utilization (total)</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>Rehab service utilization CA</v>
+        <v xml:space="preserve">Rehabilitation service utilization </v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>REHAB_SER_UTIL_CA</v>
+        <v>REHAB_SER_UTIL</v>
       </c>
       <c r="E48" s="4" t="str">
-        <v>Number of clients (cancer HCG) accessing rehabilitation services.</v>
+        <v>Number of clients accessing rehabilitation services.</v>
       </c>
       <c r="F48" s="4" t="str">
-        <v>#{SdRniWPAbbm} + #{cZMyMKuJTVx} + #{WzcU3Pe70Ea}</v>
+        <v>#{CQbZPMj0hiv} + #{dsF0mFdSZf3} + #{Uujiv09bCBw}</v>
       </c>
       <c r="G48" s="4" t="str">
-        <v>Number of rehabilitation clients (cancer HCG) receiving services at the health facility</v>
+        <v>Number of clients that receive any rehabilitation service in the facility. It includes in-and outpatients, and excludes people accessing rehabilitation through outreach programs.</v>
       </c>
       <c r="H48" s="4" t="str">
         <v>#{DkmMEcubiPv}</v>
@@ -8564,40 +8564,40 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>Vq98oh9BIB1</v>
+        <v>XRDx8S5Mnj0</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>REHAB - Uptake (cancer HCG)</v>
+        <v>REHAB - Sessions - occupational group ratio</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>Rehab uptake CA</v>
+        <v>REHAB - Sessions-occupational group ratio</v>
       </c>
       <c r="D58" s="4" t="str">
-        <v>REHAB_UPT_CA</v>
+        <v>REHAB_SESSIONS_OCC_GROUP_RATIO</v>
       </c>
       <c r="E58" s="4" t="str">
-        <v>Number of rehabilitation sessions provided (cancer HCG). A disaggregation by facility type provides an overview of rehabilitation uptake across the levels of care.</v>
+        <v/>
       </c>
       <c r="F58" s="4" t="str">
-        <v>#{Mp1q4Y65Tii} + #{zju8shC5PI7} + #{IMxj0rg2TP0}</v>
+        <v>#{E7YUYPCVIge} + #{szHsRfo80l7} + #{eDOMwsLz3Oj}</v>
       </c>
       <c r="G58" s="4" t="str">
-        <v>Number of rehabilitation sessions for cancer HCG provided at the health facility</v>
+        <v>Sessions provided (IPD, OPD, rehab ward)</v>
       </c>
       <c r="H58" s="4" t="str">
-        <v>#{DkmMEcubiPv}</v>
+        <v>#{tHHAasM37vd}</v>
       </c>
       <c r="I58" s="4" t="str">
-        <v>Total population</v>
+        <v>REHAB - Occupational groups</v>
       </c>
       <c r="J58" s="4" t="str">
-        <v>Per 10 000</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="K58" s="4" t="str">
         <v/>
       </c>
-      <c r="L58" s="4" t="str">
-        <v/>
+      <c r="L58" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="M58" s="4" t="str">
         <v>GBsGhzdFlTB</v>
@@ -8605,34 +8605,34 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="str">
-        <v>klNqjksyNAL</v>
+        <v>kxioV2icUnn</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>REHAB - Uptake (cardiovascular HCG)</v>
+        <v>REHAB - Sessions (total)</v>
       </c>
       <c r="C59" s="5" t="str">
-        <v>Rehab uptake CDV</v>
+        <v>Rehab sessions total</v>
       </c>
       <c r="D59" s="5" t="str">
-        <v>REHAB_UPT_CDV</v>
+        <v>RHAG_SESSIONS_TOTAL</v>
       </c>
       <c r="E59" s="5" t="str">
-        <v>Number of rehabilitation sessions provided (cardiovascular HCG). A disaggregation by facility type provides an overview of rehabilitation uptake across the levels of care.</v>
+        <v/>
       </c>
       <c r="F59" s="5" t="str">
-        <v>#{FNa1hQREQv1} +  #{qdn04wmFpEQ} + #{Te8hrtcLDJx}</v>
+        <v>#{tXNCDff0PQ0} + #{Ip5R8pwhhZv} + #{OiAXtOHBwtu}</v>
       </c>
       <c r="G59" s="5" t="str">
-        <v>Number of rehabilitation sessions for cardiovascular HCG provided at the health facility</v>
+        <v>REHAB - Sessions provided (total)</v>
       </c>
       <c r="H59" s="5" t="str">
-        <v>#{DkmMEcubiPv}</v>
+        <v>1</v>
       </c>
       <c r="I59" s="5" t="str">
-        <v>Total population</v>
+        <v>1</v>
       </c>
       <c r="J59" s="5" t="str">
-        <v>Per 10 000</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="K59" s="5" t="str">
         <v/>
@@ -8646,25 +8646,25 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="str">
-        <v>bW75ZyPq9aZ</v>
+        <v>Vq98oh9BIB1</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>REHAB - Uptake (mental HCG)</v>
+        <v>REHAB - Uptake (cancer HCG)</v>
       </c>
       <c r="C60" s="4" t="str">
-        <v>Rehab uptake MENT</v>
+        <v>Rehab uptake CA</v>
       </c>
       <c r="D60" s="4" t="str">
-        <v>REHAB_UPT_MENT</v>
+        <v>REHAB_UPT_CA</v>
       </c>
       <c r="E60" s="4" t="str">
-        <v>Number of rehabilitation sessions provided (mental HCG). A disaggregation by facility type provides an overview of rehabilitation uptake across the levels of care.</v>
+        <v>Number of rehabilitation sessions provided (cancer HCG). A disaggregation by facility type provides an overview of rehabilitation uptake across the levels of care.</v>
       </c>
       <c r="F60" s="4" t="str">
-        <v>#{vbLtXFFvVUo} + #{iawU9V018ct} + #{X0NzCEgIjol}</v>
+        <v>#{Mp1q4Y65Tii} + #{zju8shC5PI7} + #{IMxj0rg2TP0}</v>
       </c>
       <c r="G60" s="4" t="str">
-        <v>Number of rehabilitation sessions for mental HCG provided at the health facility</v>
+        <v>Number of rehabilitation sessions for cancer HCG provided at the health facility</v>
       </c>
       <c r="H60" s="4" t="str">
         <v>#{DkmMEcubiPv}</v>
@@ -8687,25 +8687,25 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="str">
-        <v>ME2YCnift7x</v>
+        <v>klNqjksyNAL</v>
       </c>
       <c r="B61" s="5" t="str">
-        <v>REHAB - Uptake (musculoskeletal HCG)</v>
+        <v>REHAB - Uptake (cardiovascular HCG)</v>
       </c>
       <c r="C61" s="5" t="str">
-        <v>Rehab uptake MSK</v>
+        <v>Rehab uptake CDV</v>
       </c>
       <c r="D61" s="5" t="str">
-        <v>REHAB_UPT_MSK</v>
+        <v>REHAB_UPT_CDV</v>
       </c>
       <c r="E61" s="5" t="str">
-        <v>Number of rehabilitation sessions provided (musculoskeletal HCG). A disaggregation by facility type provides an overview of rehabilitation uptake across the levels of care.</v>
+        <v>Number of rehabilitation sessions provided (cardiovascular HCG). A disaggregation by facility type provides an overview of rehabilitation uptake across the levels of care.</v>
       </c>
       <c r="F61" s="5" t="str">
-        <v>#{Ua6zbHRrUBU} + #{sOwBbM8iwkU} + #{Z1qw26G9MKN}</v>
+        <v>#{FNa1hQREQv1} +  #{qdn04wmFpEQ} + #{Te8hrtcLDJx}</v>
       </c>
       <c r="G61" s="5" t="str">
-        <v>Number of rehabilitation sessions for musculoskeletal HCG provided at the health facility</v>
+        <v>Number of rehabilitation sessions for cardiovascular HCG provided at the health facility</v>
       </c>
       <c r="H61" s="5" t="str">
         <v>#{DkmMEcubiPv}</v>
@@ -8728,40 +8728,40 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="str">
-        <v>XRDx8S5Mnj0</v>
+        <v>bW75ZyPq9aZ</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>REHAB - Uptake - occupational group ratio</v>
+        <v>REHAB - Uptake (mental HCG)</v>
       </c>
       <c r="C62" s="4" t="str">
-        <v>REHAB - Uptake-occupational group ratio</v>
+        <v>Rehab uptake MENT</v>
       </c>
       <c r="D62" s="4" t="str">
-        <v>REHAB_UPTAKE_OCC_GROUP_RATIO</v>
+        <v>REHAB_UPT_MENT</v>
       </c>
       <c r="E62" s="4" t="str">
-        <v/>
+        <v>Number of rehabilitation sessions provided (mental HCG). A disaggregation by facility type provides an overview of rehabilitation uptake across the levels of care.</v>
       </c>
       <c r="F62" s="4" t="str">
-        <v>#{E7YUYPCVIge} + #{szHsRfo80l7} + #{eDOMwsLz3Oj}</v>
+        <v>#{vbLtXFFvVUo} + #{iawU9V018ct} + #{X0NzCEgIjol}</v>
       </c>
       <c r="G62" s="4" t="str">
-        <v>Sessions provided (IPD, OPD, rehab ward)</v>
+        <v>Number of rehabilitation sessions for mental HCG provided at the health facility</v>
       </c>
       <c r="H62" s="4" t="str">
-        <v>#{tHHAasM37vd}</v>
+        <v>#{DkmMEcubiPv}</v>
       </c>
       <c r="I62" s="4" t="str">
-        <v>REHAB - Occupational groups</v>
+        <v>Total population</v>
       </c>
       <c r="J62" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Per 10 000</v>
       </c>
       <c r="K62" s="4" t="str">
         <v/>
       </c>
-      <c r="L62" s="4" t="b">
-        <v>1</v>
+      <c r="L62" s="4" t="str">
+        <v/>
       </c>
       <c r="M62" s="4" t="str">
         <v>GBsGhzdFlTB</v>
@@ -8769,40 +8769,40 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="str">
-        <v>X9BEUFt3AmK</v>
+        <v>ME2YCnift7x</v>
       </c>
       <c r="B63" s="5" t="str">
-        <v>REHAB - Uptake per occupational group</v>
+        <v>REHAB - Uptake (musculoskeletal HCG)</v>
       </c>
       <c r="C63" s="5" t="str">
-        <v>REHAB - Uptake per occupational group</v>
+        <v>Rehab uptake MSK</v>
       </c>
       <c r="D63" s="5" t="str">
-        <v>REHAB_UPTAKE_OCC_GROUP</v>
+        <v>REHAB_UPT_MSK</v>
       </c>
       <c r="E63" s="5" t="str">
-        <v/>
+        <v>Number of rehabilitation sessions provided (musculoskeletal HCG). A disaggregation by facility type provides an overview of rehabilitation uptake across the levels of care.</v>
       </c>
       <c r="F63" s="5" t="str">
-        <v>#{E7YUYPCVIge} + #{szHsRfo80l7} + #{eDOMwsLz3Oj}</v>
+        <v>#{Ua6zbHRrUBU} + #{sOwBbM8iwkU} + #{Z1qw26G9MKN}</v>
       </c>
       <c r="G63" s="5" t="str">
-        <v>Sessions provided (IPD, OPD, rehab ward)</v>
+        <v>Number of rehabilitation sessions for musculoskeletal HCG provided at the health facility</v>
       </c>
       <c r="H63" s="5" t="str">
-        <v>1</v>
+        <v>#{DkmMEcubiPv}</v>
       </c>
       <c r="I63" s="5" t="str">
-        <v>1</v>
+        <v>Total population</v>
       </c>
       <c r="J63" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Per 10 000</v>
       </c>
       <c r="K63" s="5" t="str">
         <v/>
       </c>
-      <c r="L63" s="5" t="b">
-        <v>1</v>
+      <c r="L63" s="5" t="str">
+        <v/>
       </c>
       <c r="M63" s="5" t="str">
         <v>GBsGhzdFlTB</v>
@@ -9273,7 +9273,7 @@
         <v>REHAB_WD_SERV_RD_AVG</v>
       </c>
       <c r="E75" s="5" t="str">
-        <v>Average waiting time for the1st rehabilitation session (excluding AP provision) for outpatients in days.</v>
+        <v>Average waiting time for the 1st rehabilitation session (excluding AP provision) for outpatients in days.</v>
       </c>
       <c r="F75" s="5" t="str">
         <v>#{W4xnozMP2Lg.cXGbZvYPlEL}</v>
@@ -9589,25 +9589,25 @@
     </row>
     <row r="83">
       <c r="A83" s="5" t="str">
-        <v>HTZ7STQR648</v>
+        <v>M0UPequfEYf</v>
       </c>
       <c r="B83" s="5" t="str">
-        <v>REHAB - Uptake (neurological HCG)</v>
+        <v>REHAB - Service utilization (cancer HCG)</v>
       </c>
       <c r="C83" s="5" t="str">
-        <v>Rehab uptake NEURO</v>
+        <v>Rehab service utilization CA</v>
       </c>
       <c r="D83" s="5" t="str">
-        <v>REHAB_UPT_NEURO</v>
+        <v>REHAB_SER_UTIL_CA</v>
       </c>
       <c r="E83" s="5" t="str">
-        <v>Number of rehabilitation sessions provided (neurological HCG). A disaggregation by facility type provides an overview of rehabilitation uptake across the levels of care.</v>
+        <v>Number of clients (cancer HCG) accessing rehabilitation services.</v>
       </c>
       <c r="F83" s="5" t="str">
-        <v>#{Q8rU0RMCgjN} + #{K9ftiy9hdum} + #{EB8iOzXn7AJ}</v>
+        <v>#{SdRniWPAbbm} + #{cZMyMKuJTVx} + #{WzcU3Pe70Ea}</v>
       </c>
       <c r="G83" s="5" t="str">
-        <v>Number of rehabilitation sessions for neurological HCG provided at the health facility</v>
+        <v>Number of rehabilitation clients (cancer HCG) receiving services at the health facility</v>
       </c>
       <c r="H83" s="5" t="str">
         <v>#{DkmMEcubiPv}</v>
@@ -9621,8 +9621,8 @@
       <c r="K83" s="5" t="str">
         <v/>
       </c>
-      <c r="L83" s="5" t="str">
-        <v/>
+      <c r="L83" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="M83" s="5" t="str">
         <v>GBsGhzdFlTB</v>
@@ -9630,31 +9630,31 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="str">
-        <v>NcVFTxtxity</v>
+        <v>X9BEUFt3AmK</v>
       </c>
       <c r="B84" s="4" t="str">
-        <v>REHAB - Waiting time for 1st session with a speech language therapist - outpatients (mean)</v>
+        <v>REHAB - Sessions per occupational group</v>
       </c>
       <c r="C84" s="4" t="str">
-        <v>Waiting time for 1st session - SLT - OPD - mean</v>
+        <v>REHAB - Sessions per occupational group</v>
       </c>
       <c r="D84" s="4" t="str">
-        <v>REHAB_WD_SERV_SLT_AVG</v>
+        <v>REHAB_SESSIONS_OCC_GROUP</v>
       </c>
       <c r="E84" s="4" t="str">
-        <v>Average waiting time for the 1st rehabilitation session (excluding AP provision) for outpatients in days.</v>
+        <v/>
       </c>
       <c r="F84" s="4" t="str">
-        <v>#{W4xnozMP2Lg.bqaF3u9wmkk}</v>
+        <v>#{E7YUYPCVIge} + #{szHsRfo80l7} + #{eDOMwsLz3Oj}</v>
       </c>
       <c r="G84" s="4" t="str">
-        <v>Waiting days for the first rehabilitation session with speech language therapist (OPD)</v>
+        <v>Sessions provided (IPD, OPD, rehab ward)</v>
       </c>
       <c r="H84" s="4" t="str">
-        <v>#{Cxzy2hF0UhA.bqaF3u9wmkk}</v>
+        <v>1</v>
       </c>
       <c r="I84" s="4" t="str">
-        <v>REHAB - First sessions (OPD) - Speech language therapists</v>
+        <v>1</v>
       </c>
       <c r="J84" s="4" t="str">
         <v>Numerator only (number)</v>
@@ -9662,8 +9662,8 @@
       <c r="K84" s="4" t="str">
         <v/>
       </c>
-      <c r="L84" s="4" t="str">
-        <v/>
+      <c r="L84" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="M84" s="4" t="str">
         <v>GBsGhzdFlTB</v>
@@ -9671,42 +9671,124 @@
     </row>
     <row r="85">
       <c r="A85" s="5" t="str">
+        <v>HTZ7STQR648</v>
+      </c>
+      <c r="B85" s="5" t="str">
+        <v>REHAB - Uptake (neurological HCG)</v>
+      </c>
+      <c r="C85" s="5" t="str">
+        <v>Rehab uptake NEURO</v>
+      </c>
+      <c r="D85" s="5" t="str">
+        <v>REHAB_UPT_NEURO</v>
+      </c>
+      <c r="E85" s="5" t="str">
+        <v>Number of rehabilitation sessions provided (neurological HCG). A disaggregation by facility type provides an overview of rehabilitation uptake across the levels of care.</v>
+      </c>
+      <c r="F85" s="5" t="str">
+        <v>#{Q8rU0RMCgjN} + #{K9ftiy9hdum} + #{EB8iOzXn7AJ}</v>
+      </c>
+      <c r="G85" s="5" t="str">
+        <v>Number of rehabilitation sessions for neurological HCG provided at the health facility</v>
+      </c>
+      <c r="H85" s="5" t="str">
+        <v>#{DkmMEcubiPv}</v>
+      </c>
+      <c r="I85" s="5" t="str">
+        <v>Total population</v>
+      </c>
+      <c r="J85" s="5" t="str">
+        <v>Per 10 000</v>
+      </c>
+      <c r="K85" s="5" t="str">
+        <v/>
+      </c>
+      <c r="L85" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M85" s="5" t="str">
+        <v>GBsGhzdFlTB</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="str">
+        <v>NcVFTxtxity</v>
+      </c>
+      <c r="B86" s="4" t="str">
+        <v>REHAB - Waiting time for 1st session with a speech language therapist - outpatients (mean)</v>
+      </c>
+      <c r="C86" s="4" t="str">
+        <v>Waiting time for 1st session - SLT - OPD - mean</v>
+      </c>
+      <c r="D86" s="4" t="str">
+        <v>REHAB_WD_SERV_SLT_AVG</v>
+      </c>
+      <c r="E86" s="4" t="str">
+        <v>Average waiting time for the 1st rehabilitation session (excluding AP provision) for outpatients in days.</v>
+      </c>
+      <c r="F86" s="4" t="str">
+        <v>#{W4xnozMP2Lg.bqaF3u9wmkk}</v>
+      </c>
+      <c r="G86" s="4" t="str">
+        <v>Waiting days for the first rehabilitation session with speech language therapist (OPD)</v>
+      </c>
+      <c r="H86" s="4" t="str">
+        <v>#{Cxzy2hF0UhA.bqaF3u9wmkk}</v>
+      </c>
+      <c r="I86" s="4" t="str">
+        <v>REHAB - First sessions (OPD) - Speech language therapists</v>
+      </c>
+      <c r="J86" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="K86" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L86" s="4" t="str">
+        <v/>
+      </c>
+      <c r="M86" s="4" t="str">
+        <v>GBsGhzdFlTB</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="str">
         <v>UtqCP0xwfwq</v>
       </c>
-      <c r="B85" s="5" t="str">
+      <c r="B87" s="5" t="str">
         <v>REHAB - WHO basic package availability at PHC</v>
       </c>
-      <c r="C85" s="5" t="str">
+      <c r="C87" s="5" t="str">
         <v>WHO basic package availability at PHC</v>
       </c>
-      <c r="D85" s="5" t="str">
+      <c r="D87" s="5" t="str">
         <v>REHAB_WHO_BASIC_PKG_AVBL</v>
       </c>
-      <c r="E85" s="5" t="str">
+      <c r="E87" s="5" t="str">
         <v>Percentage of facilities at PHC level offering a WHO basic package of rehabilitation.</v>
       </c>
-      <c r="F85" s="5" t="str">
+      <c r="F87" s="5" t="str">
         <v>#{KhAi3DgOmBs}</v>
       </c>
-      <c r="G85" s="5" t="str">
+      <c r="G87" s="5" t="str">
         <v>Number of facilities at PHC level offering a WHO basic package of rehabilitation based on the national standards</v>
       </c>
-      <c r="H85" s="5" t="str">
+      <c r="H87" s="5" t="str">
         <v>OUG{aT5pkgRLbw5}</v>
       </c>
-      <c r="I85" s="5" t="str">
+      <c r="I87" s="5" t="str">
         <v>Number of facilities at PHC level</v>
       </c>
-      <c r="J85" s="5" t="str">
+      <c r="J87" s="5" t="str">
         <v>Percentage</v>
       </c>
-      <c r="K85" s="5">
+      <c r="K87" s="5">
         <v>2</v>
       </c>
-      <c r="L85" s="5" t="str">
-        <v/>
-      </c>
-      <c r="M85" s="5" t="str">
+      <c r="L87" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M87" s="5" t="str">
         <v>GBsGhzdFlTB</v>
       </c>
     </row>
@@ -9919,7 +10001,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -10140,7 +10222,7 @@
         <v>LINE</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>REHAB.01.04 - Timeline of personnel density per occupational group</v>
+        <v>REHAB.01.04 - Timeline of personnel density</v>
       </c>
       <c r="D11" s="5" t="str">
         <v>X7g9ujpviFi</v>
@@ -10477,13 +10559,13 @@
         <v/>
       </c>
       <c r="B28" s="4" t="str">
-        <v>TEXT</v>
+        <v>MAP</v>
       </c>
       <c r="C28" s="4" t="str">
         <v/>
       </c>
       <c r="D28" s="4" t="str">
-        <v>YLjfPwdOWJq</v>
+        <v>clbQjwuOSBW</v>
       </c>
       <c r="E28" s="4" t="str">
         <v/>
@@ -10497,13 +10579,13 @@
         <v/>
       </c>
       <c r="B29" s="5" t="str">
-        <v>MAP</v>
+        <v>TEXT</v>
       </c>
       <c r="C29" s="5" t="str">
         <v/>
       </c>
       <c r="D29" s="5" t="str">
-        <v>G9jNwc0es9V</v>
+        <v>YoCSoTUCc8O</v>
       </c>
       <c r="E29" s="5" t="str">
         <v/>
@@ -10514,16 +10596,16 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v/>
+        <v>FkqBFHIiU2I</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>MAP</v>
+        <v>COLUMN</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v/>
+        <v>REHAB.03.13 - Rehabilitation sessions (total), per administrative level</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>AAJEcvKOfcQ</v>
+        <v>f4EioXlG3oU</v>
       </c>
       <c r="E30" s="4" t="str">
         <v/>
@@ -10534,16 +10616,16 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>ok9itaObRtH</v>
+        <v/>
       </c>
       <c r="B31" s="5" t="str">
-        <v>COLUMN</v>
+        <v>TEXT</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>REHAB.03.12 - Rehabilitation uptake and personnel availability</v>
+        <v/>
       </c>
       <c r="D31" s="5" t="str">
-        <v>sLEUTG10ZMc</v>
+        <v>YLjfPwdOWJq</v>
       </c>
       <c r="E31" s="5" t="str">
         <v/>
@@ -10563,7 +10645,7 @@
         <v/>
       </c>
       <c r="D32" s="4" t="str">
-        <v>vVrkF3SH0A7</v>
+        <v>G9jNwc0es9V</v>
       </c>
       <c r="E32" s="4" t="str">
         <v/>
@@ -10574,16 +10656,16 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>BnYCfxP7N9J</v>
+        <v/>
       </c>
       <c r="B33" s="5" t="str">
-        <v>PIVOT_TABLE</v>
+        <v>MAP</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>REHAB.03.04.01 - Rehabilitation uptake and service utilization, by health condition group, last quarter</v>
+        <v/>
       </c>
       <c r="D33" s="5" t="str">
-        <v>ymRmSA019Qu</v>
+        <v>AAJEcvKOfcQ</v>
       </c>
       <c r="E33" s="5" t="str">
         <v/>
@@ -10594,16 +10676,16 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v/>
+        <v>ok9itaObRtH</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>TEXT</v>
+        <v>COLUMN</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v/>
+        <v>REHAB.03.12 - Rehabilitation sessions and personnel availability</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>SNhHfDYCo6P</v>
+        <v>sLEUTG10ZMc</v>
       </c>
       <c r="E34" s="4" t="str">
         <v/>
@@ -10614,16 +10696,16 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>c2PuUceb6AH</v>
+        <v>BnYCfxP7N9J</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>COLUMN</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>REHAB.03.04 - Rehabilitation uptake and service utilization, by health condition group, last quarter</v>
+        <v>REHAB.03.04.01 - Rehabilitation uptake and service utilization, by health condition group, last quarter</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>QzwcnEmgLgs</v>
+        <v>ymRmSA019Qu</v>
       </c>
       <c r="E35" s="5" t="str">
         <v/>
@@ -10643,7 +10725,7 @@
         <v/>
       </c>
       <c r="D36" s="4" t="str">
-        <v>Y8cxTsNeq5y</v>
+        <v>SNhHfDYCo6P</v>
       </c>
       <c r="E36" s="4" t="str">
         <v/>
@@ -10654,16 +10736,16 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>pvcRvoNpy7V</v>
+        <v>c2PuUceb6AH</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>STACKED_BAR</v>
+        <v>COLUMN</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>REHAB.03.10 - Outreach program uptake per age group</v>
+        <v>REHAB.03.04 - Rehabilitation uptake and service utilization, by health condition group, last quarter</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>B0QLQIIwGLL</v>
+        <v>QzwcnEmgLgs</v>
       </c>
       <c r="E37" s="5" t="str">
         <v/>
@@ -10674,16 +10756,16 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>AGdYaUieBAB</v>
+        <v/>
       </c>
       <c r="B38" s="4" t="str">
-        <v>RADAR</v>
+        <v>TEXT</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>REHAB.03.06 - Rehabilitation utilization per health condition group</v>
+        <v/>
       </c>
       <c r="D38" s="4" t="str">
-        <v>jCLQLxJHbxH</v>
+        <v>Y8cxTsNeq5y</v>
       </c>
       <c r="E38" s="4" t="str">
         <v/>
@@ -10694,16 +10776,16 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v/>
+        <v>pvcRvoNpy7V</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>TEXT</v>
+        <v>STACKED_BAR</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v/>
+        <v>REHAB.03.10 - Outreach program uptake</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>odcE6tdGkoz</v>
+        <v>B0QLQIIwGLL</v>
       </c>
       <c r="E39" s="5" t="str">
         <v/>
@@ -10714,16 +10796,16 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>UL87DNZZkRX</v>
+        <v>AGdYaUieBAB</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>LINE</v>
+        <v>RADAR</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>REHAB.03.11 - Timeline of facility-based uptake per health condition group</v>
+        <v>REHAB.03.06 - Rehabilitation utilization per health condition group</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>k3ibUCFPrN9</v>
+        <v>jCLQLxJHbxH</v>
       </c>
       <c r="E40" s="4" t="str">
         <v/>
@@ -10743,7 +10825,7 @@
         <v/>
       </c>
       <c r="D41" s="5" t="str">
-        <v>Ii4dQj1f0Ij</v>
+        <v>odcE6tdGkoz</v>
       </c>
       <c r="E41" s="5" t="str">
         <v/>
@@ -10754,16 +10836,16 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>hNfeyBbGrAQ</v>
+        <v>UL87DNZZkRX</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>RADAR</v>
+        <v>LINE</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>REHAB.03.09 - AP uptake for in- and outpatients per APL category</v>
+        <v>REHAB.03.11 - Timeline of facility-based uptake per health condition group</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>KOZWIAdW7CY</v>
+        <v>k3ibUCFPrN9</v>
       </c>
       <c r="E42" s="4" t="str">
         <v/>
@@ -10783,7 +10865,7 @@
         <v/>
       </c>
       <c r="D43" s="5" t="str">
-        <v>OQfb3FXCQsT</v>
+        <v>Ii4dQj1f0Ij</v>
       </c>
       <c r="E43" s="5" t="str">
         <v/>
@@ -10794,16 +10876,16 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>MLzgeaZJ7eO</v>
+        <v>hNfeyBbGrAQ</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>PIE</v>
+        <v>RADAR</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>REHAB.03.07 - Rehabilitation utilization per health condition group</v>
+        <v>REHAB.03.09 - AP uptake for in- and outpatients per APL category</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>xfhR6j6QpAI</v>
+        <v>KOZWIAdW7CY</v>
       </c>
       <c r="E44" s="4" t="str">
         <v/>
@@ -10823,7 +10905,7 @@
         <v/>
       </c>
       <c r="D45" s="5" t="str">
-        <v>frMpqtCEp9e</v>
+        <v>OQfb3FXCQsT</v>
       </c>
       <c r="E45" s="5" t="str">
         <v/>
@@ -10834,16 +10916,16 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>YQvk468k9NR</v>
+        <v>MLzgeaZJ7eO</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>STACKED_COLUMN</v>
+        <v>PIE</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>REHAB.03.05.01 - Rehabilitation utilization, musculoskeletal HCG</v>
+        <v>REHAB.03.07 - Rehabilitation utilization per health condition group</v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>XCqK9XzBr28</v>
+        <v>xfhR6j6QpAI</v>
       </c>
       <c r="E46" s="4" t="str">
         <v/>
@@ -10863,7 +10945,7 @@
         <v/>
       </c>
       <c r="D47" s="5" t="str">
-        <v>MhUCT0pGUn8</v>
+        <v>frMpqtCEp9e</v>
       </c>
       <c r="E47" s="5" t="str">
         <v/>
@@ -10874,16 +10956,16 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>GdGwckYscWq</v>
+        <v>YQvk468k9NR</v>
       </c>
       <c r="B48" s="4" t="str">
         <v>STACKED_COLUMN</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>REHAB.03.03.01 - Rehabilitation uptake and service utilization - musculoskeletal HCG</v>
+        <v>REHAB.03.05.01 - Rehabilitation utilization, musculoskeletal HCG</v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>LZ1tDHiuTIn</v>
+        <v>XCqK9XzBr28</v>
       </c>
       <c r="E48" s="4" t="str">
         <v/>
@@ -10894,16 +10976,16 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>bUQh35cwjSf</v>
+        <v/>
       </c>
       <c r="B49" s="5" t="str">
-        <v>STACKED_COLUMN</v>
+        <v>TEXT</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>REHAB.03.02 - Rehabilitation uptake and service utilization, total</v>
+        <v/>
       </c>
       <c r="D49" s="5" t="str">
-        <v>eNI6ZmuLWDY</v>
+        <v>MhUCT0pGUn8</v>
       </c>
       <c r="E49" s="5" t="str">
         <v/>
@@ -10914,16 +10996,16 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v/>
+        <v>GdGwckYscWq</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>TEXT</v>
+        <v>STACKED_COLUMN</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v/>
+        <v>REHAB.03.03.01 - Rehabilitation uptake and service utilization - musculoskeletal HCG</v>
       </c>
       <c r="D50" s="4" t="str">
-        <v>jQpaSLxT8y4</v>
+        <v>LZ1tDHiuTIn</v>
       </c>
       <c r="E50" s="4" t="str">
         <v/>
@@ -10934,16 +11016,16 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>SXQmcCWzN6y</v>
+        <v>bUQh35cwjSf</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>COLUMN</v>
+        <v>STACKED_COLUMN</v>
       </c>
       <c r="C51" s="5" t="str">
-        <v>REHAB.03.01 - Facility-based rehabilitation sessions, in- and outpatients</v>
+        <v>REHAB.03.02 - Rehabilitation uptake and service utilization, total</v>
       </c>
       <c r="D51" s="5" t="str">
-        <v>QwGWXdV3zZ5</v>
+        <v>eNI6ZmuLWDY</v>
       </c>
       <c r="E51" s="5" t="str">
         <v/>
@@ -10963,7 +11045,7 @@
         <v/>
       </c>
       <c r="D52" s="4" t="str">
-        <v>hK5prQI89Fm</v>
+        <v>jQpaSLxT8y4</v>
       </c>
       <c r="E52" s="4" t="str">
         <v/>
@@ -10974,16 +11056,16 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v/>
+        <v>SXQmcCWzN6y</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>TEXT</v>
+        <v>COLUMN</v>
       </c>
       <c r="C53" s="5" t="str">
-        <v/>
+        <v>REHAB.03.01 - Facility-based rehabilitation uptake, in- and outpatients</v>
       </c>
       <c r="D53" s="5" t="str">
-        <v>zkQQGBA2Lw0</v>
+        <v>QwGWXdV3zZ5</v>
       </c>
       <c r="E53" s="5" t="str">
         <v/>
@@ -11003,7 +11085,7 @@
         <v/>
       </c>
       <c r="D54" s="4" t="str">
-        <v>DRWcK3O1pQ7</v>
+        <v>hK5prQI89Fm</v>
       </c>
       <c r="E54" s="4" t="str">
         <v/>
@@ -11014,56 +11096,56 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>lycLhbhC75Z</v>
+        <v/>
       </c>
       <c r="B55" s="5" t="str">
-        <v>LINE</v>
+        <v>TEXT</v>
       </c>
       <c r="C55" s="5" t="str">
-        <v>REHAB.04.05.01 - Timeline of functioning change and LoS for SCI</v>
+        <v/>
       </c>
       <c r="D55" s="5" t="str">
-        <v>qEHWJ9ae3Wo</v>
+        <v>zkQQGBA2Lw0</v>
       </c>
       <c r="E55" s="5" t="str">
         <v/>
       </c>
       <c r="F55" s="5" t="str">
-        <v>YNCN88Tjhmz</v>
+        <v>BbSmX4WI5Ds</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>Btr2AAbWw06</v>
+        <v/>
       </c>
       <c r="B56" s="4" t="str">
-        <v>RADAR</v>
+        <v>TEXT</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>REHAB.04.04.01 - Functioning change and LoS for SCI</v>
+        <v/>
       </c>
       <c r="D56" s="4" t="str">
-        <v>PEKD0KbLsMp</v>
+        <v>DRWcK3O1pQ7</v>
       </c>
       <c r="E56" s="4" t="str">
         <v/>
       </c>
       <c r="F56" s="4" t="str">
-        <v>YNCN88Tjhmz</v>
+        <v>BbSmX4WI5Ds</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
-        <v/>
+        <v>lycLhbhC75Z</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>TEXT</v>
+        <v>LINE</v>
       </c>
       <c r="C57" s="5" t="str">
-        <v/>
+        <v>REHAB.04.05.01 - Timeline of functioning change and LoS for SCI</v>
       </c>
       <c r="D57" s="5" t="str">
-        <v>YfM8DEWpAc5</v>
+        <v>qEHWJ9ae3Wo</v>
       </c>
       <c r="E57" s="5" t="str">
         <v/>
@@ -11074,16 +11156,16 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>Dxwf5vD2uS2</v>
+        <v>Btr2AAbWw06</v>
       </c>
       <c r="B58" s="4" t="str">
         <v>RADAR</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>REHAB.04.03 - Functioning change and LoS, by health condition</v>
+        <v>REHAB.04.04.01 - Functioning change and LoS for SCI</v>
       </c>
       <c r="D58" s="4" t="str">
-        <v>duU8PKEQoUZ</v>
+        <v>PEKD0KbLsMp</v>
       </c>
       <c r="E58" s="4" t="str">
         <v/>
@@ -11103,7 +11185,7 @@
         <v/>
       </c>
       <c r="D59" s="5" t="str">
-        <v>sYsH6rBYzLw</v>
+        <v>YfM8DEWpAc5</v>
       </c>
       <c r="E59" s="5" t="str">
         <v/>
@@ -11114,16 +11196,16 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="str">
-        <v>eLYvd4gRqzS</v>
+        <v>Dxwf5vD2uS2</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>LINE</v>
+        <v>RADAR</v>
       </c>
       <c r="C60" s="4" t="str">
-        <v>REHAB.04.02 - Timeline of LoS for SCI</v>
+        <v>REHAB.04.03 - Functioning change and LoS</v>
       </c>
       <c r="D60" s="4" t="str">
-        <v>zlHSITwkT5j</v>
+        <v>duU8PKEQoUZ</v>
       </c>
       <c r="E60" s="4" t="str">
         <v/>
@@ -11143,7 +11225,7 @@
         <v/>
       </c>
       <c r="D61" s="5" t="str">
-        <v>pCUB8Xx6856</v>
+        <v>sYsH6rBYzLw</v>
       </c>
       <c r="E61" s="5" t="str">
         <v/>
@@ -11154,16 +11236,16 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="str">
-        <v/>
+        <v>eLYvd4gRqzS</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>TEXT</v>
+        <v>LINE</v>
       </c>
       <c r="C62" s="4" t="str">
-        <v/>
+        <v>REHAB.04.02 - Timeline of LoS for SCI</v>
       </c>
       <c r="D62" s="4" t="str">
-        <v>LWKERsskbCL</v>
+        <v>zlHSITwkT5j</v>
       </c>
       <c r="E62" s="4" t="str">
         <v/>
@@ -11174,16 +11256,16 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="str">
-        <v>qRfZgG9dAAh</v>
+        <v/>
       </c>
       <c r="B63" s="5" t="str">
-        <v>LINE</v>
+        <v>TEXT</v>
       </c>
       <c r="C63" s="5" t="str">
-        <v>REHAB.04.01 - Timeline of patients (%) with individualised care plan</v>
+        <v/>
       </c>
       <c r="D63" s="5" t="str">
-        <v>uUrbflPvewf</v>
+        <v>pCUB8Xx6856</v>
       </c>
       <c r="E63" s="5" t="str">
         <v/>
@@ -11203,7 +11285,7 @@
         <v/>
       </c>
       <c r="D64" s="4" t="str">
-        <v>D8AAJiKQo8p</v>
+        <v>LWKERsskbCL</v>
       </c>
       <c r="E64" s="4" t="str">
         <v/>
@@ -11214,22 +11296,22 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="str">
-        <v/>
+        <v>qRfZgG9dAAh</v>
       </c>
       <c r="B65" s="5" t="str">
-        <v>MAP</v>
+        <v>LINE</v>
       </c>
       <c r="C65" s="5" t="str">
-        <v/>
+        <v>REHAB.04.01 - Timeline of patients (%) with individualised care plan</v>
       </c>
       <c r="D65" s="5" t="str">
-        <v>KjyyRwRyxle</v>
+        <v>uUrbflPvewf</v>
       </c>
       <c r="E65" s="5" t="str">
         <v/>
       </c>
       <c r="F65" s="5" t="str">
-        <v>k5jv2AmABT5</v>
+        <v>YNCN88Tjhmz</v>
       </c>
     </row>
     <row r="66">
@@ -11243,27 +11325,27 @@
         <v/>
       </c>
       <c r="D66" s="4" t="str">
-        <v>z4ScyysvV0S</v>
+        <v>D8AAJiKQo8p</v>
       </c>
       <c r="E66" s="4" t="str">
         <v/>
       </c>
       <c r="F66" s="4" t="str">
-        <v>k5jv2AmABT5</v>
+        <v>YNCN88Tjhmz</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="5" t="str">
-        <v>VdPT6jBOqaU</v>
+        <v/>
       </c>
       <c r="B67" s="5" t="str">
-        <v>LINE</v>
+        <v>MAP</v>
       </c>
       <c r="C67" s="5" t="str">
-        <v>REHAB.05.05 - Timeline of accessibility for people with acute and complex needs, by health condition</v>
+        <v/>
       </c>
       <c r="D67" s="5" t="str">
-        <v>Tned6xWKrYT</v>
+        <v>KjyyRwRyxle</v>
       </c>
       <c r="E67" s="5" t="str">
         <v/>
@@ -11274,16 +11356,16 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="str">
-        <v>D7Te6mgHgES</v>
+        <v/>
       </c>
       <c r="B68" s="4" t="str">
-        <v>LINE</v>
+        <v>TEXT</v>
       </c>
       <c r="C68" s="4" t="str">
-        <v>REHAB.05.04 - Timeline of coverage, by health condition</v>
+        <v/>
       </c>
       <c r="D68" s="4" t="str">
-        <v>ft58L21HK88</v>
+        <v>z4ScyysvV0S</v>
       </c>
       <c r="E68" s="4" t="str">
         <v/>
@@ -11294,16 +11376,16 @@
     </row>
     <row r="69">
       <c r="A69" s="5" t="str">
-        <v>WGaHZEskV9M</v>
+        <v>VdPT6jBOqaU</v>
       </c>
       <c r="B69" s="5" t="str">
-        <v>RADAR</v>
+        <v>LINE</v>
       </c>
       <c r="C69" s="5" t="str">
-        <v>REHAB.05.03 - Accessibility for people with acute and complex needs, by health condition</v>
+        <v>REHAB.05.05 - Timeline of accessibility for people with acute and complex needs</v>
       </c>
       <c r="D69" s="5" t="str">
-        <v>y3LkBqBt38D</v>
+        <v>Tned6xWKrYT</v>
       </c>
       <c r="E69" s="5" t="str">
         <v/>
@@ -11314,16 +11396,16 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="str">
-        <v>wnHN4IcaG7d</v>
+        <v>D7Te6mgHgES</v>
       </c>
       <c r="B70" s="4" t="str">
-        <v>COLUMN</v>
+        <v>LINE</v>
       </c>
       <c r="C70" s="4" t="str">
-        <v>REHAB.05.01 - Coverage, by health condition</v>
+        <v>REHAB.05.04 - Timeline of coverage</v>
       </c>
       <c r="D70" s="4" t="str">
-        <v>qKrXhC88aY0</v>
+        <v>ft58L21HK88</v>
       </c>
       <c r="E70" s="4" t="str">
         <v/>
@@ -11334,16 +11416,16 @@
     </row>
     <row r="71">
       <c r="A71" s="5" t="str">
-        <v/>
+        <v>WGaHZEskV9M</v>
       </c>
       <c r="B71" s="5" t="str">
-        <v>TEXT</v>
+        <v>RADAR</v>
       </c>
       <c r="C71" s="5" t="str">
-        <v/>
+        <v>REHAB.05.03 - Accessibility for people with acute and complex needs</v>
       </c>
       <c r="D71" s="5" t="str">
-        <v>Lo9TCz3ZmSN</v>
+        <v>y3LkBqBt38D</v>
       </c>
       <c r="E71" s="5" t="str">
         <v/>
@@ -11354,16 +11436,16 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="str">
-        <v/>
+        <v>wnHN4IcaG7d</v>
       </c>
       <c r="B72" s="4" t="str">
-        <v>TEXT</v>
+        <v>COLUMN</v>
       </c>
       <c r="C72" s="4" t="str">
-        <v/>
+        <v>REHAB.05.01 - Coverage</v>
       </c>
       <c r="D72" s="4" t="str">
-        <v>ztEoJkFpxJf</v>
+        <v>qKrXhC88aY0</v>
       </c>
       <c r="E72" s="4" t="str">
         <v/>
@@ -11383,7 +11465,7 @@
         <v/>
       </c>
       <c r="D73" s="5" t="str">
-        <v>rC3zxbImqa6</v>
+        <v>Lo9TCz3ZmSN</v>
       </c>
       <c r="E73" s="5" t="str">
         <v/>
@@ -11403,7 +11485,7 @@
         <v/>
       </c>
       <c r="D74" s="4" t="str">
-        <v>Qil6SpnYWlA</v>
+        <v>ztEoJkFpxJf</v>
       </c>
       <c r="E74" s="4" t="str">
         <v/>
@@ -11423,33 +11505,33 @@
         <v/>
       </c>
       <c r="D75" s="5" t="str">
-        <v>ic5lohwKLLX</v>
+        <v>rC3zxbImqa6</v>
       </c>
       <c r="E75" s="5" t="str">
         <v/>
       </c>
       <c r="F75" s="5" t="str">
-        <v>B60Fjl7zGM3</v>
+        <v>k5jv2AmABT5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="str">
-        <v>nQg5rRX98Ce</v>
+        <v/>
       </c>
       <c r="B76" s="4" t="str">
-        <v>AREA</v>
+        <v>TEXT</v>
       </c>
       <c r="C76" s="4" t="str">
-        <v>REHAB.06.03.01 - Timeline of functioning change (including pre and post scores) for SCI</v>
+        <v/>
       </c>
       <c r="D76" s="4" t="str">
-        <v>OFGTC5po1Rh</v>
+        <v>Qil6SpnYWlA</v>
       </c>
       <c r="E76" s="4" t="str">
         <v/>
       </c>
       <c r="F76" s="4" t="str">
-        <v>B60Fjl7zGM3</v>
+        <v>k5jv2AmABT5</v>
       </c>
     </row>
     <row r="77">
@@ -11463,7 +11545,7 @@
         <v/>
       </c>
       <c r="D77" s="5" t="str">
-        <v>tOSDLb4wTUi</v>
+        <v>ic5lohwKLLX</v>
       </c>
       <c r="E77" s="5" t="str">
         <v/>
@@ -11474,16 +11556,16 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="str">
-        <v>WZuiWkK2WcH</v>
+        <v>nQg5rRX98Ce</v>
       </c>
       <c r="B78" s="4" t="str">
-        <v>RADAR</v>
+        <v>AREA</v>
       </c>
       <c r="C78" s="4" t="str">
-        <v>REHAB.06.01 - Functioning change per health condition</v>
+        <v>REHAB.06.03.01 - Timeline of functioning change (including pre and post scores) for SCI</v>
       </c>
       <c r="D78" s="4" t="str">
-        <v>eI28ycrUElX</v>
+        <v>OFGTC5po1Rh</v>
       </c>
       <c r="E78" s="4" t="str">
         <v/>
@@ -11494,16 +11576,16 @@
     </row>
     <row r="79">
       <c r="A79" s="5" t="str">
-        <v>sE5t6NgYzYN</v>
+        <v/>
       </c>
       <c r="B79" s="5" t="str">
-        <v>LINE</v>
+        <v>TEXT</v>
       </c>
       <c r="C79" s="5" t="str">
-        <v>REHAB.06.02.01 - Timeline of functioning change for SCI</v>
+        <v/>
       </c>
       <c r="D79" s="5" t="str">
-        <v>iE367NFlmaC</v>
+        <v>tOSDLb4wTUi</v>
       </c>
       <c r="E79" s="5" t="str">
         <v/>
@@ -11514,56 +11596,56 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="str">
-        <v/>
+        <v>WZuiWkK2WcH</v>
       </c>
       <c r="B80" s="4" t="str">
-        <v>TEXT</v>
+        <v>RADAR</v>
       </c>
       <c r="C80" s="4" t="str">
-        <v/>
+        <v>REHAB.06.01 - Functioning change per health condition</v>
       </c>
       <c r="D80" s="4" t="str">
-        <v>m0sTdtFYFLP</v>
+        <v>eI28ycrUElX</v>
       </c>
       <c r="E80" s="4" t="str">
         <v/>
       </c>
       <c r="F80" s="4" t="str">
-        <v>hW0VnTKgv79</v>
+        <v>B60Fjl7zGM3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="str">
-        <v>hwSN6Tf0xkW</v>
+        <v>sE5t6NgYzYN</v>
       </c>
       <c r="B81" s="5" t="str">
-        <v>COLUMN</v>
+        <v>LINE</v>
       </c>
       <c r="C81" s="5" t="str">
-        <v>REHAB.07.06 - Rehab referrals (%) for administrative levels, by subnational region</v>
+        <v>REHAB.06.02.01 - Timeline of functioning change for SCI</v>
       </c>
       <c r="D81" s="5" t="str">
-        <v>h2SiOyk00f9</v>
+        <v>iE367NFlmaC</v>
       </c>
       <c r="E81" s="5" t="str">
         <v/>
       </c>
       <c r="F81" s="5" t="str">
-        <v>hW0VnTKgv79</v>
+        <v>B60Fjl7zGM3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="str">
-        <v>PDgglxYlnJJ</v>
+        <v/>
       </c>
       <c r="B82" s="4" t="str">
-        <v>LINE</v>
+        <v>TEXT</v>
       </c>
       <c r="C82" s="4" t="str">
-        <v>REHAB.07.02 - Timeline of rehabilitation referrals and waiting time per occupational group for THC</v>
+        <v/>
       </c>
       <c r="D82" s="4" t="str">
-        <v>q2hWwHfncvt</v>
+        <v>ucTqacziDFM</v>
       </c>
       <c r="E82" s="4" t="str">
         <v/>
@@ -11574,16 +11656,16 @@
     </row>
     <row r="83">
       <c r="A83" s="5" t="str">
-        <v>Gr4gDLolKAn</v>
+        <v>JGUWMsHVFmr</v>
       </c>
       <c r="B83" s="5" t="str">
         <v>COLUMN</v>
       </c>
       <c r="C83" s="5" t="str">
-        <v>REHAB.07.05 - Referral totals and proportions per administrative level</v>
+        <v>REHAB.07.07 - New rehabilitation cases (outpatients and dedicated ward inpatients)</v>
       </c>
       <c r="D83" s="5" t="str">
-        <v>VrACaBpty0a</v>
+        <v>bt1HNzSpfVb</v>
       </c>
       <c r="E83" s="5" t="str">
         <v/>
@@ -11603,7 +11685,7 @@
         <v/>
       </c>
       <c r="D84" s="4" t="str">
-        <v>tVwKCW7Qalq</v>
+        <v>m0sTdtFYFLP</v>
       </c>
       <c r="E84" s="4" t="str">
         <v/>
@@ -11614,16 +11696,16 @@
     </row>
     <row r="85">
       <c r="A85" s="5" t="str">
-        <v>mMnLYAQOoGl</v>
+        <v>hwSN6Tf0xkW</v>
       </c>
       <c r="B85" s="5" t="str">
         <v>COLUMN</v>
       </c>
       <c r="C85" s="5" t="str">
-        <v>REHAB.07.03 - Rehabilitation waiting time per occupational group, by administrative level</v>
+        <v>REHAB.07.06 - Rehab referrals (%)</v>
       </c>
       <c r="D85" s="5" t="str">
-        <v>WkMIRuhtoLm</v>
+        <v>h2SiOyk00f9</v>
       </c>
       <c r="E85" s="5" t="str">
         <v/>
@@ -11634,16 +11716,16 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="str">
-        <v>Lb4eqrYR4Dr</v>
+        <v>PDgglxYlnJJ</v>
       </c>
       <c r="B86" s="4" t="str">
-        <v>COLUMN</v>
+        <v>LINE</v>
       </c>
       <c r="C86" s="4" t="str">
-        <v>REHAB.07.04 - Number of referrals and outpatients, by administrative level, by geo region</v>
+        <v>REHAB.07.02 - Timeline of rehabilitation referrals and waiting time for THC</v>
       </c>
       <c r="D86" s="4" t="str">
-        <v>bPoIoEsCX7a</v>
+        <v>q2hWwHfncvt</v>
       </c>
       <c r="E86" s="4" t="str">
         <v/>
@@ -11654,16 +11736,16 @@
     </row>
     <row r="87">
       <c r="A87" s="5" t="str">
-        <v/>
+        <v>Gr4gDLolKAn</v>
       </c>
       <c r="B87" s="5" t="str">
-        <v>TEXT</v>
+        <v>COLUMN</v>
       </c>
       <c r="C87" s="5" t="str">
-        <v/>
+        <v>REHAB.07.05 - Referral totals and proportions</v>
       </c>
       <c r="D87" s="5" t="str">
-        <v>s9NdahwxS1P</v>
+        <v>VrACaBpty0a</v>
       </c>
       <c r="E87" s="5" t="str">
         <v/>
@@ -11674,16 +11756,16 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="str">
-        <v>YzdLyl4c2Wn</v>
+        <v/>
       </c>
       <c r="B88" s="4" t="str">
-        <v>LINE</v>
+        <v>TEXT</v>
       </c>
       <c r="C88" s="4" t="str">
-        <v>REHAB.07.01 - Timeline of waiting time for AP provision (outpatients) per APL category</v>
+        <v/>
       </c>
       <c r="D88" s="4" t="str">
-        <v>wPodMdYxwMX</v>
+        <v>tVwKCW7Qalq</v>
       </c>
       <c r="E88" s="4" t="str">
         <v/>
@@ -11694,16 +11776,16 @@
     </row>
     <row r="89">
       <c r="A89" s="5" t="str">
-        <v/>
+        <v>mMnLYAQOoGl</v>
       </c>
       <c r="B89" s="5" t="str">
-        <v>TEXT</v>
+        <v>COLUMN</v>
       </c>
       <c r="C89" s="5" t="str">
-        <v/>
+        <v>REHAB.07.03 - Rehabilitation waiting time</v>
       </c>
       <c r="D89" s="5" t="str">
-        <v>ii34WdZGNcO</v>
+        <v>WkMIRuhtoLm</v>
       </c>
       <c r="E89" s="5" t="str">
         <v/>
@@ -11714,21 +11796,101 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="str">
-        <v/>
+        <v>Lb4eqrYR4Dr</v>
       </c>
       <c r="B90" s="4" t="str">
+        <v>COLUMN</v>
+      </c>
+      <c r="C90" s="4" t="str">
+        <v>REHAB.07.04 - Number of referrals and outpatients</v>
+      </c>
+      <c r="D90" s="4" t="str">
+        <v>bPoIoEsCX7a</v>
+      </c>
+      <c r="E90" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F90" s="4" t="str">
+        <v>hW0VnTKgv79</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B91" s="5" t="str">
         <v>TEXT</v>
       </c>
-      <c r="C90" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D90" s="4" t="str">
+      <c r="C91" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D91" s="5" t="str">
+        <v>s9NdahwxS1P</v>
+      </c>
+      <c r="E91" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F91" s="5" t="str">
+        <v>hW0VnTKgv79</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="str">
+        <v>YzdLyl4c2Wn</v>
+      </c>
+      <c r="B92" s="4" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C92" s="4" t="str">
+        <v>REHAB.07.01 - Timeline of waiting time for AP provision (outpatients) per APL category</v>
+      </c>
+      <c r="D92" s="4" t="str">
+        <v>wPodMdYxwMX</v>
+      </c>
+      <c r="E92" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F92" s="4" t="str">
+        <v>hW0VnTKgv79</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B93" s="5" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="C93" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D93" s="5" t="str">
+        <v>ii34WdZGNcO</v>
+      </c>
+      <c r="E93" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F93" s="5" t="str">
+        <v>hW0VnTKgv79</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="str">
+        <v/>
+      </c>
+      <c r="B94" s="4" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="C94" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D94" s="4" t="str">
         <v>W1hGkuY6g5m</v>
       </c>
-      <c r="E90" s="4" t="str">
-        <v/>
-      </c>
-      <c r="F90" s="4" t="str">
+      <c r="E94" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F94" s="4" t="str">
         <v>hW0VnTKgv79</v>
       </c>
     </row>
@@ -11738,7 +11900,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -11746,7 +11908,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="105.7109375" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="90.7109375" customWidth="1"/>
@@ -11855,7 +12017,7 @@
         <v>Personnel density for different occupational groups</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>sub(national), last year</v>
+        <v>subnational, last year</v>
       </c>
       <c r="E5" s="5" t="str">
         <v>COLUMN</v>
@@ -11872,13 +12034,13 @@
         <v>MchRyZK2TnL</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>REHAB.01.04 - Timeline of personnel density per occupational group</v>
+        <v>REHAB.01.04 - Timeline of personnel density</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>Timeline of personnel density per occupational group</v>
+        <v>Timeline of personnel density</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>(sub)national, last 5 years</v>
+        <v>per occupational group, subnational, last 5 years</v>
       </c>
       <c r="E6" s="4" t="str">
         <v>LINE</v>
@@ -11924,7 +12086,7 @@
         <v>Timeline of bed density</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>(sub)national, last 5 years</v>
+        <v>subnational, last 5 years</v>
       </c>
       <c r="E8" s="4" t="str">
         <v>LINE</v>
@@ -11947,7 +12109,7 @@
         <v>Bed and overall personnel density</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>(sub)national, last year</v>
+        <v>subnational, last year</v>
       </c>
       <c r="E9" s="5" t="str">
         <v>COLUMN</v>
@@ -11970,7 +12132,7 @@
         <v>Percentage of PHC facilities offering an EP, per EP type</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>(sub)national, last year</v>
+        <v>subnational, last year</v>
       </c>
       <c r="E10" s="4" t="str">
         <v>COLUMN</v>
@@ -11993,7 +12155,7 @@
         <v>Geographical distribution of PHC facilities (%) offering an EP</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>(sub)national, last year</v>
+        <v>subnational, last year</v>
       </c>
       <c r="E11" s="5" t="str">
         <v>COLUMN</v>
@@ -12016,7 +12178,7 @@
         <v>Timeline of PHC facilities (%) offering an EP</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>(sub)national, last 5 years</v>
+        <v>subnational, last 5 years</v>
       </c>
       <c r="E12" s="4" t="str">
         <v>LINE</v>
@@ -12053,91 +12215,91 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>ok9itaObRtH</v>
+        <v>FkqBFHIiU2I</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>REHAB.03.12 - Rehabilitation uptake and personnel availability</v>
+        <v>REHAB.03.13 - Rehabilitation sessions (total), per administrative level</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>Rehabilitation uptake and personnel availability</v>
+        <v>Rehabilitation sessions (total)</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>last year</v>
+        <v>per administrative level, subnational, last year</v>
       </c>
       <c r="E14" s="4" t="str">
         <v>COLUMN</v>
       </c>
       <c r="F14" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v/>
+        <v>per administrative levels of care, by subnational region, last year</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>BnYCfxP7N9J</v>
+        <v>ok9itaObRtH</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>REHAB.03.04.01 - Rehabilitation uptake and service utilization, by health condition group, last quarter</v>
+        <v>REHAB.03.12 - Rehabilitation sessions and personnel availability</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v/>
+        <v>Rehabilitation sessions and personnel availability</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v/>
+        <v>last year</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>PIVOT_TABLE</v>
+        <v>COLUMN</v>
       </c>
       <c r="F15" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G15" s="5" t="str">
-        <v>Rehabilitation uptake and service utilization, by health condition group, last quarter</v>
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>c2PuUceb6AH</v>
+        <v>BnYCfxP7N9J</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>REHAB.03.04 - Rehabilitation uptake and service utilization, by health condition group, last quarter</v>
+        <v>REHAB.03.04.01 - Rehabilitation uptake and service utilization, by health condition group, last quarter</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>Rehabilitation uptake and service utilization</v>
+        <v/>
       </c>
       <c r="D16" s="4" t="str">
-        <v>by health condition group, last quarter</v>
+        <v/>
       </c>
       <c r="E16" s="4" t="str">
-        <v>COLUMN</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="F16" s="4" t="b">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v/>
+        <v>Rehabilitation uptake and service utilization, by health condition group, last quarter</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>pvcRvoNpy7V</v>
+        <v>c2PuUceb6AH</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>REHAB.03.10 - Outreach program uptake per age group</v>
+        <v>REHAB.03.04 - Rehabilitation uptake and service utilization, by health condition group, last quarter</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>Outreach program uptake per age group</v>
+        <v>Rehabilitation uptake and service utilization</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>(sub)national, last quarter</v>
+        <v>by health condition group, last quarter</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>STACKED_BAR</v>
+        <v>COLUMN</v>
       </c>
       <c r="F17" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="5" t="str">
         <v/>
@@ -12145,19 +12307,19 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>AGdYaUieBAB</v>
+        <v>pvcRvoNpy7V</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>REHAB.03.06 - Rehabilitation utilization per health condition group</v>
+        <v>REHAB.03.10 - Outreach program uptake</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>Rehabilitation utilization per health condition group</v>
+        <v>Outreach program uptake</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>(sub)national, last quarter</v>
+        <v>per age group, subnational, last quarter</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>RADAR</v>
+        <v>STACKED_BAR</v>
       </c>
       <c r="F18" s="4" t="b">
         <v>0</v>
@@ -12168,22 +12330,22 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>UL87DNZZkRX</v>
+        <v>AGdYaUieBAB</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>REHAB.03.11 - Timeline of facility-based uptake per health condition group</v>
+        <v>REHAB.03.06 - Rehabilitation utilization per health condition group</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>Timeline of facility-based uptake per health condition group</v>
+        <v>Rehabilitation utilization per health condition group</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>national, last 5 years</v>
+        <v>subnational, last quarter</v>
       </c>
       <c r="E19" s="5" t="str">
-        <v>LINE</v>
+        <v>RADAR</v>
       </c>
       <c r="F19" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="5" t="str">
         <v/>
@@ -12191,22 +12353,22 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>hNfeyBbGrAQ</v>
+        <v>UL87DNZZkRX</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>REHAB.03.09 - AP uptake for in- and outpatients per APL category</v>
+        <v>REHAB.03.11 - Timeline of facility-based uptake per health condition group</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>AP uptake for in- and outpatients per APL category</v>
+        <v>Timeline of facility-based uptake per health condition group</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>(sub)national, last quarter</v>
+        <v>national, last 5 years</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>RADAR</v>
+        <v>LINE</v>
       </c>
       <c r="F20" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="4" t="str">
         <v/>
@@ -12214,22 +12376,22 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>MLzgeaZJ7eO</v>
+        <v>hNfeyBbGrAQ</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>REHAB.03.07 - Rehabilitation utilization per health condition group</v>
+        <v>REHAB.03.09 - AP uptake for in- and outpatients per APL category</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>Rehabilitation utilization per health condition group</v>
+        <v>AP uptake for in- and outpatients per APL category</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v>national, last year</v>
+        <v>subnational, last quarter</v>
       </c>
       <c r="E21" s="5" t="str">
-        <v>PIE</v>
+        <v>RADAR</v>
       </c>
       <c r="F21" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="5" t="str">
         <v/>
@@ -12237,22 +12399,22 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>YQvk468k9NR</v>
+        <v>MLzgeaZJ7eO</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>REHAB.03.05.01 - Rehabilitation utilization, musculoskeletal HCG</v>
+        <v>REHAB.03.07 - Rehabilitation utilization per health condition group</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>Rehabilitation utilization for musculoskeletal HCG per geo region, by age group</v>
+        <v>Rehabilitation utilization per health condition group</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>last quarter</v>
+        <v>national, last year</v>
       </c>
       <c r="E22" s="4" t="str">
-        <v>STACKED_COLUMN</v>
+        <v>PIE</v>
       </c>
       <c r="F22" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="4" t="str">
         <v/>
@@ -12260,16 +12422,16 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>GdGwckYscWq</v>
+        <v>YQvk468k9NR</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>REHAB.03.03.01 - Rehabilitation uptake and service utilization - musculoskeletal HCG</v>
+        <v>REHAB.03.05.01 - Rehabilitation utilization, musculoskeletal HCG</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>Rehabilitation uptake and service utilization for musculoskeletal HCG</v>
+        <v>Rehabilitation utilization for musculoskeletal HCG</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>(sub)national, last quarter</v>
+        <v>by age group, subnational, last quarter</v>
       </c>
       <c r="E23" s="5" t="str">
         <v>STACKED_COLUMN</v>
@@ -12283,16 +12445,16 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>bUQh35cwjSf</v>
+        <v>GdGwckYscWq</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>REHAB.03.02 - Rehabilitation uptake and service utilization, total</v>
+        <v>REHAB.03.03.01 - Rehabilitation uptake and service utilization - musculoskeletal HCG</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>Rehabilitation uptake and service utilization, total</v>
+        <v>Rehabilitation uptake and service utilization for musculoskeletal HCG</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>(sub)national, last quarter</v>
+        <v>subnational, last quarter</v>
       </c>
       <c r="E24" s="4" t="str">
         <v>STACKED_COLUMN</v>
@@ -12306,19 +12468,19 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>SXQmcCWzN6y</v>
+        <v>bUQh35cwjSf</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>REHAB.03.01 - Facility-based rehabilitation sessions, in- and outpatients</v>
+        <v>REHAB.03.02 - Rehabilitation uptake and service utilization, total</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>Facility-based rehabilitation sessions: in- and outpatients</v>
+        <v>Rehabilitation uptake and service utilization, total</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>(sub)national, last quarter</v>
+        <v>subnational, last quarter</v>
       </c>
       <c r="E25" s="5" t="str">
-        <v>COLUMN</v>
+        <v>STACKED_COLUMN</v>
       </c>
       <c r="F25" s="5" t="b">
         <v>0</v>
@@ -12329,22 +12491,22 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>lycLhbhC75Z</v>
+        <v>SXQmcCWzN6y</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>REHAB.04.05.01 - Timeline of functioning change and LoS for SCI</v>
+        <v>REHAB.03.01 - Facility-based rehabilitation uptake, in- and outpatients</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>Timeline of functioning change and LoS for SCI</v>
+        <v>Facility-based rehabilitation uptake: in- and outpatients</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>last 5 years</v>
+        <v>subnational, last quarter</v>
       </c>
       <c r="E26" s="4" t="str">
-        <v>LINE</v>
+        <v>COLUMN</v>
       </c>
       <c r="F26" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="4" t="str">
         <v/>
@@ -12352,22 +12514,22 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>Btr2AAbWw06</v>
+        <v>lycLhbhC75Z</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>REHAB.04.04.01 - Functioning change and LoS for SCI</v>
+        <v>REHAB.04.05.01 - Timeline of functioning change and LoS for SCI</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>Functioning change and LoS for SCI</v>
+        <v>Timeline of functioning change and LoS for SCI</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>by hospital with dedicated ward, last 6 months</v>
+        <v>last 5 years</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v>RADAR</v>
+        <v>LINE</v>
       </c>
       <c r="F27" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="5" t="str">
         <v/>
@@ -12375,22 +12537,22 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>Dxwf5vD2uS2</v>
+        <v>Btr2AAbWw06</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>REHAB.04.03 - Functioning change and LoS, by health condition</v>
+        <v>REHAB.04.04.01 - Functioning change and LoS for SCI</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>Functioning change and LoS by health condition</v>
+        <v>Functioning change and LoS for SCI</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>last 6 months</v>
+        <v>by hospital with dedicated ward, last 6 months</v>
       </c>
       <c r="E28" s="4" t="str">
         <v>RADAR</v>
       </c>
       <c r="F28" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="4" t="str">
         <v/>
@@ -12398,22 +12560,22 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>eLYvd4gRqzS</v>
+        <v>Dxwf5vD2uS2</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>REHAB.04.02 - Timeline of LoS for SCI</v>
+        <v>REHAB.04.03 - Functioning change and LoS</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>Timeline of LoS for SCI</v>
+        <v>Functioning change and LoS</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>by hospital with dedicated ward, last 5 years</v>
+        <v>by health condition, last 6 months</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v>LINE</v>
+        <v>RADAR</v>
       </c>
       <c r="F29" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="5" t="str">
         <v/>
@@ -12421,16 +12583,16 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>qRfZgG9dAAh</v>
+        <v>eLYvd4gRqzS</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>REHAB.04.01 - Timeline of patients (%) with individualised care plan</v>
+        <v>REHAB.04.02 - Timeline of LoS for SCI</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>Timeline of patients (%) with individualized care plan</v>
+        <v>Timeline of LoS for SCI</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>by hospital with dedicated ward, last 6 months</v>
+        <v>by hospital with dedicated ward, last 5 years</v>
       </c>
       <c r="E30" s="4" t="str">
         <v>LINE</v>
@@ -12444,22 +12606,22 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>VdPT6jBOqaU</v>
+        <v>qRfZgG9dAAh</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>REHAB.05.05 - Timeline of accessibility for people with acute and complex needs, by health condition</v>
+        <v>REHAB.04.01 - Timeline of patients (%) with individualised care plan</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>Timeline of accessibility for people with acute and complex needs</v>
+        <v>Timeline of patients (%) with individualized care plan</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>by health condition, (sub)national, last 5 years</v>
+        <v>by hospital with dedicated ward, last 6 months</v>
       </c>
       <c r="E31" s="5" t="str">
         <v>LINE</v>
       </c>
       <c r="F31" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="5" t="str">
         <v/>
@@ -12467,16 +12629,16 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>D7Te6mgHgES</v>
+        <v>VdPT6jBOqaU</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>REHAB.05.04 - Timeline of coverage, by health condition</v>
+        <v>REHAB.05.05 - Timeline of accessibility for people with acute and complex needs</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>Timeline of coverage</v>
+        <v>Timeline of accessibility for people with acute and complex needs</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>by health condition, (sub)national, last 5 years</v>
+        <v>by health condition, subnational, last 5 years</v>
       </c>
       <c r="E32" s="4" t="str">
         <v>LINE</v>
@@ -12490,22 +12652,22 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>WGaHZEskV9M</v>
+        <v>D7Te6mgHgES</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>REHAB.05.03 - Accessibility for people with acute and complex needs, by health condition</v>
+        <v>REHAB.05.04 - Timeline of coverage</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>Accessibility for people with acute and complex needs by health condition</v>
+        <v>Timeline of coverage</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>(sub)national, last 6 months</v>
+        <v>by health condition, subnational, last 5 years</v>
       </c>
       <c r="E33" s="5" t="str">
-        <v>RADAR</v>
+        <v>LINE</v>
       </c>
       <c r="F33" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="5" t="str">
         <v/>
@@ -12513,19 +12675,19 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>wnHN4IcaG7d</v>
+        <v>WGaHZEskV9M</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>REHAB.05.01 - Coverage, by health condition</v>
+        <v>REHAB.05.03 - Accessibility for people with acute and complex needs</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>Coverage, by health condition</v>
+        <v>Accessibility for people with acute and complex needs</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>national, last year</v>
+        <v>by health condition, subnational, last 6 months</v>
       </c>
       <c r="E34" s="4" t="str">
-        <v>COLUMN</v>
+        <v>RADAR</v>
       </c>
       <c r="F34" s="4" t="b">
         <v>0</v>
@@ -12536,22 +12698,22 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>nQg5rRX98Ce</v>
+        <v>wnHN4IcaG7d</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>REHAB.06.03.01 - Timeline of functioning change (including pre and post scores) for SCI</v>
+        <v>REHAB.05.01 - Coverage</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>Timeline of functioning change (including pre and post scores) for SCI</v>
+        <v>Coverage</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>last 5 years</v>
+        <v>by health condition, national, last year</v>
       </c>
       <c r="E35" s="5" t="str">
-        <v>AREA</v>
+        <v>COLUMN</v>
       </c>
       <c r="F35" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="5" t="str">
         <v/>
@@ -12559,22 +12721,22 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>WZuiWkK2WcH</v>
+        <v>nQg5rRX98Ce</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>REHAB.06.01 - Functioning change per health condition</v>
+        <v>REHAB.06.03.01 - Timeline of functioning change (including pre and post scores) for SCI</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>Functioning change per health condition</v>
+        <v>Timeline of functioning change (including pre and post scores) for SCI</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>by hospital with dedicated ward, last 6 months</v>
+        <v>last 5 years</v>
       </c>
       <c r="E36" s="4" t="str">
-        <v>RADAR</v>
+        <v>AREA</v>
       </c>
       <c r="F36" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="4" t="str">
         <v/>
@@ -12582,19 +12744,19 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>sE5t6NgYzYN</v>
+        <v>WZuiWkK2WcH</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>REHAB.06.02.01 - Timeline of functioning change for SCI</v>
+        <v>REHAB.06.01 - Functioning change per health condition</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>Timeline of functioning change for SCI</v>
+        <v>Functioning change per health condition</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>by hospital with dedicated ward, last 5 years</v>
+        <v>by hospital with dedicated ward, last 6 months</v>
       </c>
       <c r="E37" s="5" t="str">
-        <v>LINE</v>
+        <v>RADAR</v>
       </c>
       <c r="F37" s="5" t="b">
         <v>0</v>
@@ -12605,19 +12767,19 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>hwSN6Tf0xkW</v>
+        <v>sE5t6NgYzYN</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>REHAB.07.06 - Rehab referrals (%) for administrative levels, by subnational region</v>
+        <v>REHAB.06.02.01 - Timeline of functioning change for SCI</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>Rehab referrals (%) for administrative levels</v>
+        <v>Timeline of functioning change for SCI</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>by subnational region, last 6 months</v>
+        <v>by hospital with dedicated ward, last 5 years</v>
       </c>
       <c r="E38" s="4" t="str">
-        <v>COLUMN</v>
+        <v>LINE</v>
       </c>
       <c r="F38" s="4" t="b">
         <v>0</v>
@@ -12628,45 +12790,45 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>PDgglxYlnJJ</v>
+        <v>JGUWMsHVFmr</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>REHAB.07.02 - Timeline of rehabilitation referrals and waiting time per occupational group for THC</v>
+        <v>REHAB.07.07 - New rehabilitation cases (outpatients and dedicated ward inpatients)</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>Timeline of rehabilitation referrals and waiting time per occupational group for THC</v>
+        <v>New rehabilitation cases (outpatients and dedicated ward inpatients)</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>last 5 years</v>
+        <v>per administrative level, subnational, last year</v>
       </c>
       <c r="E39" s="5" t="str">
-        <v>LINE</v>
+        <v>COLUMN</v>
       </c>
       <c r="F39" s="5" t="b">
         <v>0</v>
       </c>
       <c r="G39" s="5" t="str">
-        <v/>
+        <v>per administrative levels of care, by subnational region, last year</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>Gr4gDLolKAn</v>
+        <v>hwSN6Tf0xkW</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>REHAB.07.05 - Referral totals and proportions per administrative level</v>
+        <v>REHAB.07.06 - Rehab referrals (%)</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>Referral totals and proportions per administrative level</v>
+        <v>Rehab referrals (%)</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>last 6 months</v>
+        <v>by administrative levels, subnational, last 6 months</v>
       </c>
       <c r="E40" s="4" t="str">
         <v>COLUMN</v>
       </c>
       <c r="F40" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="4" t="str">
         <v/>
@@ -12674,22 +12836,22 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>mMnLYAQOoGl</v>
+        <v>PDgglxYlnJJ</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>REHAB.07.03 - Rehabilitation waiting time per occupational group, by administrative level</v>
+        <v>REHAB.07.02 - Timeline of rehabilitation referrals and waiting time for THC</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>Rehabilitation waiting time per occupational group</v>
+        <v>Timeline of rehabilitation referrals and waiting time for THC</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>by administrative level, last 6 months</v>
+        <v>per occupational group, last 5 years</v>
       </c>
       <c r="E41" s="5" t="str">
-        <v>COLUMN</v>
+        <v>LINE</v>
       </c>
       <c r="F41" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="5" t="str">
         <v/>
@@ -12697,16 +12859,16 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>Lb4eqrYR4Dr</v>
+        <v>Gr4gDLolKAn</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>REHAB.07.04 - Number of referrals and outpatients, by administrative level, by geo region</v>
+        <v>REHAB.07.05 - Referral totals and proportions</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>Number of referrals and outpatients</v>
+        <v>Referral totals and proportions</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>by administrative level, by geo region, last quarter</v>
+        <v>per administrative level, last 6 months</v>
       </c>
       <c r="E42" s="4" t="str">
         <v>COLUMN</v>
@@ -12720,24 +12882,70 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>YzdLyl4c2Wn</v>
+        <v>mMnLYAQOoGl</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>REHAB.07.01 - Timeline of waiting time for AP provision (outpatients) per APL category</v>
+        <v>REHAB.07.03 - Rehabilitation waiting time</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v>Timeline of waiting time for AP provision (outpatients) per APL category</v>
+        <v>Rehabilitation waiting time</v>
       </c>
       <c r="D43" s="5" t="str">
-        <v>last 5 years</v>
+        <v>per occupational group, by administrative levels, last 6 months</v>
       </c>
       <c r="E43" s="5" t="str">
-        <v>LINE</v>
+        <v>COLUMN</v>
       </c>
       <c r="F43" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G43" s="5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="str">
+        <v>Lb4eqrYR4Dr</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <v>REHAB.07.04 - Number of referrals and outpatients</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <v>Number of referrals and outpatients</v>
+      </c>
+      <c r="D44" s="4" t="str">
+        <v>per administrative level, subnational, last quarter</v>
+      </c>
+      <c r="E44" s="4" t="str">
+        <v>COLUMN</v>
+      </c>
+      <c r="F44" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="str">
+        <v>YzdLyl4c2Wn</v>
+      </c>
+      <c r="B45" s="5" t="str">
+        <v>REHAB.07.01 - Timeline of waiting time for AP provision (outpatients) per APL category</v>
+      </c>
+      <c r="C45" s="5" t="str">
+        <v>Timeline of waiting time for AP provision (outpatients) per APL category</v>
+      </c>
+      <c r="D45" s="5" t="str">
+        <v>last 5 years</v>
+      </c>
+      <c r="E45" s="5" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="F45" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5" t="str">
         <v/>
       </c>
     </row>
@@ -12830,7 +13038,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>REHAB.03.08 - Service utilization and personnel density, by geo region</v>
+        <v>REHAB.03.08 - Service utilization and personnel density, subnational</v>
       </c>
       <c r="B6" s="4" t="str">
         <v xml:space="preserve"> </v>
@@ -14794,28 +15002,28 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>DkmMEcubiPv</v>
+        <v>jEc1P0VAPcs</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>GEN - Population</v>
+        <v>REHAB - Amputation incidence %</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>Population</v>
+        <v>Amputation incidence %</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>GEN_POP_NUM</v>
+        <v>REHAB_INCIDENCE_AMP</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>Total population</v>
+        <v/>
       </c>
       <c r="F2" s="4" t="str">
         <v>AGGREGATE</v>
       </c>
       <c r="G2" s="4" t="str">
-        <v>INTEGER_ZERO_OR_POSITIVE</v>
+        <v>NUMBER</v>
       </c>
       <c r="H2" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="str">
         <v/>
@@ -14824,30 +15032,30 @@
         <v/>
       </c>
       <c r="K2" s="4" t="str">
-        <v>Population</v>
+        <v>Amputation incidence %</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>jEc1P0VAPcs</v>
+        <v>VsVlv2iufFP</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>REHAB - Amputation incidence %</v>
+        <v>REHAB - AP provided (IPD)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Amputation incidence %</v>
+        <v>AP provided (IPD)</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>REHAB_INCIDENCE_AMP</v>
+        <v>REHAB_AP_IPD</v>
       </c>
       <c r="E3" s="5" t="str">
-        <v/>
+        <v>Number of assistive products provided (inpatients)</v>
       </c>
       <c r="F3" s="5" t="str">
         <v>AGGREGATE</v>
       </c>
       <c r="G3" s="5" t="str">
-        <v>NUMBER</v>
+        <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H3" s="5" t="b">
         <v>0</v>
@@ -14859,24 +15067,24 @@
         <v/>
       </c>
       <c r="K3" s="5" t="str">
-        <v>Amputation incidence %</v>
+        <v>Number of assistive products provided (total)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>VsVlv2iufFP</v>
+        <v>DbWARRnYaOu</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>REHAB - AP provided (IPD)</v>
+        <v>REHAB - AP provided (IPD, rehab ward)</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>AP provided (IPD)</v>
+        <v>AP provided (IPD, rehab ward)</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>REHAB_AP_IPD</v>
+        <v>REHAB_AP_IPD_WD</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>Number of assistive products provided (inpatients)</v>
+        <v>Number of assistive products provided (inpatients in the rehab ward)</v>
       </c>
       <c r="F4" s="4" t="str">
         <v>AGGREGATE</v>
@@ -14885,7 +15093,7 @@
         <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H4" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="4" t="str">
         <v/>
@@ -14899,19 +15107,19 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>DbWARRnYaOu</v>
+        <v>D9foaJH3dR5</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>REHAB - AP provided (IPD, rehab ward)</v>
+        <v>REHAB - AP provided (OPD)</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>AP provided (IPD, rehab ward)</v>
+        <v>AP provided (OPD)</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>REHAB_AP_IPD_WD</v>
+        <v>REHAB_AP_OPD</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v>Number of assistive products provided (inpatients in the rehab ward)</v>
+        <v>Number of assistive products provided (outpatients)</v>
       </c>
       <c r="F5" s="5" t="str">
         <v>AGGREGATE</v>
@@ -14920,7 +15128,7 @@
         <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H5" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5" t="str">
         <v/>
@@ -14934,19 +15142,19 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>D9foaJH3dR5</v>
+        <v>RPKfAe7voO3</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>REHAB - AP provided (OPD)</v>
+        <v>REHAB - Availability (occupational therapists)</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>AP provided (OPD)</v>
+        <v>REHAB - Availability (occupational therapists)</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>REHAB_AP_OPD</v>
+        <v>REHAB_AVBL_OT</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Number of assistive products provided (outpatients)</v>
+        <v/>
       </c>
       <c r="F6" s="4" t="str">
         <v>AGGREGATE</v>
@@ -14955,7 +15163,7 @@
         <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H6" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4" t="str">
         <v/>
@@ -14964,21 +15172,21 @@
         <v/>
       </c>
       <c r="K6" s="4" t="str">
-        <v>Number of assistive products provided (total)</v>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>RPKfAe7voO3</v>
+        <v>qVvudaOdniT</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>REHAB - Availability (occupational therapists)</v>
+        <v>REHAB - Availability (other personnel)</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>REHAB - Availability (occupational therapists)</v>
+        <v>Availability (other personnel)</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>REHAB_AVBL_OT</v>
+        <v>REHAB_AVBL_OTHER</v>
       </c>
       <c r="E7" s="5" t="str">
         <v/>
@@ -15004,16 +15212,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>qVvudaOdniT</v>
+        <v>N6ru55bPe1o</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>REHAB - Availability (other personnel)</v>
+        <v>REHAB - Availability (physiotherapists)</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Availability (other personnel)</v>
+        <v>Availability (physiotherapists)</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>REHAB_AVBL_OTHER</v>
+        <v>REHAB_AVBL_PT</v>
       </c>
       <c r="E8" s="4" t="str">
         <v/>
@@ -15039,16 +15247,16 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>N6ru55bPe1o</v>
+        <v>pNNIXV0kOus</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>REHAB - Availability (physiotherapists)</v>
+        <v>REHAB - Availability (psychologists)</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>Availability (physiotherapists)</v>
+        <v>Availability (psychologists)</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>REHAB_AVBL_PT</v>
+        <v>REHAB_AVBL_P</v>
       </c>
       <c r="E9" s="5" t="str">
         <v/>
@@ -15074,16 +15282,16 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>pNNIXV0kOus</v>
+        <v>LQ10SQqGKyf</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>REHAB - Availability (psychologists)</v>
+        <v>REHAB - Availability (rehabilitation doctors)</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>Availability (psychologists)</v>
+        <v>Availability (rehabilitation doctors)</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>REHAB_AVBL_P</v>
+        <v>REHAB_AVBL_RD</v>
       </c>
       <c r="E10" s="4" t="str">
         <v/>
@@ -15109,16 +15317,16 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>LQ10SQqGKyf</v>
+        <v>SuZDPYOgFbN</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>REHAB - Availability (rehabilitation doctors)</v>
+        <v>REHAB - Availability (speech language therapists)</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Availability (rehabilitation doctors)</v>
+        <v>Availability (speech language therapists)</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>REHAB_AVBL_RD</v>
+        <v>REHAB_AVBL_SLT</v>
       </c>
       <c r="E11" s="5" t="str">
         <v/>
@@ -15144,16 +15352,16 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>SuZDPYOgFbN</v>
+        <v>K0Y94lADtGw</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>REHAB - Availability (speech language therapists)</v>
+        <v>REHAB - Available rehabilitation beds (total)</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>Availability (speech language therapists)</v>
+        <v>Rehab beds (total)</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>REHAB_AVBL_SLT</v>
+        <v>REHAB_BEDS_T</v>
       </c>
       <c r="E12" s="4" t="str">
         <v/>
@@ -15165,7 +15373,7 @@
         <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H12" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="4" t="str">
         <v/>
@@ -15174,21 +15382,21 @@
         <v/>
       </c>
       <c r="K12" s="4" t="str">
-        <v/>
+        <v>Total number of beds</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>K0Y94lADtGw</v>
+        <v>rtYJONzb7OY</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>REHAB - Available rehabilitation beds (total)</v>
+        <v>REHAB - Burns incidence %</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>Rehab beds (total)</v>
+        <v>Burns incidence %</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>REHAB_BEDS_T</v>
+        <v>REHAB_INCIDENCE_BU</v>
       </c>
       <c r="E13" s="5" t="str">
         <v/>
@@ -15197,7 +15405,7 @@
         <v>AGGREGATE</v>
       </c>
       <c r="G13" s="5" t="str">
-        <v>INTEGER_ZERO_OR_POSITIVE</v>
+        <v>NUMBER</v>
       </c>
       <c r="H13" s="5" t="b">
         <v>0</v>
@@ -15209,30 +15417,30 @@
         <v/>
       </c>
       <c r="K13" s="5" t="str">
-        <v>Total number of beds</v>
+        <v>Burns incidence %</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>rtYJONzb7OY</v>
+        <v>nuMyZwlBlnC</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>REHAB - Burns incidence %</v>
+        <v>REHAB - Discharged from rehab ward</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>Burns incidence %</v>
+        <v>Inpatients discharged</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>REHAB_INCIDENCE_BU</v>
+        <v>REHAB_IPDWARD_DC_HC</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v/>
+        <v>Number of inpatients discharged from rehab inpatient ward in the reporting month (by health condition)</v>
       </c>
       <c r="F14" s="4" t="str">
         <v>AGGREGATE</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>NUMBER</v>
+        <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H14" s="4" t="b">
         <v>0</v>
@@ -15244,24 +15452,24 @@
         <v/>
       </c>
       <c r="K14" s="4" t="str">
-        <v>Burns incidence %</v>
+        <v>Cases discharged from rehab ward</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>nuMyZwlBlnC</v>
+        <v>cAuKtRo9SBL</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>REHAB - Discharged from rehab ward</v>
+        <v>REHAB - First-time admissions (rehab ward)</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>Inpatients discharged</v>
+        <v>First-time admissions in rehab ward</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>REHAB_IPDWARD_DC_HC</v>
+        <v>REHAB_IPDWARD_NEW</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>Number of inpatients discharged from rehab inpatient ward in the reporting month (by health condition)</v>
+        <v>Number of first-time admissions at the rehab ward that receive services in the reporting period</v>
       </c>
       <c r="F15" s="5" t="str">
         <v>AGGREGATE</v>
@@ -15270,7 +15478,7 @@
         <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H15" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="5" t="str">
         <v/>
@@ -15279,24 +15487,24 @@
         <v/>
       </c>
       <c r="K15" s="5" t="str">
-        <v>Cases discharged from rehab ward</v>
+        <v>First-time admissions</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>cAuKtRo9SBL</v>
+        <v>gUpU1k33Qz6</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>REHAB - First-time admissions (rehab ward)</v>
+        <v>REHAB - Functioning score at discharge (mean)</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>First-time admissions in rehab ward</v>
+        <v>Functioning score at discharge (mean)</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>REHAB_IPDWARD_NEW</v>
+        <v>REHAB_FN_SC_DC_AVG</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>Number of first-time admissions at the rehab ward that receive services in the reporting period</v>
+        <v>Average functioning score at discharge</v>
       </c>
       <c r="F16" s="4" t="str">
         <v>AGGREGATE</v>
@@ -15314,24 +15522,24 @@
         <v/>
       </c>
       <c r="K16" s="4" t="str">
-        <v>First-time admissions</v>
+        <v>Average functioning score at discharge</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>gUpU1k33Qz6</v>
+        <v>Uujiv09bCBw</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>REHAB - Functioning score at discharge (mean)</v>
+        <v>REHAB - Inpatients in rehab ward (total)</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>Functioning score at discharge (mean)</v>
+        <v>Inpatients in rehab ward</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>REHAB_FN_SC_DC_AVG</v>
+        <v>REHAB_IPDWARD</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>Average functioning score at discharge</v>
+        <v>Total number of inpatients in rehab ward that receive services in the reporting month</v>
       </c>
       <c r="F17" s="5" t="str">
         <v>AGGREGATE</v>
@@ -15340,7 +15548,7 @@
         <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H17" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="5" t="str">
         <v/>
@@ -15349,24 +15557,24 @@
         <v/>
       </c>
       <c r="K17" s="5" t="str">
-        <v>Average functioning score at discharge</v>
+        <v>Number of cases (total)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>Uujiv09bCBw</v>
+        <v>dsF0mFdSZf3</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>REHAB - Inpatients in rehab ward (total)</v>
+        <v>REHAB - Inpatients (total)</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>Inpatients in rehab ward</v>
+        <v>Inpatients</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>REHAB_IPDWARD</v>
+        <v>REHAB_IPD</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>Total number of inpatients in rehab ward that receive services in the reporting month</v>
+        <v>Total number of inpatients in other wards that receive services in the reporting month</v>
       </c>
       <c r="F18" s="4" t="str">
         <v>AGGREGATE</v>
@@ -15389,19 +15597,19 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>dsF0mFdSZf3</v>
+        <v>cZMyMKuJTVx</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>REHAB - Inpatients (total)</v>
+        <v>REHAB - Inpatients with cancer condition</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>Inpatients</v>
+        <v>Inpatients (cancer)</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>REHAB_IPD</v>
+        <v>REHAB_IPD_CA</v>
       </c>
       <c r="E19" s="5" t="str">
-        <v>Total number of inpatients in other wards that receive services in the reporting month</v>
+        <v>Number of inpatients with cancer condition that received rehabilitation services in facilities in the reporting month</v>
       </c>
       <c r="F19" s="5" t="str">
         <v>AGGREGATE</v>
@@ -15419,24 +15627,24 @@
         <v/>
       </c>
       <c r="K19" s="5" t="str">
-        <v>Number of cases (total)</v>
+        <v>Cases with cancer condition</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>cZMyMKuJTVx</v>
+        <v>WzcU3Pe70Ea</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>REHAB - Inpatients with cancer condition</v>
+        <v>REHAB - Inpatients with cancer condition (rehab ward)</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>Inpatients (cancer)</v>
+        <v>Rehab inpatients (cancer)</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>REHAB_IPD_CA</v>
+        <v>REHAB_IPDWARD_CA</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>Number of inpatients with cancer condition that received rehabilitation services in facilities in the reporting month</v>
+        <v>Number of inpatients with cancer condition that received rehabilitation services in the rehab ward in the reporting month</v>
       </c>
       <c r="F20" s="4" t="str">
         <v>AGGREGATE</v>
@@ -15459,19 +15667,19 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>WzcU3Pe70Ea</v>
+        <v>lVw7bNAuQ9W</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>REHAB - Inpatients with cancer condition (rehab ward)</v>
+        <v>REHAB - Inpatients with cardiovascular condition</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>Rehab inpatients (cancer)</v>
+        <v>Inpatients (cardiovascular)</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v>REHAB_IPDWARD_CA</v>
+        <v>REHAB_IPD_CDV</v>
       </c>
       <c r="E21" s="5" t="str">
-        <v>Number of inpatients with cancer condition that received rehabilitation services in the rehab ward in the reporting month</v>
+        <v>Number of inpatients with cardiovascular condition that received rehabilitation services in facilities in the reporting month</v>
       </c>
       <c r="F21" s="5" t="str">
         <v>AGGREGATE</v>
@@ -15489,24 +15697,24 @@
         <v/>
       </c>
       <c r="K21" s="5" t="str">
-        <v>Cases with cancer condition</v>
+        <v>Cases with cardiovascular condition</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>lVw7bNAuQ9W</v>
+        <v>akZp8XhQbDu</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>REHAB - Inpatients with cardiovascular condition</v>
+        <v>REHAB - Inpatients with cardiovascular condition (rehab ward)</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>Inpatients (cardiovascular)</v>
+        <v>Rehab inpatients (cardiovascular)</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>REHAB_IPD_CDV</v>
+        <v>REHAB_IPDWARD_CDV</v>
       </c>
       <c r="E22" s="4" t="str">
-        <v>Number of inpatients with cardiovascular condition that received rehabilitation services in facilities in the reporting month</v>
+        <v>Number of inpatients with cardiovascular condition that received rehabilitation services in the rehab ward in the reporting month</v>
       </c>
       <c r="F22" s="4" t="str">
         <v>AGGREGATE</v>
@@ -15529,19 +15737,19 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>akZp8XhQbDu</v>
+        <v>SthN1SWbW5G</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>REHAB - Inpatients with cardiovascular condition (rehab ward)</v>
+        <v>REHAB - Inpatients with mental condition</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>Rehab inpatients (cardiovascular)</v>
+        <v>Inpatients (mental)</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>REHAB_IPDWARD_CDV</v>
+        <v>REHAB_IPD_MENT</v>
       </c>
       <c r="E23" s="5" t="str">
-        <v>Number of inpatients with cardiovascular condition that received rehabilitation services in the rehab ward in the reporting month</v>
+        <v>Number of inpatients with mental condition that received rehabilitation services in facilities in the reporting month</v>
       </c>
       <c r="F23" s="5" t="str">
         <v>AGGREGATE</v>
@@ -15559,24 +15767,24 @@
         <v/>
       </c>
       <c r="K23" s="5" t="str">
-        <v>Cases with cardiovascular condition</v>
+        <v>Cases with mental condition</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>SthN1SWbW5G</v>
+        <v>rBPZMmpkGcx</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>REHAB - Inpatients with mental condition</v>
+        <v>REHAB - Inpatients with musculoskeletal condition</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>Inpatients (mental)</v>
+        <v>Inpatients (musculoskeletal)</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>REHAB_IPD_MENT</v>
+        <v>REHAB_IPD_MSK</v>
       </c>
       <c r="E24" s="4" t="str">
-        <v>Number of inpatients with mental condition that received rehabilitation services in facilities in the reporting month</v>
+        <v>Number of inpatients with musculoskeletal condition that received rehabilitation services in facilities in the reporting month</v>
       </c>
       <c r="F24" s="4" t="str">
         <v>AGGREGATE</v>
@@ -15594,24 +15802,24 @@
         <v/>
       </c>
       <c r="K24" s="4" t="str">
-        <v>Cases with mental condition</v>
+        <v>Cases with musculoskeletal condition</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>rBPZMmpkGcx</v>
+        <v>nTs7v472sSi</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>REHAB - Inpatients with musculoskeletal condition</v>
+        <v>REHAB - Inpatients with musculoskeletal condition (rehab ward)</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>Inpatients (musculoskeletal)</v>
+        <v>Rehab inpatients (musculoskeletal)</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>REHAB_IPD_MSK</v>
+        <v>REHAB_IPDWARD_MSK</v>
       </c>
       <c r="E25" s="5" t="str">
-        <v>Number of inpatients with musculoskeletal condition that received rehabilitation services in facilities in the reporting month</v>
+        <v>Number of inpatients with musculoskeletal condition that received rehabilitation services in the rehab ward in the reporting month</v>
       </c>
       <c r="F25" s="5" t="str">
         <v>AGGREGATE</v>
@@ -15634,19 +15842,19 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>nTs7v472sSi</v>
+        <v>JZ0lKpE21sX</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>REHAB - Inpatients with musculoskeletal condition (rehab ward)</v>
+        <v>REHAB - Inpatients with respiratory condition</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>Rehab inpatients (musculoskeletal)</v>
+        <v>Inpatients (respiratory)</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>REHAB_IPDWARD_MSK</v>
+        <v>REHAB_IPD_RES</v>
       </c>
       <c r="E26" s="4" t="str">
-        <v>Number of inpatients with musculoskeletal condition that received rehabilitation services in the rehab ward in the reporting month</v>
+        <v>Number of inpatients with respiratory condition that received rehabilitation services in facilities in the reporting month</v>
       </c>
       <c r="F26" s="4" t="str">
         <v>AGGREGATE</v>
@@ -15664,24 +15872,24 @@
         <v/>
       </c>
       <c r="K26" s="4" t="str">
-        <v>Cases with musculoskeletal condition</v>
+        <v>Cases with respiratory condition</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>JZ0lKpE21sX</v>
+        <v>qD4ZAPbOSkn</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>REHAB - Inpatients with respiratory condition</v>
+        <v>REHAB - Inpatients with respiratory condition (rehab ward)</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>Inpatients (respiratory)</v>
+        <v>Rehab inpatients (respiratory)</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>REHAB_IPD_RES</v>
+        <v>REHAB_IPDWARD_RES</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v>Number of inpatients with respiratory condition that received rehabilitation services in facilities in the reporting month</v>
+        <v>Number of inpatients with respiratory condition that received rehabilitation services in the rehab ward in the reporting month</v>
       </c>
       <c r="F27" s="5" t="str">
         <v>AGGREGATE</v>
@@ -15704,19 +15912,19 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>qD4ZAPbOSkn</v>
+        <v>o9dPnk6F4Nn</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>REHAB - Inpatients with respiratory condition (rehab ward)</v>
+        <v>REHAB - Inpatients with sensory condition</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>Rehab inpatients (respiratory)</v>
+        <v>Inpatients (sensory)</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>REHAB_IPDWARD_RES</v>
+        <v>REHAB_IPD_SN</v>
       </c>
       <c r="E28" s="4" t="str">
-        <v>Number of inpatients with respiratory condition that received rehabilitation services in the rehab ward in the reporting month</v>
+        <v>Number of inpatients with sensory condition that received rehabilitation services in facilities in the reporting month</v>
       </c>
       <c r="F28" s="4" t="str">
         <v>AGGREGATE</v>
@@ -15734,24 +15942,24 @@
         <v/>
       </c>
       <c r="K28" s="4" t="str">
-        <v>Cases with respiratory condition</v>
+        <v>Cases with sensory condition</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>o9dPnk6F4Nn</v>
+        <v>G7NziGmRtLZ</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>REHAB - Inpatients with sensory condition</v>
+        <v>REHAB - Inpatients with sensory condition (rehab ward)</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>Inpatients (sensory)</v>
+        <v>Rehab inpatients (sensory)</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>REHAB_IPD_SN</v>
+        <v>REHAB_IPDWARD_SN</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v>Number of inpatients with sensory condition that received rehabilitation services in facilities in the reporting month</v>
+        <v>Number of inpatients with sensory condition that received rehabilitation services in the rehab ward in the reporting month</v>
       </c>
       <c r="F29" s="5" t="str">
         <v>AGGREGATE</v>
@@ -15774,19 +15982,19 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>G7NziGmRtLZ</v>
+        <v>y73SjiJQdUX</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>REHAB - Inpatients with sensory condition (rehab ward)</v>
+        <v>REHAB - Length of stay in rehab ward in days</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>Rehab inpatients (sensory)</v>
+        <v>Length of stay by HC</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>REHAB_IPDWARD_SN</v>
+        <v>REHAB_CARE_D_HC</v>
       </c>
       <c r="E30" s="4" t="str">
-        <v>Number of inpatients with sensory condition that received rehabilitation services in the rehab ward in the reporting month</v>
+        <v>Number of days of rehabilitation inpatient stay in the reporting period (by health condition)</v>
       </c>
       <c r="F30" s="4" t="str">
         <v>AGGREGATE</v>
@@ -15804,24 +16012,24 @@
         <v/>
       </c>
       <c r="K30" s="4" t="str">
-        <v>Cases with sensory condition</v>
+        <v>Length of stay in rehab ward in days (totals)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>y73SjiJQdUX</v>
+        <v>ZzrVzrobwUc</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>REHAB - Length of stay in rehab ward in days</v>
+        <v>REHAB - National guidance package</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>Length of stay by HC</v>
+        <v>National guidance package</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>REHAB_CARE_D_HC</v>
+        <v>REHAB_NG_PKG</v>
       </c>
       <c r="E31" s="5" t="str">
-        <v>Number of days of rehabilitation inpatient stay in the reporting period (by health condition)</v>
+        <v>Package selected from national guidance</v>
       </c>
       <c r="F31" s="5" t="str">
         <v>AGGREGATE</v>
@@ -15830,33 +16038,33 @@
         <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H31" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="5" t="str">
-        <v/>
+        <v>TdDqpX1kdd2</v>
       </c>
       <c r="J31" s="5" t="str">
         <v/>
       </c>
       <c r="K31" s="5" t="str">
-        <v>Length of stay in rehab ward in days (totals)</v>
+        <v>Package selected from national guidance</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>ZzrVzrobwUc</v>
+        <v>TzoKnhQi27z</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>REHAB - National guidance package</v>
+        <v>REHAB - New cases (OPD)</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>National guidance package</v>
+        <v>New cases (OPD)</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>REHAB_NG_PKG</v>
+        <v>REHAB_OPD_NEW</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v>Package selected from national guidance</v>
+        <v>Total number of outpatients accessing the facility over the reporting month</v>
       </c>
       <c r="F32" s="4" t="str">
         <v>AGGREGATE</v>
@@ -15865,33 +16073,33 @@
         <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H32" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="4" t="str">
-        <v>TdDqpX1kdd2</v>
+        <v/>
       </c>
       <c r="J32" s="4" t="str">
         <v/>
       </c>
       <c r="K32" s="4" t="str">
-        <v>Package selected from national guidance</v>
+        <v>Number of new cases</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>TzoKnhQi27z</v>
+        <v>pG9tD7eFsSx</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>REHAB - New cases (OPD)</v>
+        <v>REHAB - New cases (rehab ward total)</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>New cases (OPD)</v>
+        <v>New cases (rehab ward total)</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>REHAB_OPD_NEW</v>
+        <v>REHAB_IPDWARD_NEW_TOTAL</v>
       </c>
       <c r="E33" s="5" t="str">
-        <v>Total number of outpatients accessing the facility over the reporting month</v>
+        <v>Total number of new cases at rehab ward</v>
       </c>
       <c r="F33" s="5" t="str">
         <v>AGGREGATE</v>
@@ -15914,19 +16122,19 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>pG9tD7eFsSx</v>
+        <v>iNWQOzyha6z</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>REHAB - New cases (rehab ward total)</v>
+        <v>REHAB - New cases with comprehensive individualised care plan</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>New cases (rehab ward total)</v>
+        <v>New cases with individualised care plan</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>REHAB_IPDWARD_NEW_TOTAL</v>
+        <v>REHAB_IPDWARD_IND_CARE_PLAN</v>
       </c>
       <c r="E34" s="4" t="str">
-        <v>Total number of new cases at rehab ward</v>
+        <v>Number of new rehabilitation inpatients that have received a comprehensive individualised care plan in the facility in the reporting period</v>
       </c>
       <c r="F34" s="4" t="str">
         <v>AGGREGATE</v>
@@ -15944,24 +16152,24 @@
         <v/>
       </c>
       <c r="K34" s="4" t="str">
-        <v>Number of new cases</v>
+        <v>New cases with comprehensive individualised care plan</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>iNWQOzyha6z</v>
+        <v>tHHAasM37vd</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>REHAB - New cases with comprehensive individualised care plan</v>
+        <v>REHAB - Occupational groups</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>New cases with individualised care plan</v>
+        <v>Rehabilitation occupational groups</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>REHAB_IPDWARD_IND_CARE_PLAN</v>
+        <v>REHAB_OCC_GROUPS</v>
       </c>
       <c r="E35" s="5" t="str">
-        <v>Number of new rehabilitation inpatients that have received a comprehensive individualised care plan in the facility in the reporting period</v>
+        <v/>
       </c>
       <c r="F35" s="5" t="str">
         <v>AGGREGATE</v>
@@ -15970,7 +16178,7 @@
         <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H35" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="5" t="str">
         <v/>
@@ -15979,24 +16187,24 @@
         <v/>
       </c>
       <c r="K35" s="5" t="str">
-        <v>New cases with comprehensive individualised care plan</v>
+        <v>Rehabilitation personnel</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>tHHAasM37vd</v>
+        <v>Ec6JMWFRcmS</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>REHAB - Occupational groups</v>
+        <v>REHAB - Occupational therapists</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>Rehabilitation occupational groups</v>
+        <v>Occupational therapists</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>REHAB_OCC_GROUPS</v>
+        <v>REHAB_OT</v>
       </c>
       <c r="E36" s="4" t="str">
-        <v/>
+        <v>Number of occupational therapists providing rehabilitation services in the facilities</v>
       </c>
       <c r="F36" s="4" t="str">
         <v>AGGREGATE</v>
@@ -16005,7 +16213,7 @@
         <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H36" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="4" t="str">
         <v/>
@@ -16014,24 +16222,24 @@
         <v/>
       </c>
       <c r="K36" s="4" t="str">
-        <v>Rehabilitation personnel</v>
+        <v>Occupational therapists</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>Ec6JMWFRcmS</v>
+        <v>CQbZPMj0hiv</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>REHAB - Occupational therapists</v>
+        <v>REHAB - Outpatients (total)</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>Occupational therapists</v>
+        <v>Outpatients</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>REHAB_OT</v>
+        <v>REHAB_OPD</v>
       </c>
       <c r="E37" s="5" t="str">
-        <v>Number of occupational therapists providing rehabilitation services in the facilities</v>
+        <v>Total number of outpatients that receive services in the reporting month</v>
       </c>
       <c r="F37" s="5" t="str">
         <v>AGGREGATE</v>
@@ -16049,24 +16257,24 @@
         <v/>
       </c>
       <c r="K37" s="5" t="str">
-        <v>Occupational therapists</v>
+        <v>Number of cases (total)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>CQbZPMj0hiv</v>
+        <v>SdRniWPAbbm</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>REHAB - Outpatients (total)</v>
+        <v>REHAB - Outpatients with cancer condition</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>Outpatients</v>
+        <v>Outpatients (cancer)</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>REHAB_OPD</v>
+        <v>REHAB_OPD_CA</v>
       </c>
       <c r="E38" s="4" t="str">
-        <v>Total number of outpatients that receive services in the reporting month</v>
+        <v>Number of outpatients with cancer condition that received rehabilitation services in facilities in the reporting month</v>
       </c>
       <c r="F38" s="4" t="str">
         <v>AGGREGATE</v>
@@ -16084,24 +16292,24 @@
         <v/>
       </c>
       <c r="K38" s="4" t="str">
-        <v>Number of cases (total)</v>
+        <v>Cases with cancer condition</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>SdRniWPAbbm</v>
+        <v>G7dFwiwgDBQ</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>REHAB - Outpatients with cancer condition</v>
+        <v>REHAB - Outpatients with neurological condition</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>Outpatients (cancer)</v>
+        <v>Outpatients (neurological)</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>REHAB_OPD_CA</v>
+        <v>REHAB_OPD_NEURO</v>
       </c>
       <c r="E39" s="5" t="str">
-        <v>Number of outpatients with cancer condition that received rehabilitation services in facilities in the reporting month</v>
+        <v>Number of outpatients with neurological condition that received rehabilitation services in facilities in the reporting month</v>
       </c>
       <c r="F39" s="5" t="str">
         <v>AGGREGATE</v>
@@ -16119,24 +16327,24 @@
         <v/>
       </c>
       <c r="K39" s="5" t="str">
-        <v>Cases with cancer condition</v>
+        <v>Cases with neurological condition</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>G7dFwiwgDBQ</v>
+        <v>zncwknQdMAi</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>REHAB - Outpatients with neurological condition</v>
+        <v>REHAB - Outpatients with respiratory condition</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>Outpatients (neurological)</v>
+        <v>Outpatients (respiratory)</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>REHAB_OPD_NEURO</v>
+        <v>REHAB_OPD_RES</v>
       </c>
       <c r="E40" s="4" t="str">
-        <v>Number of outpatients with neurological condition that received rehabilitation services in facilities in the reporting month</v>
+        <v>Number of outpatients with respiratory condition that received rehabilitation services in facilities in the reporting month</v>
       </c>
       <c r="F40" s="4" t="str">
         <v>AGGREGATE</v>
@@ -16154,24 +16362,24 @@
         <v/>
       </c>
       <c r="K40" s="4" t="str">
-        <v>Cases with neurological condition</v>
+        <v>Cases with respiratory condition</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>zncwknQdMAi</v>
+        <v>XjYKn27nwIN</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>REHAB - Outpatients with respiratory condition</v>
+        <v>REHAB - Outpatients with sensory condition</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>Outpatients (respiratory)</v>
+        <v>Outpatients (sensory)</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>REHAB_OPD_RES</v>
+        <v>REHAB_OPD_SN</v>
       </c>
       <c r="E41" s="5" t="str">
-        <v>Number of outpatients with respiratory condition that received rehabilitation services in facilities in the reporting month</v>
+        <v>Number of outpatients with sensory condition that received rehabilitation services in facilities in the reporting month</v>
       </c>
       <c r="F41" s="5" t="str">
         <v>AGGREGATE</v>
@@ -16189,24 +16397,24 @@
         <v/>
       </c>
       <c r="K41" s="5" t="str">
-        <v>Cases with respiratory condition</v>
+        <v>Cases with sensory condition</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>XjYKn27nwIN</v>
+        <v>vUgr6Gw1DQO</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>REHAB - Outpatients with sensory condition</v>
+        <v>REHAB - Outreach sessions</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>Outpatients (sensory)</v>
+        <v>Outreach sessions</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>REHAB_OPD_SN</v>
+        <v>REHAB_OR_SES</v>
       </c>
       <c r="E42" s="4" t="str">
-        <v>Number of outpatients with sensory condition that received rehabilitation services in facilities in the reporting month</v>
+        <v>Number of rehabilitation sessions provided by the outreach visit</v>
       </c>
       <c r="F42" s="4" t="str">
         <v>AGGREGATE</v>
@@ -16224,24 +16432,24 @@
         <v/>
       </c>
       <c r="K42" s="4" t="str">
-        <v>Cases with sensory condition</v>
+        <v>Number of outreach sessions</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>vUgr6Gw1DQO</v>
+        <v>bUJKsy9u2xv</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>REHAB - Outreach sessions</v>
+        <v>REHAB - Package availability (overall)</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v>Outreach sessions</v>
+        <v>Overall package availability</v>
       </c>
       <c r="D43" s="5" t="str">
-        <v>REHAB_OR_SES</v>
+        <v>REHAB_PKG_AVBL_OVERALL</v>
       </c>
       <c r="E43" s="5" t="str">
-        <v>Number of rehabilitation sessions provided by the outreach visit</v>
+        <v/>
       </c>
       <c r="F43" s="5" t="str">
         <v>AGGREGATE</v>
@@ -16250,7 +16458,7 @@
         <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H43" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="5" t="str">
         <v/>
@@ -16259,24 +16467,24 @@
         <v/>
       </c>
       <c r="K43" s="5" t="str">
-        <v>Number of outreach sessions</v>
+        <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>bUJKsy9u2xv</v>
+        <v>VIvGgfTxFgk</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>REHAB - Package availability (overall)</v>
+        <v>REHAB - Physiotherapists</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>Overall package availability</v>
+        <v>Physiotherapists</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>REHAB_PKG_AVBL_OVERALL</v>
+        <v>REHAB_PT</v>
       </c>
       <c r="E44" s="4" t="str">
-        <v/>
+        <v>Number of physiotherapists providing rehabilitation services in the facilities</v>
       </c>
       <c r="F44" s="4" t="str">
         <v>AGGREGATE</v>
@@ -16285,7 +16493,7 @@
         <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H44" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="4" t="str">
         <v/>
@@ -16294,24 +16502,24 @@
         <v/>
       </c>
       <c r="K44" s="4" t="str">
-        <v/>
+        <v>Physiotherapists</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>VIvGgfTxFgk</v>
+        <v>a3bkQXVFmb8</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>REHAB - Physiotherapists</v>
+        <v>REHAB - Prosthetists/orthotists</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>Physiotherapists</v>
+        <v>Prosthetists/orthotists</v>
       </c>
       <c r="D45" s="5" t="str">
-        <v>REHAB_PT</v>
+        <v>REHAB_P_O</v>
       </c>
       <c r="E45" s="5" t="str">
-        <v>Number of physiotherapists providing rehabilitation services in the facilities</v>
+        <v>Number of prosthetists/orthotists providing rehabilitation services in the facilities</v>
       </c>
       <c r="F45" s="5" t="str">
         <v>AGGREGATE</v>
@@ -16329,24 +16537,24 @@
         <v/>
       </c>
       <c r="K45" s="5" t="str">
-        <v>Physiotherapists</v>
+        <v>Prosthetists/orthotists</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>a3bkQXVFmb8</v>
+        <v>gQG56doLhWN</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>REHAB - Prosthetists/orthotists</v>
+        <v>REHAB - Psychologists</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>Prosthetists/orthotists</v>
+        <v>Psychologists</v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>REHAB_P_O</v>
+        <v>REHAB_P</v>
       </c>
       <c r="E46" s="4" t="str">
-        <v>Number of prosthetists/orthotists providing rehabilitation services in the facilities</v>
+        <v>Number of psychologists providing rehabilitation services in the facilities</v>
       </c>
       <c r="F46" s="4" t="str">
         <v>AGGREGATE</v>
@@ -16364,24 +16572,24 @@
         <v/>
       </c>
       <c r="K46" s="4" t="str">
-        <v>Prosthetists/orthotists</v>
+        <v>Psychologists</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>gQG56doLhWN</v>
+        <v>e9QjmObyVwa</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>REHAB - Psychologists</v>
+        <v>REHAB - Referrals (OPD)</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v>Psychologists</v>
+        <v>Referrals (OPD)</v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>REHAB_P</v>
+        <v>REHAB_REF_OPD</v>
       </c>
       <c r="E47" s="5" t="str">
-        <v>Number of psychologists providing rehabilitation services in the facilities</v>
+        <v>Number of new outpatients accessing rehabilitation services at the facility following a visit at another level of health care (for the same health condition) in the reporting month</v>
       </c>
       <c r="F47" s="5" t="str">
         <v>AGGREGATE</v>
@@ -16399,24 +16607,24 @@
         <v/>
       </c>
       <c r="K47" s="5" t="str">
-        <v>Psychologists</v>
+        <v>Number of new referral cases</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>e9QjmObyVwa</v>
+        <v>xzqhA0pPOYm</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>REHAB - Referrals (OPD)</v>
+        <v>REHAB - Referrals (rehab ward)</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>Referrals (OPD)</v>
+        <v>Referrals (Rehab ward)</v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>REHAB_REF_OPD</v>
+        <v>REHAB_REF_IPDWARD</v>
       </c>
       <c r="E48" s="4" t="str">
-        <v>Number of new outpatients accessing rehabilitation services at the facility following a visit at another level of health care (for the same health condition) in the reporting month</v>
+        <v>Number of new inpatients accessing rehabilitation services at the Rehab ward following a visit at another level of health care (for the same health condition) in the reporting month</v>
       </c>
       <c r="F48" s="4" t="str">
         <v>AGGREGATE</v>
@@ -16439,19 +16647,19 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>xzqhA0pPOYm</v>
+        <v>pZe77i1yDEr</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>REHAB - Referrals (rehab ward)</v>
+        <v>REHAB - Rehabilitation doctors</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>Referrals (Rehab ward)</v>
+        <v>Rehab doctors</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v>REHAB_REF_IPDWARD</v>
+        <v>REHAB_RD</v>
       </c>
       <c r="E49" s="5" t="str">
-        <v>Number of new inpatients accessing rehabilitation services at the Rehab ward following a visit at another level of health care (for the same health condition) in the reporting month</v>
+        <v>Number of rehabilitation doctors providing rehabilitation services in the facilities</v>
       </c>
       <c r="F49" s="5" t="str">
         <v>AGGREGATE</v>
@@ -16460,7 +16668,7 @@
         <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H49" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="5" t="str">
         <v/>
@@ -16469,33 +16677,33 @@
         <v/>
       </c>
       <c r="K49" s="5" t="str">
-        <v>Number of new referral cases</v>
+        <v>Rehabilitation doctors</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>pZe77i1yDEr</v>
+        <v>Iy6ylb65g4V</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>REHAB - Rehabilitation doctors</v>
+        <v>REHAB - SCI incidence %</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>Rehab doctors</v>
+        <v>SCI incidence %</v>
       </c>
       <c r="D50" s="4" t="str">
-        <v>REHAB_RD</v>
+        <v>REHAB_INCIDENCE_SCI</v>
       </c>
       <c r="E50" s="4" t="str">
-        <v>Number of rehabilitation doctors providing rehabilitation services in the facilities</v>
+        <v/>
       </c>
       <c r="F50" s="4" t="str">
         <v>AGGREGATE</v>
       </c>
       <c r="G50" s="4" t="str">
-        <v>INTEGER_ZERO_OR_POSITIVE</v>
+        <v>NUMBER</v>
       </c>
       <c r="H50" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="4" t="str">
         <v/>
@@ -16504,30 +16712,30 @@
         <v/>
       </c>
       <c r="K50" s="4" t="str">
-        <v>Rehabilitation doctors</v>
+        <v>SCI incidence %</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>Iy6ylb65g4V</v>
+        <v>zju8shC5PI7</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>REHAB - SCI incidence %</v>
+        <v>REHAB - Sessions provided (cancer HCG, IPD)</v>
       </c>
       <c r="C51" s="5" t="str">
-        <v>SCI incidence %</v>
+        <v>Sessions (cancer HCG, IPD)</v>
       </c>
       <c r="D51" s="5" t="str">
-        <v>REHAB_INCIDENCE_SCI</v>
+        <v>REHAB_SES_IPD_CA</v>
       </c>
       <c r="E51" s="5" t="str">
-        <v/>
+        <v>Sessions provided for inpatients with cancer condition</v>
       </c>
       <c r="F51" s="5" t="str">
         <v>AGGREGATE</v>
       </c>
       <c r="G51" s="5" t="str">
-        <v>NUMBER</v>
+        <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H51" s="5" t="b">
         <v>0</v>
@@ -16539,24 +16747,24 @@
         <v/>
       </c>
       <c r="K51" s="5" t="str">
-        <v>SCI incidence %</v>
+        <v>Sessions provided for patients with cancer condition</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>zju8shC5PI7</v>
+        <v>IMxj0rg2TP0</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>REHAB - Sessions provided (cancer HCG, IPD)</v>
+        <v>REHAB - Sessions provided (cancer HCG, IPD, rehab ward)</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v>Sessions (cancer HCG, IPD)</v>
+        <v>Sessions (cancer HCG, IPD, rehab ward)</v>
       </c>
       <c r="D52" s="4" t="str">
-        <v>REHAB_SES_IPD_CA</v>
+        <v>REHAB_SES_IPDWARD_CA</v>
       </c>
       <c r="E52" s="4" t="str">
-        <v>Sessions provided for inpatients with cancer condition</v>
+        <v>Sessions provided for inpatients with cancer condition in rehab ward</v>
       </c>
       <c r="F52" s="4" t="str">
         <v>AGGREGATE</v>
@@ -16579,19 +16787,19 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>IMxj0rg2TP0</v>
+        <v>Mp1q4Y65Tii</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>REHAB - Sessions provided (cancer HCG, IPD, rehab ward)</v>
+        <v>REHAB - Sessions provided (cancer HCG, OPD)</v>
       </c>
       <c r="C53" s="5" t="str">
-        <v>Sessions (cancer HCG, IPD, rehab ward)</v>
+        <v>Sessions (cancer HCG, OPD)</v>
       </c>
       <c r="D53" s="5" t="str">
-        <v>REHAB_SES_IPDWARD_CA</v>
+        <v>REHAB_SES_OPD_CA</v>
       </c>
       <c r="E53" s="5" t="str">
-        <v>Sessions provided for inpatients with cancer condition in rehab ward</v>
+        <v>Sessions provided for outpatients with cancer condition</v>
       </c>
       <c r="F53" s="5" t="str">
         <v>AGGREGATE</v>
@@ -16614,19 +16822,19 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>Mp1q4Y65Tii</v>
+        <v>qdn04wmFpEQ</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>REHAB - Sessions provided (cancer HCG, OPD)</v>
+        <v>REHAB - Sessions provided (cardiovascular HCG, IPD)</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>Sessions (cancer HCG, OPD)</v>
+        <v>Sessions (cardiovascular HCG, IPD)</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>REHAB_SES_OPD_CA</v>
+        <v>REHAB_SES_IPD_CDV</v>
       </c>
       <c r="E54" s="4" t="str">
-        <v>Sessions provided for outpatients with cancer condition</v>
+        <v>Sessions provided for inpatients with cardiovascular condition</v>
       </c>
       <c r="F54" s="4" t="str">
         <v>AGGREGATE</v>
@@ -16644,24 +16852,24 @@
         <v/>
       </c>
       <c r="K54" s="4" t="str">
-        <v>Sessions provided for patients with cancer condition</v>
+        <v>Sessions provided for patients with cardiovascular condition</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>qdn04wmFpEQ</v>
+        <v>FNa1hQREQv1</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>REHAB - Sessions provided (cardiovascular HCG, IPD)</v>
+        <v>REHAB - Sessions provided (cardiovascular HCG, OPD)</v>
       </c>
       <c r="C55" s="5" t="str">
-        <v>Sessions (cardiovascular HCG, IPD)</v>
+        <v>Sessions (cardiovascular HCG, OPD)</v>
       </c>
       <c r="D55" s="5" t="str">
-        <v>REHAB_SES_IPD_CDV</v>
+        <v>REHAB_SES_OPD_CDV</v>
       </c>
       <c r="E55" s="5" t="str">
-        <v>Sessions provided for inpatients with cardiovascular condition</v>
+        <v>Sessions provided for outpatients with cardiovascular condition</v>
       </c>
       <c r="F55" s="5" t="str">
         <v>AGGREGATE</v>
@@ -16684,19 +16892,19 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>FNa1hQREQv1</v>
+        <v>OiAXtOHBwtu</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>REHAB - Sessions provided (cardiovascular HCG, OPD)</v>
+        <v>REHAB - Sessions provided (IPD, rehab ward total)</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>Sessions (cardiovascular HCG, OPD)</v>
+        <v>Sessions (IPD, rehab ward total)</v>
       </c>
       <c r="D56" s="4" t="str">
-        <v>REHAB_SES_OPD_CDV</v>
+        <v>REHAB_SES_IPDWARD_TOTAL</v>
       </c>
       <c r="E56" s="4" t="str">
-        <v>Sessions provided for outpatients with cardiovascular condition</v>
+        <v>Sessions provided for inpatients in rehab ward (total)</v>
       </c>
       <c r="F56" s="4" t="str">
         <v>AGGREGATE</v>
@@ -16714,24 +16922,24 @@
         <v/>
       </c>
       <c r="K56" s="4" t="str">
-        <v>Sessions provided for patients with cardiovascular condition</v>
+        <v>Sessions provided (total)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
-        <v>OiAXtOHBwtu</v>
+        <v>tXNCDff0PQ0</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>REHAB - Sessions provided (IPD, rehab ward total)</v>
+        <v>REHAB - Sessions provided (IPD total)</v>
       </c>
       <c r="C57" s="5" t="str">
-        <v>Sessions (IPD, rehab ward total)</v>
+        <v>Sessions (IPD total)</v>
       </c>
       <c r="D57" s="5" t="str">
-        <v>REHAB_SES_IPDWARD_TOTAL</v>
+        <v>REHAB_SES_IPD_TOTAL</v>
       </c>
       <c r="E57" s="5" t="str">
-        <v>Sessions provided for inpatients in rehab ward (total)</v>
+        <v>Sessions provided for inpatients (total)</v>
       </c>
       <c r="F57" s="5" t="str">
         <v>AGGREGATE</v>
@@ -16754,19 +16962,19 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>tXNCDff0PQ0</v>
+        <v>iawU9V018ct</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>REHAB - Sessions provided (IPD total)</v>
+        <v>REHAB - Sessions provided (mental HCG, IPD)</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>Sessions (IPD total)</v>
+        <v>Sessions (mental HCG, IPD)</v>
       </c>
       <c r="D58" s="4" t="str">
-        <v>REHAB_SES_IPD_TOTAL</v>
+        <v>REHAB_SES_IPD_MENT</v>
       </c>
       <c r="E58" s="4" t="str">
-        <v>Sessions provided for inpatients (total)</v>
+        <v>Sessions provided for inpatients with mental condition</v>
       </c>
       <c r="F58" s="4" t="str">
         <v>AGGREGATE</v>
@@ -16784,24 +16992,24 @@
         <v/>
       </c>
       <c r="K58" s="4" t="str">
-        <v>Sessions provided (total)</v>
+        <v>Sessions provided for patients with mental condition</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="str">
-        <v>iawU9V018ct</v>
+        <v>X0NzCEgIjol</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>REHAB - Sessions provided (mental HCG, IPD)</v>
+        <v>REHAB - Sessions provided (mental HCG, IPD, rehab ward)</v>
       </c>
       <c r="C59" s="5" t="str">
-        <v>Sessions (mental HCG, IPD)</v>
+        <v>Sessions (mental HCG, IPD, rehab ward)</v>
       </c>
       <c r="D59" s="5" t="str">
-        <v>REHAB_SES_IPD_MENT</v>
+        <v>REHAB_SES_IPDWARD_MENT</v>
       </c>
       <c r="E59" s="5" t="str">
-        <v>Sessions provided for inpatients with mental condition</v>
+        <v>Sessions provided for inpatients with mental condition in rehab ward</v>
       </c>
       <c r="F59" s="5" t="str">
         <v>AGGREGATE</v>
@@ -16824,19 +17032,19 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="str">
-        <v>X0NzCEgIjol</v>
+        <v>vbLtXFFvVUo</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>REHAB - Sessions provided (mental HCG, IPD, rehab ward)</v>
+        <v>REHAB - Sessions provided (mental HCG, OPD)</v>
       </c>
       <c r="C60" s="4" t="str">
-        <v>Sessions (mental HCG, IPD, rehab ward)</v>
+        <v>Sessions (mental HCG, OPD)</v>
       </c>
       <c r="D60" s="4" t="str">
-        <v>REHAB_SES_IPDWARD_MENT</v>
+        <v>REHAB_SES_OPD_MENT</v>
       </c>
       <c r="E60" s="4" t="str">
-        <v>Sessions provided for inpatients with mental condition in rehab ward</v>
+        <v>Sessions provided for outpatients with mental condition</v>
       </c>
       <c r="F60" s="4" t="str">
         <v>AGGREGATE</v>
@@ -16859,19 +17067,19 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="str">
-        <v>vbLtXFFvVUo</v>
+        <v>sOwBbM8iwkU</v>
       </c>
       <c r="B61" s="5" t="str">
-        <v>REHAB - Sessions provided (mental HCG, OPD)</v>
+        <v>REHAB - Sessions provided (musculoskeletal HCG, IPD)</v>
       </c>
       <c r="C61" s="5" t="str">
-        <v>Sessions (mental HCG, OPD)</v>
+        <v>Sessions (musculoskeletal HCG, IPD)</v>
       </c>
       <c r="D61" s="5" t="str">
-        <v>REHAB_SES_OPD_MENT</v>
+        <v>REHAB_SES_IPD_MSK</v>
       </c>
       <c r="E61" s="5" t="str">
-        <v>Sessions provided for outpatients with mental condition</v>
+        <v>Sessions provided for inpatients with musculoskeletal condition</v>
       </c>
       <c r="F61" s="5" t="str">
         <v>AGGREGATE</v>
@@ -16889,24 +17097,24 @@
         <v/>
       </c>
       <c r="K61" s="5" t="str">
-        <v>Sessions provided for patients with mental condition</v>
+        <v>Sessions provided for patients with musculoskeletal condition</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="str">
-        <v>sOwBbM8iwkU</v>
+        <v>Z1qw26G9MKN</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>REHAB - Sessions provided (musculoskeletal HCG, IPD)</v>
+        <v>REHAB - Sessions provided (musculoskeletal HCG, IPD, rehab ward)</v>
       </c>
       <c r="C62" s="4" t="str">
-        <v>Sessions (musculoskeletal HCG, IPD)</v>
+        <v>Sessions (musculoskeletal HCG, IPD, rehab ward)</v>
       </c>
       <c r="D62" s="4" t="str">
-        <v>REHAB_SES_IPD_MSK</v>
+        <v>REHAB_SES_IPDWARD_MSK</v>
       </c>
       <c r="E62" s="4" t="str">
-        <v>Sessions provided for inpatients with musculoskeletal condition</v>
+        <v>Sessions provided for inpatients with musculoskeletal condition in rehab ward</v>
       </c>
       <c r="F62" s="4" t="str">
         <v>AGGREGATE</v>
@@ -16929,19 +17137,19 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="str">
-        <v>Z1qw26G9MKN</v>
+        <v>Ua6zbHRrUBU</v>
       </c>
       <c r="B63" s="5" t="str">
-        <v>REHAB - Sessions provided (musculoskeletal HCG, IPD, rehab ward)</v>
+        <v>REHAB - Sessions provided (musculoskeletal HCG, OPD)</v>
       </c>
       <c r="C63" s="5" t="str">
-        <v>Sessions (musculoskeletal HCG, IPD, rehab ward)</v>
+        <v>Sessions (musculoskeletal HCG, OPD)</v>
       </c>
       <c r="D63" s="5" t="str">
-        <v>REHAB_SES_IPDWARD_MSK</v>
+        <v>REHAB_SES_OPD_MSK</v>
       </c>
       <c r="E63" s="5" t="str">
-        <v>Sessions provided for inpatients with musculoskeletal condition in rehab ward</v>
+        <v>Sessions provided for outpatients with musculoskeletal condition</v>
       </c>
       <c r="F63" s="5" t="str">
         <v>AGGREGATE</v>
@@ -16964,19 +17172,19 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="str">
-        <v>Ua6zbHRrUBU</v>
+        <v>K9ftiy9hdum</v>
       </c>
       <c r="B64" s="4" t="str">
-        <v>REHAB - Sessions provided (musculoskeletal HCG, OPD)</v>
+        <v>REHAB - Sessions provided (neurological HCG, IPD)</v>
       </c>
       <c r="C64" s="4" t="str">
-        <v>Sessions (musculoskeletal HCG, OPD)</v>
+        <v>Sessions (neurological HCG, IPD)</v>
       </c>
       <c r="D64" s="4" t="str">
-        <v>REHAB_SES_OPD_MSK</v>
+        <v>REHAB_SES_IPD_NEURO</v>
       </c>
       <c r="E64" s="4" t="str">
-        <v>Sessions provided for outpatients with musculoskeletal condition</v>
+        <v>Sessions provided for inpatients with neurological condition</v>
       </c>
       <c r="F64" s="4" t="str">
         <v>AGGREGATE</v>
@@ -16994,24 +17202,24 @@
         <v/>
       </c>
       <c r="K64" s="4" t="str">
-        <v>Sessions provided for patients with musculoskeletal condition</v>
+        <v>Sessions provided for patients with neurological condition</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="str">
-        <v>K9ftiy9hdum</v>
+        <v>Q8rU0RMCgjN</v>
       </c>
       <c r="B65" s="5" t="str">
-        <v>REHAB - Sessions provided (neurological HCG, IPD)</v>
+        <v>REHAB - Sessions provided (neurological HCG, OPD)</v>
       </c>
       <c r="C65" s="5" t="str">
-        <v>Sessions (neurological HCG, IPD)</v>
+        <v>Sessions (neurological HCG, OPD)</v>
       </c>
       <c r="D65" s="5" t="str">
-        <v>REHAB_SES_IPD_NEURO</v>
+        <v>REHAB_SES_OPD_NEURO</v>
       </c>
       <c r="E65" s="5" t="str">
-        <v>Sessions provided for inpatients with neurological condition</v>
+        <v>Sessions provided for outpatients with neurological condition</v>
       </c>
       <c r="F65" s="5" t="str">
         <v>AGGREGATE</v>
@@ -17034,19 +17242,19 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="str">
-        <v>Q8rU0RMCgjN</v>
+        <v>szHsRfo80l7</v>
       </c>
       <c r="B66" s="4" t="str">
-        <v>REHAB - Sessions provided (neurological HCG, OPD)</v>
+        <v>REHAB - Sessions provided (OPD)</v>
       </c>
       <c r="C66" s="4" t="str">
-        <v>Sessions (neurological HCG, OPD)</v>
+        <v>Sessions (OPD)</v>
       </c>
       <c r="D66" s="4" t="str">
-        <v>REHAB_SES_OPD_NEURO</v>
+        <v>REHAB_SES_OPD</v>
       </c>
       <c r="E66" s="4" t="str">
-        <v>Sessions provided for outpatients with neurological condition</v>
+        <v>Sessions provided for outpatients</v>
       </c>
       <c r="F66" s="4" t="str">
         <v>AGGREGATE</v>
@@ -17055,7 +17263,7 @@
         <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H66" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="4" t="str">
         <v/>
@@ -17064,24 +17272,24 @@
         <v/>
       </c>
       <c r="K66" s="4" t="str">
-        <v>Sessions provided for patients with neurological condition</v>
+        <v>Number of sessions provided by</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="5" t="str">
-        <v>szHsRfo80l7</v>
+        <v>Ip5R8pwhhZv</v>
       </c>
       <c r="B67" s="5" t="str">
-        <v>REHAB - Sessions provided (OPD)</v>
+        <v>REHAB - Sessions provided (OPD total)</v>
       </c>
       <c r="C67" s="5" t="str">
-        <v>Sessions (OPD)</v>
+        <v>Sessions (OPD total)</v>
       </c>
       <c r="D67" s="5" t="str">
-        <v>REHAB_SES_OPD</v>
+        <v>REHAB_SES_OPD_TOTAL</v>
       </c>
       <c r="E67" s="5" t="str">
-        <v>Sessions provided for outpatients</v>
+        <v>Sessions provided for outpatients (total)</v>
       </c>
       <c r="F67" s="5" t="str">
         <v>AGGREGATE</v>
@@ -17090,7 +17298,7 @@
         <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H67" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="5" t="str">
         <v/>
@@ -17099,24 +17307,24 @@
         <v/>
       </c>
       <c r="K67" s="5" t="str">
-        <v>Number of sessions provided by</v>
+        <v>Sessions provided (total)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="str">
-        <v>Ip5R8pwhhZv</v>
+        <v>L8I4lED7ZI1</v>
       </c>
       <c r="B68" s="4" t="str">
-        <v>REHAB - Sessions provided (OPD total)</v>
+        <v>REHAB - Sessions provided (respiratory HCG, IPD)</v>
       </c>
       <c r="C68" s="4" t="str">
-        <v>Sessions (OPD total)</v>
+        <v>Sessions (respiratory HCG, IPD)</v>
       </c>
       <c r="D68" s="4" t="str">
-        <v>REHAB_SES_OPD_TOTAL</v>
+        <v>REHAB_SES_IPD_RES</v>
       </c>
       <c r="E68" s="4" t="str">
-        <v>Sessions provided for outpatients (total)</v>
+        <v>Sessions provided for inpatients with respiratory condition</v>
       </c>
       <c r="F68" s="4" t="str">
         <v>AGGREGATE</v>
@@ -17134,24 +17342,24 @@
         <v/>
       </c>
       <c r="K68" s="4" t="str">
-        <v>Sessions provided (total)</v>
+        <v>Sessions provided for patients with respiratory condition</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="5" t="str">
-        <v>L8I4lED7ZI1</v>
+        <v>atuDCjWe6nx</v>
       </c>
       <c r="B69" s="5" t="str">
-        <v>REHAB - Sessions provided (respiratory HCG, IPD)</v>
+        <v>REHAB - Sessions provided (respiratory HCG, IPD, rehab ward)</v>
       </c>
       <c r="C69" s="5" t="str">
-        <v>Sessions (respiratory HCG, IPD)</v>
+        <v>Sessions (respiratory HCG, IPD, rehab ward)</v>
       </c>
       <c r="D69" s="5" t="str">
-        <v>REHAB_SES_IPD_RES</v>
+        <v>REHAB_SES_IPDWARD_RES</v>
       </c>
       <c r="E69" s="5" t="str">
-        <v>Sessions provided for inpatients with respiratory condition</v>
+        <v>Sessions provided for inpatients with respiratory condition in rehab ward</v>
       </c>
       <c r="F69" s="5" t="str">
         <v>AGGREGATE</v>
@@ -17174,19 +17382,19 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="str">
-        <v>atuDCjWe6nx</v>
+        <v>JFgbSYPPxgv</v>
       </c>
       <c r="B70" s="4" t="str">
-        <v>REHAB - Sessions provided (respiratory HCG, IPD, rehab ward)</v>
+        <v>REHAB - Sessions provided (sensory HCG, OPD)</v>
       </c>
       <c r="C70" s="4" t="str">
-        <v>Sessions (respiratory HCG, IPD, rehab ward)</v>
+        <v>Sessions (sensory HCG, OPD)</v>
       </c>
       <c r="D70" s="4" t="str">
-        <v>REHAB_SES_IPDWARD_RES</v>
+        <v>REHAB_SES_OPD_SN</v>
       </c>
       <c r="E70" s="4" t="str">
-        <v>Sessions provided for inpatients with respiratory condition in rehab ward</v>
+        <v>Sessions provided for outpatients with sensory condition</v>
       </c>
       <c r="F70" s="4" t="str">
         <v>AGGREGATE</v>
@@ -17204,24 +17412,24 @@
         <v/>
       </c>
       <c r="K70" s="4" t="str">
-        <v>Sessions provided for patients with respiratory condition</v>
+        <v>Sessions provided for patients with sensory condition</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="5" t="str">
-        <v>JFgbSYPPxgv</v>
+        <v>O9d0k1QyjFj</v>
       </c>
       <c r="B71" s="5" t="str">
-        <v>REHAB - Sessions provided (sensory HCG, OPD)</v>
+        <v>REHAB - Speech language therapists</v>
       </c>
       <c r="C71" s="5" t="str">
-        <v>Sessions (sensory HCG, OPD)</v>
+        <v>Speech language therapists</v>
       </c>
       <c r="D71" s="5" t="str">
-        <v>REHAB_SES_OPD_SN</v>
+        <v>REHAB_SLP</v>
       </c>
       <c r="E71" s="5" t="str">
-        <v>Sessions provided for outpatients with sensory condition</v>
+        <v>Number of speech language therapists providing rehabilitation services in the facilities</v>
       </c>
       <c r="F71" s="5" t="str">
         <v>AGGREGATE</v>
@@ -17239,30 +17447,30 @@
         <v/>
       </c>
       <c r="K71" s="5" t="str">
-        <v>Sessions provided for patients with sensory condition</v>
+        <v>Speech language therapists</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="str">
-        <v>O9d0k1QyjFj</v>
+        <v>OIADGq0kCHW</v>
       </c>
       <c r="B72" s="4" t="str">
-        <v>REHAB - Speech language therapists</v>
+        <v>REHAB - Stroke incidence %</v>
       </c>
       <c r="C72" s="4" t="str">
-        <v>Speech language therapists</v>
+        <v>Stroke incidence %</v>
       </c>
       <c r="D72" s="4" t="str">
-        <v>REHAB_SLP</v>
+        <v>REHAB_INCIDENCE_ST</v>
       </c>
       <c r="E72" s="4" t="str">
-        <v>Number of speech language therapists providing rehabilitation services in the facilities</v>
+        <v/>
       </c>
       <c r="F72" s="4" t="str">
         <v>AGGREGATE</v>
       </c>
       <c r="G72" s="4" t="str">
-        <v>INTEGER_ZERO_OR_POSITIVE</v>
+        <v>NUMBER</v>
       </c>
       <c r="H72" s="4" t="b">
         <v>0</v>
@@ -17274,33 +17482,33 @@
         <v/>
       </c>
       <c r="K72" s="4" t="str">
-        <v>Speech language therapists</v>
+        <v>Stroke incidence %</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="5" t="str">
-        <v>OIADGq0kCHW</v>
+        <v>wxj2wJ92nCr</v>
       </c>
       <c r="B73" s="5" t="str">
-        <v>REHAB - Stroke incidence %</v>
+        <v>REHAB - Waiting days - AP (IPD)</v>
       </c>
       <c r="C73" s="5" t="str">
-        <v>Stroke incidence %</v>
+        <v>Waiting days for AP (IPD)</v>
       </c>
       <c r="D73" s="5" t="str">
-        <v>REHAB_INCIDENCE_ST</v>
+        <v>REHAB_WD_AP_IPD</v>
       </c>
       <c r="E73" s="5" t="str">
-        <v/>
+        <v>Number of waiting days for the assistive product (inpatients)</v>
       </c>
       <c r="F73" s="5" t="str">
         <v>AGGREGATE</v>
       </c>
       <c r="G73" s="5" t="str">
-        <v>NUMBER</v>
+        <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H73" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" s="5" t="str">
         <v/>
@@ -17309,24 +17517,24 @@
         <v/>
       </c>
       <c r="K73" s="5" t="str">
-        <v>Stroke incidence %</v>
+        <v>Number of waiting days for the assistive product (total)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="str">
-        <v>wxj2wJ92nCr</v>
+        <v>RQyHKsOGRJb</v>
       </c>
       <c r="B74" s="4" t="str">
-        <v>REHAB - Waiting days - AP (IPD)</v>
+        <v>REHAB - Waiting days - AP (IPD, rehab ward)</v>
       </c>
       <c r="C74" s="4" t="str">
-        <v>Waiting days for AP (IPD)</v>
+        <v>Waiting days for AP (IPD, rehab ward)</v>
       </c>
       <c r="D74" s="4" t="str">
-        <v>REHAB_WD_AP_IPD</v>
+        <v>REHAB_WD_AP_IPD_REHAB_WD</v>
       </c>
       <c r="E74" s="4" t="str">
-        <v>Number of waiting days for the assistive product (inpatients)</v>
+        <v>Number of waiting days for the assistive product (inpatients in the rehab ward)</v>
       </c>
       <c r="F74" s="4" t="str">
         <v>AGGREGATE</v>
@@ -17349,19 +17557,19 @@
     </row>
     <row r="75">
       <c r="A75" s="5" t="str">
-        <v>RQyHKsOGRJb</v>
+        <v>bQZQLPGmZUu</v>
       </c>
       <c r="B75" s="5" t="str">
-        <v>REHAB - Waiting days - AP (IPD, rehab ward)</v>
+        <v>REHAB - Waiting days - AP (OPD)</v>
       </c>
       <c r="C75" s="5" t="str">
-        <v>Waiting days for AP (IPD, rehab ward)</v>
+        <v>Waiting days for AP (OPD)</v>
       </c>
       <c r="D75" s="5" t="str">
-        <v>REHAB_WD_AP_IPD_REHAB_WD</v>
+        <v>REHAB_WD_AP_OPD</v>
       </c>
       <c r="E75" s="5" t="str">
-        <v>Number of waiting days for the assistive product (inpatients in the rehab ward)</v>
+        <v>Number of waiting days for the assistive product (outpatients)</v>
       </c>
       <c r="F75" s="5" t="str">
         <v>AGGREGATE</v>
@@ -17384,19 +17592,19 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="str">
-        <v>bQZQLPGmZUu</v>
+        <v>KhAi3DgOmBs</v>
       </c>
       <c r="B76" s="4" t="str">
-        <v>REHAB - Waiting days - AP (OPD)</v>
+        <v>REHAB - WHO basic package for rehab services</v>
       </c>
       <c r="C76" s="4" t="str">
-        <v>Waiting days for AP (OPD)</v>
+        <v>WHO basic rehab package</v>
       </c>
       <c r="D76" s="4" t="str">
-        <v>REHAB_WD_AP_OPD</v>
+        <v>REHAB_WHO_BASIC_REHAB_PKG</v>
       </c>
       <c r="E76" s="4" t="str">
-        <v>Number of waiting days for the assistive product (outpatients)</v>
+        <v>WHO basic package for rehab services</v>
       </c>
       <c r="F76" s="4" t="str">
         <v>AGGREGATE</v>
@@ -17408,30 +17616,30 @@
         <v>1</v>
       </c>
       <c r="I76" s="4" t="str">
-        <v/>
+        <v>TdDqpX1kdd2</v>
       </c>
       <c r="J76" s="4" t="str">
         <v/>
       </c>
       <c r="K76" s="4" t="str">
-        <v>Number of waiting days for the assistive product (total)</v>
+        <v>WHO basic package for rehab services</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="5" t="str">
-        <v>Cxzy2hF0UhA</v>
+        <v>DkmMEcubiPv</v>
       </c>
       <c r="B77" s="5" t="str">
-        <v>REHAB - 1st sessions (OPD)</v>
+        <v>GEN - Population</v>
       </c>
       <c r="C77" s="5" t="str">
-        <v>1st sessions (OPD)</v>
+        <v>GEN - Population</v>
       </c>
       <c r="D77" s="5" t="str">
-        <v>REHAB_FIRST_SES_OPD</v>
+        <v>GEN_POP_NUM</v>
       </c>
       <c r="E77" s="5" t="str">
-        <v>First sessions provided for outpatients</v>
+        <v>Total population</v>
       </c>
       <c r="F77" s="5" t="str">
         <v>AGGREGATE</v>
@@ -17440,7 +17648,7 @@
         <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H77" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" s="5" t="str">
         <v/>
@@ -17449,24 +17657,24 @@
         <v/>
       </c>
       <c r="K77" s="5" t="str">
-        <v>Number of first sessions provided by</v>
+        <v>Population</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="str">
-        <v>klLHQzY0lw2</v>
+        <v>Cxzy2hF0UhA</v>
       </c>
       <c r="B78" s="4" t="str">
-        <v>REHAB - Availability (prosthetists/orthotists)</v>
+        <v>REHAB - 1st sessions (OPD)</v>
       </c>
       <c r="C78" s="4" t="str">
-        <v>Availability (prosthetists/orthotists)</v>
+        <v>1st sessions (OPD)</v>
       </c>
       <c r="D78" s="4" t="str">
-        <v>REHAB_AVBL_P_O</v>
+        <v>REHAB_FIRST_SES_OPD</v>
       </c>
       <c r="E78" s="4" t="str">
-        <v/>
+        <v>First sessions provided for outpatients</v>
       </c>
       <c r="F78" s="4" t="str">
         <v>AGGREGATE</v>
@@ -17475,7 +17683,7 @@
         <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H78" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" s="4" t="str">
         <v/>
@@ -17484,24 +17692,24 @@
         <v/>
       </c>
       <c r="K78" s="4" t="str">
-        <v/>
+        <v>Number of first sessions provided by</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="5" t="str">
-        <v>JVBWhVQyZA0</v>
+        <v>klLHQzY0lw2</v>
       </c>
       <c r="B79" s="5" t="str">
-        <v>REHAB - Functioning score at admission for discharged patients (mean)</v>
+        <v>REHAB - Availability (prosthetists/orthotists)</v>
       </c>
       <c r="C79" s="5" t="str">
-        <v>Functioning score at admission - discharged (mean)</v>
+        <v>Availability (prosthetists/orthotists)</v>
       </c>
       <c r="D79" s="5" t="str">
-        <v>REHAB_FN_SC_ADM_DC_AVG</v>
+        <v>REHAB_AVBL_P_O</v>
       </c>
       <c r="E79" s="5" t="str">
-        <v>Average functioning score at admission</v>
+        <v/>
       </c>
       <c r="F79" s="5" t="str">
         <v>AGGREGATE</v>
@@ -17519,24 +17727,24 @@
         <v/>
       </c>
       <c r="K79" s="5" t="str">
-        <v>Average functioning score at admission for discharged patients</v>
+        <v/>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="str">
-        <v>Q1FnkoKPveP</v>
+        <v>JVBWhVQyZA0</v>
       </c>
       <c r="B80" s="4" t="str">
-        <v>REHAB - Inpatients with mental condition (rehab ward)</v>
+        <v>REHAB - Functioning score at admission for discharged patients (mean)</v>
       </c>
       <c r="C80" s="4" t="str">
-        <v>Rehab inpatients (mental)</v>
+        <v>Functioning score at admission - discharged (mean)</v>
       </c>
       <c r="D80" s="4" t="str">
-        <v>REHAB_IPDWARD_MENT</v>
+        <v>REHAB_FN_SC_ADM_DC_AVG</v>
       </c>
       <c r="E80" s="4" t="str">
-        <v>Number of inpatients with mental condition that received rehabilitation services in the rehab ward in the reporting month</v>
+        <v>Average functioning score at admission</v>
       </c>
       <c r="F80" s="4" t="str">
         <v>AGGREGATE</v>
@@ -17545,7 +17753,7 @@
         <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H80" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" s="4" t="str">
         <v/>
@@ -17554,24 +17762,24 @@
         <v/>
       </c>
       <c r="K80" s="4" t="str">
-        <v>Cases with mental condition</v>
+        <v>Average functioning score at admission for discharged patients</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="str">
-        <v>ljRCE2Xi6db</v>
+        <v>Q1FnkoKPveP</v>
       </c>
       <c r="B81" s="5" t="str">
-        <v>REHAB - Inpatients with neurological condition</v>
+        <v>REHAB - Inpatients with mental condition (rehab ward)</v>
       </c>
       <c r="C81" s="5" t="str">
-        <v>Inpatients (neurological)</v>
+        <v>Rehab inpatients (mental)</v>
       </c>
       <c r="D81" s="5" t="str">
-        <v>REHAB_IPD_NEURO</v>
+        <v>REHAB_IPDWARD_MENT</v>
       </c>
       <c r="E81" s="5" t="str">
-        <v>Number of inpatients with neurological condition that received rehabilitation services in facilities in the reporting month</v>
+        <v>Number of inpatients with mental condition that received rehabilitation services in the rehab ward in the reporting month</v>
       </c>
       <c r="F81" s="5" t="str">
         <v>AGGREGATE</v>
@@ -17589,24 +17797,24 @@
         <v/>
       </c>
       <c r="K81" s="5" t="str">
-        <v>Cases with neurological condition</v>
+        <v>Cases with mental condition</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="str">
-        <v>tsuM1GCFlPj</v>
+        <v>ljRCE2Xi6db</v>
       </c>
       <c r="B82" s="4" t="str">
-        <v>REHAB - Inpatients with neurological condition (rehab ward)</v>
+        <v>REHAB - Inpatients with neurological condition</v>
       </c>
       <c r="C82" s="4" t="str">
-        <v>Rehab inpatients (neurological)</v>
+        <v>Inpatients (neurological)</v>
       </c>
       <c r="D82" s="4" t="str">
-        <v>REHAB_IPDWARD_NEURO</v>
+        <v>REHAB_IPD_NEURO</v>
       </c>
       <c r="E82" s="4" t="str">
-        <v>Number of inpatients with neurological condition that received rehabilitation services in the rehab ward in the reporting month</v>
+        <v>Number of inpatients with neurological condition that received rehabilitation services in facilities in the reporting month</v>
       </c>
       <c r="F82" s="4" t="str">
         <v>AGGREGATE</v>
@@ -17629,28 +17837,28 @@
     </row>
     <row r="83">
       <c r="A83" s="5" t="str">
-        <v>jlS0RS2LplZ</v>
+        <v>tsuM1GCFlPj</v>
       </c>
       <c r="B83" s="5" t="str">
-        <v>REHAB - MMT incidence %</v>
+        <v>REHAB - Inpatients with neurological condition (rehab ward)</v>
       </c>
       <c r="C83" s="5" t="str">
-        <v>MMT incidence %</v>
+        <v>Rehab inpatients (neurological)</v>
       </c>
       <c r="D83" s="5" t="str">
-        <v>REHAB_INCIDENCE_MMT</v>
+        <v>REHAB_IPDWARD_NEURO</v>
       </c>
       <c r="E83" s="5" t="str">
-        <v/>
+        <v>Number of inpatients with neurological condition that received rehabilitation services in the rehab ward in the reporting month</v>
       </c>
       <c r="F83" s="5" t="str">
         <v>AGGREGATE</v>
       </c>
       <c r="G83" s="5" t="str">
-        <v>NUMBER</v>
+        <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H83" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" s="5" t="str">
         <v/>
@@ -17659,33 +17867,33 @@
         <v/>
       </c>
       <c r="K83" s="5" t="str">
-        <v>MMT Incidence %</v>
+        <v>Cases with neurological condition</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="str">
-        <v>PznjuI22ABJ</v>
+        <v>jlS0RS2LplZ</v>
       </c>
       <c r="B84" s="4" t="str">
-        <v>REHAB - Other personnel</v>
+        <v>REHAB - MMT incidence %</v>
       </c>
       <c r="C84" s="4" t="str">
-        <v>Rehab other personnel</v>
+        <v>MMT incidence %</v>
       </c>
       <c r="D84" s="4" t="str">
-        <v>REHAB_OTHER</v>
+        <v>REHAB_INCIDENCE_MMT</v>
       </c>
       <c r="E84" s="4" t="str">
-        <v>Number of other personnel providing rehabilitation services in the facilities</v>
+        <v/>
       </c>
       <c r="F84" s="4" t="str">
         <v>AGGREGATE</v>
       </c>
       <c r="G84" s="4" t="str">
-        <v>INTEGER_ZERO_OR_POSITIVE</v>
+        <v>NUMBER</v>
       </c>
       <c r="H84" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" s="4" t="str">
         <v/>
@@ -17694,24 +17902,24 @@
         <v/>
       </c>
       <c r="K84" s="4" t="str">
-        <v>Other</v>
+        <v>MMT Incidence %</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="5" t="str">
-        <v>zls9NkkxIrj</v>
+        <v>PznjuI22ABJ</v>
       </c>
       <c r="B85" s="5" t="str">
-        <v>REHAB - Outpatients with cardiovascular condition</v>
+        <v>REHAB - Other personnel</v>
       </c>
       <c r="C85" s="5" t="str">
-        <v>Outpatients (cardiovascular)</v>
+        <v>Rehab other personnel</v>
       </c>
       <c r="D85" s="5" t="str">
-        <v>REHAB_OPD_CDV</v>
+        <v>REHAB_OTHER</v>
       </c>
       <c r="E85" s="5" t="str">
-        <v>Number of outpatients with cardiovascular condition that received rehabilitation services in facilities in the reporting month</v>
+        <v>Number of other personnel providing rehabilitation services in the facilities</v>
       </c>
       <c r="F85" s="5" t="str">
         <v>AGGREGATE</v>
@@ -17729,24 +17937,24 @@
         <v/>
       </c>
       <c r="K85" s="5" t="str">
-        <v>Cases with cardiovascular condition</v>
+        <v>Other</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="str">
-        <v>Qpw88vUGA09</v>
+        <v>zls9NkkxIrj</v>
       </c>
       <c r="B86" s="4" t="str">
-        <v>REHAB - Outpatients with mental condition</v>
+        <v>REHAB - Outpatients with cardiovascular condition</v>
       </c>
       <c r="C86" s="4" t="str">
-        <v>Outpatients (mental)</v>
+        <v>Outpatients (cardiovascular)</v>
       </c>
       <c r="D86" s="4" t="str">
-        <v>REHAB_OPD_MENT</v>
+        <v>REHAB_OPD_CDV</v>
       </c>
       <c r="E86" s="4" t="str">
-        <v>Number of outpatients with mental condition that received rehabilitation services in facilities in the reporting month</v>
+        <v>Number of outpatients with cardiovascular condition that received rehabilitation services in facilities in the reporting month</v>
       </c>
       <c r="F86" s="4" t="str">
         <v>AGGREGATE</v>
@@ -17764,24 +17972,24 @@
         <v/>
       </c>
       <c r="K86" s="4" t="str">
-        <v>Cases with mental condition</v>
+        <v>Cases with cardiovascular condition</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="5" t="str">
-        <v>hvCrn9OCI4k</v>
+        <v>Qpw88vUGA09</v>
       </c>
       <c r="B87" s="5" t="str">
-        <v>REHAB - Outpatients with musculoskeletal condition</v>
+        <v>REHAB - Outpatients with mental condition</v>
       </c>
       <c r="C87" s="5" t="str">
-        <v>Outpatients (musculoskeletal)</v>
+        <v>Outpatients (mental)</v>
       </c>
       <c r="D87" s="5" t="str">
-        <v>REHAB_OPD_MSK</v>
+        <v>REHAB_OPD_MENT</v>
       </c>
       <c r="E87" s="5" t="str">
-        <v>Number of outpatients with musculoskeletal condition that received rehabilitation services in facilities in the reporting month</v>
+        <v>Number of outpatients with mental condition that received rehabilitation services in facilities in the reporting month</v>
       </c>
       <c r="F87" s="5" t="str">
         <v>AGGREGATE</v>
@@ -17799,24 +18007,24 @@
         <v/>
       </c>
       <c r="K87" s="5" t="str">
-        <v>Cases with musculoskeletal condition</v>
+        <v>Cases with mental condition</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="str">
-        <v>Te8hrtcLDJx</v>
+        <v>hvCrn9OCI4k</v>
       </c>
       <c r="B88" s="4" t="str">
-        <v>REHAB - Sessions provided (cardiovascular HCG, IPD, rehab ward)</v>
+        <v>REHAB - Outpatients with musculoskeletal condition</v>
       </c>
       <c r="C88" s="4" t="str">
-        <v>Sessions (cardiovascular HCG, IPD, rehab ward)</v>
+        <v>Outpatients (musculoskeletal)</v>
       </c>
       <c r="D88" s="4" t="str">
-        <v>REHAB_SES_IPDWARD_CDV</v>
+        <v>REHAB_OPD_MSK</v>
       </c>
       <c r="E88" s="4" t="str">
-        <v>Sessions provided for inpatients with cardiovascular condition in rehab ward</v>
+        <v>Number of outpatients with musculoskeletal condition that received rehabilitation services in facilities in the reporting month</v>
       </c>
       <c r="F88" s="4" t="str">
         <v>AGGREGATE</v>
@@ -17834,24 +18042,24 @@
         <v/>
       </c>
       <c r="K88" s="4" t="str">
-        <v>Sessions provided for patients with cardiovascular condition</v>
+        <v>Cases with musculoskeletal condition</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="5" t="str">
-        <v>E7YUYPCVIge</v>
+        <v>Te8hrtcLDJx</v>
       </c>
       <c r="B89" s="5" t="str">
-        <v>REHAB - Sessions provided (IPD)</v>
+        <v>REHAB - Sessions provided (cardiovascular HCG, IPD, rehab ward)</v>
       </c>
       <c r="C89" s="5" t="str">
-        <v>Sessions (IPD)</v>
+        <v>Sessions (cardiovascular HCG, IPD, rehab ward)</v>
       </c>
       <c r="D89" s="5" t="str">
-        <v>REHAB_SES_IPD</v>
+        <v>REHAB_SES_IPDWARD_CDV</v>
       </c>
       <c r="E89" s="5" t="str">
-        <v>Sessions provided for inpatients</v>
+        <v>Sessions provided for inpatients with cardiovascular condition in rehab ward</v>
       </c>
       <c r="F89" s="5" t="str">
         <v>AGGREGATE</v>
@@ -17869,21 +18077,21 @@
         <v/>
       </c>
       <c r="K89" s="5" t="str">
-        <v>Sessions provided by</v>
+        <v>Sessions provided for patients with cardiovascular condition</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="str">
-        <v>eDOMwsLz3Oj</v>
+        <v>E7YUYPCVIge</v>
       </c>
       <c r="B90" s="4" t="str">
-        <v>REHAB - Sessions provided (IPD, rehab ward)</v>
+        <v>REHAB - Sessions provided (IPD)</v>
       </c>
       <c r="C90" s="4" t="str">
-        <v>Sessions (IPD, rehab ward)</v>
+        <v>Sessions (IPD)</v>
       </c>
       <c r="D90" s="4" t="str">
-        <v>REHAB_SES_IPDWARD</v>
+        <v>REHAB_SES_IPD</v>
       </c>
       <c r="E90" s="4" t="str">
         <v>Sessions provided for inpatients</v>
@@ -17909,19 +18117,19 @@
     </row>
     <row r="91">
       <c r="A91" s="5" t="str">
-        <v>EB8iOzXn7AJ</v>
+        <v>eDOMwsLz3Oj</v>
       </c>
       <c r="B91" s="5" t="str">
-        <v>REHAB - Sessions provided (neurological HCG, IPD, rehab ward)</v>
+        <v>REHAB - Sessions provided (IPD, rehab ward)</v>
       </c>
       <c r="C91" s="5" t="str">
-        <v>Sessions (neurological HCG, IPD, rehab ward)</v>
+        <v>Sessions (IPD, rehab ward)</v>
       </c>
       <c r="D91" s="5" t="str">
-        <v>REHAB_SES_IPDWARD_NEURO</v>
+        <v>REHAB_SES_IPDWARD</v>
       </c>
       <c r="E91" s="5" t="str">
-        <v>Sessions provided for inpatients with neurological condition in rehab ward</v>
+        <v>Sessions provided for inpatients</v>
       </c>
       <c r="F91" s="5" t="str">
         <v>AGGREGATE</v>
@@ -17939,24 +18147,24 @@
         <v/>
       </c>
       <c r="K91" s="5" t="str">
-        <v>Sessions provided for patients with neurological condition</v>
+        <v>Sessions provided by</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="str">
-        <v>e6K3kWpNw97</v>
+        <v>EB8iOzXn7AJ</v>
       </c>
       <c r="B92" s="4" t="str">
-        <v>REHAB - Sessions provided (respiratory HCG, OPD)</v>
+        <v>REHAB - Sessions provided (neurological HCG, IPD, rehab ward)</v>
       </c>
       <c r="C92" s="4" t="str">
-        <v>Sessions (respiratory HCG, OPD)</v>
+        <v>Sessions (neurological HCG, IPD, rehab ward)</v>
       </c>
       <c r="D92" s="4" t="str">
-        <v>REHAB_SES_OPD_RES</v>
+        <v>REHAB_SES_IPDWARD_NEURO</v>
       </c>
       <c r="E92" s="4" t="str">
-        <v>Sessions provided for outpatients with respiratory condition</v>
+        <v>Sessions provided for inpatients with neurological condition in rehab ward</v>
       </c>
       <c r="F92" s="4" t="str">
         <v>AGGREGATE</v>
@@ -17974,24 +18182,24 @@
         <v/>
       </c>
       <c r="K92" s="4" t="str">
-        <v>Sessions provided for patients with respiratory condition</v>
+        <v>Sessions provided for patients with neurological condition</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="5" t="str">
-        <v>mAPj8EApVOe</v>
+        <v>e6K3kWpNw97</v>
       </c>
       <c r="B93" s="5" t="str">
-        <v>REHAB - Sessions provided (sensory HCG, IPD)</v>
+        <v>REHAB - Sessions provided (respiratory HCG, OPD)</v>
       </c>
       <c r="C93" s="5" t="str">
-        <v>Sessions (sensory HCG, IPD)</v>
+        <v>Sessions (respiratory HCG, OPD)</v>
       </c>
       <c r="D93" s="5" t="str">
-        <v>REHAB_SES_IPD_SN</v>
+        <v>REHAB_SES_OPD_RES</v>
       </c>
       <c r="E93" s="5" t="str">
-        <v>Sessions provided for inpatients with sensory condition</v>
+        <v>Sessions provided for outpatients with respiratory condition</v>
       </c>
       <c r="F93" s="5" t="str">
         <v>AGGREGATE</v>
@@ -18009,24 +18217,24 @@
         <v/>
       </c>
       <c r="K93" s="5" t="str">
-        <v>Sessions provided for patients with sensory condition</v>
+        <v>Sessions provided for patients with respiratory condition</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="str">
-        <v>QvQENytpLBN</v>
+        <v>mAPj8EApVOe</v>
       </c>
       <c r="B94" s="4" t="str">
-        <v>REHAB - Sessions provided (sensory HCG, IPD, rehab ward)</v>
+        <v>REHAB - Sessions provided (sensory HCG, IPD)</v>
       </c>
       <c r="C94" s="4" t="str">
-        <v>Sessions (sensory HCG, IPD, rehab ward)</v>
+        <v>Sessions (sensory HCG, IPD)</v>
       </c>
       <c r="D94" s="4" t="str">
-        <v>REHAB_SES_IPDWARD_SN</v>
+        <v>REHAB_SES_IPD_SN</v>
       </c>
       <c r="E94" s="4" t="str">
-        <v>Sessions provided for inpatients with sensory condition in rehab ward</v>
+        <v>Sessions provided for inpatients with sensory condition</v>
       </c>
       <c r="F94" s="4" t="str">
         <v>AGGREGATE</v>
@@ -18049,25 +18257,25 @@
     </row>
     <row r="95">
       <c r="A95" s="5" t="str">
-        <v>rzVRv6GpduW</v>
+        <v>QvQENytpLBN</v>
       </c>
       <c r="B95" s="5" t="str">
-        <v>REHAB - TBI incidence %</v>
+        <v>REHAB - Sessions provided (sensory HCG, IPD, rehab ward)</v>
       </c>
       <c r="C95" s="5" t="str">
-        <v>TBI incidence %</v>
+        <v>Sessions (sensory HCG, IPD, rehab ward)</v>
       </c>
       <c r="D95" s="5" t="str">
-        <v>REHAB_INCIDENCE_TBI</v>
+        <v>REHAB_SES_IPDWARD_SN</v>
       </c>
       <c r="E95" s="5" t="str">
-        <v/>
+        <v>Sessions provided for inpatients with sensory condition in rehab ward</v>
       </c>
       <c r="F95" s="5" t="str">
         <v>AGGREGATE</v>
       </c>
       <c r="G95" s="5" t="str">
-        <v>NUMBER</v>
+        <v>INTEGER_ZERO_OR_POSITIVE</v>
       </c>
       <c r="H95" s="5" t="b">
         <v>0</v>
@@ -18079,33 +18287,33 @@
         <v/>
       </c>
       <c r="K95" s="5" t="str">
-        <v>TBI incidence %</v>
+        <v>Sessions provided for patients with sensory condition</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="4" t="str">
-        <v>W4xnozMP2Lg</v>
+        <v>rzVRv6GpduW</v>
       </c>
       <c r="B96" s="4" t="str">
-        <v>REHAB - Waiting days - 1st session (OPD)</v>
+        <v>REHAB - TBI incidence %</v>
       </c>
       <c r="C96" s="4" t="str">
-        <v>Waiting days -1st session (OPD)</v>
+        <v>TBI incidence %</v>
       </c>
       <c r="D96" s="4" t="str">
-        <v>REHAB_WD_1ST_OPD</v>
+        <v>REHAB_INCIDENCE_TBI</v>
       </c>
       <c r="E96" s="4" t="str">
-        <v>Number of waiting days for the first rehabilitation session (outpatients)</v>
+        <v/>
       </c>
       <c r="F96" s="4" t="str">
         <v>AGGREGATE</v>
       </c>
       <c r="G96" s="4" t="str">
-        <v>INTEGER_ZERO_OR_POSITIVE</v>
+        <v>NUMBER</v>
       </c>
       <c r="H96" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" s="4" t="str">
         <v/>
@@ -18114,24 +18322,24 @@
         <v/>
       </c>
       <c r="K96" s="4" t="str">
-        <v>Number of waiting days for the 1st session (total)</v>
+        <v>TBI incidence %</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="5" t="str">
-        <v>KhAi3DgOmBs</v>
+        <v>W4xnozMP2Lg</v>
       </c>
       <c r="B97" s="5" t="str">
-        <v>REHAB - WHO basic package for rehab services</v>
+        <v>REHAB - Waiting days - 1st session (OPD)</v>
       </c>
       <c r="C97" s="5" t="str">
-        <v>WHO basic rehab package</v>
+        <v>Waiting days -1st session (OPD)</v>
       </c>
       <c r="D97" s="5" t="str">
-        <v>REHAB_WHO_BASIC_REHAB_PKG</v>
+        <v>REHAB_WD_1ST_OPD</v>
       </c>
       <c r="E97" s="5" t="str">
-        <v>WHO basic package for rehab services</v>
+        <v>Number of waiting days for the first rehabilitation session (outpatients)</v>
       </c>
       <c r="F97" s="5" t="str">
         <v>AGGREGATE</v>
@@ -18143,13 +18351,13 @@
         <v>1</v>
       </c>
       <c r="I97" s="5" t="str">
-        <v>TdDqpX1kdd2</v>
+        <v/>
       </c>
       <c r="J97" s="5" t="str">
         <v/>
       </c>
       <c r="K97" s="5" t="str">
-        <v>WHO basic package for rehab services</v>
+        <v>Number of waiting days for the 1st session (total)</v>
       </c>
     </row>
   </sheetData>
@@ -18204,7 +18412,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>REHAB - Rehabilitation doctors</v>
+        <v>REHAB - Sessions provided (OPD total)</v>
       </c>
     </row>
     <row r="6">
@@ -18212,7 +18420,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>REHAB - Sessions provided (OPD total)</v>
+        <v>REHAB - Rehabilitation doctors</v>
       </c>
     </row>
     <row r="7">
@@ -18260,7 +18468,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>REHAB - Availability (speech language therapists)</v>
+        <v>REHAB - Sessions provided (cardiovascular HCG, OPD)</v>
       </c>
     </row>
     <row r="13">
@@ -18268,7 +18476,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>REHAB - Sessions provided (cardiovascular HCG, OPD)</v>
+        <v>REHAB - Availability (speech language therapists)</v>
       </c>
     </row>
     <row r="14">
@@ -18372,7 +18580,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>REHAB - Inpatients with musculoskeletal condition</v>
+        <v>REHAB - Sessions provided (neurological HCG, OPD)</v>
       </c>
     </row>
     <row r="27">
@@ -18380,7 +18588,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>REHAB - Sessions provided (neurological HCG, OPD)</v>
+        <v>REHAB - Inpatients with musculoskeletal condition</v>
       </c>
     </row>
     <row r="28">
@@ -18396,7 +18604,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>REHAB - Outpatients with respiratory condition</v>
+        <v>REHAB - Sessions provided (OPD)</v>
       </c>
     </row>
     <row r="30">
@@ -18404,7 +18612,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>REHAB - Sessions provided (OPD)</v>
+        <v>REHAB - Outpatients with respiratory condition</v>
       </c>
     </row>
     <row r="31">
@@ -18436,7 +18644,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>REHAB - Sessions provided (IPD, rehab ward total)</v>
+        <v>REHAB - Sessions provided (respiratory HCG, IPD, rehab ward)</v>
       </c>
     </row>
     <row r="35">
@@ -18444,7 +18652,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>REHAB - Sessions provided (respiratory HCG, IPD, rehab ward)</v>
+        <v>REHAB - Sessions provided (IPD, rehab ward total)</v>
       </c>
     </row>
     <row r="36">
@@ -18452,7 +18660,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>REHAB - Availability (other personnel)</v>
+        <v>REHAB - Referrals (rehab ward)</v>
       </c>
     </row>
     <row r="37">
@@ -18460,7 +18668,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>REHAB - Referrals (rehab ward)</v>
+        <v>REHAB - Availability (other personnel)</v>
       </c>
     </row>
     <row r="38">
@@ -18532,7 +18740,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>REHAB - Sessions provided (mental HCG, IPD)</v>
+        <v>REHAB - Amputation incidence %</v>
       </c>
     </row>
     <row r="47">
@@ -18540,7 +18748,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>REHAB - Amputation incidence %</v>
+        <v>REHAB - Inpatients with cancer condition</v>
       </c>
     </row>
     <row r="48">
@@ -18548,7 +18756,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>REHAB - Inpatients with cancer condition</v>
+        <v>REHAB - Sessions provided (mental HCG, IPD)</v>
       </c>
     </row>
     <row r="49">
@@ -18572,7 +18780,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>GEN - Population</v>
+        <v>REHAB - Sessions provided (musculoskeletal HCG, OPD)</v>
       </c>
     </row>
     <row r="52">
@@ -18596,7 +18804,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>REHAB - Sessions provided (musculoskeletal HCG, OPD)</v>
+        <v>REHAB - Referrals (OPD)</v>
       </c>
     </row>
     <row r="55">
@@ -18612,7 +18820,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>REHAB - Referrals (OPD)</v>
+        <v>REHAB - Outpatients with cancer condition</v>
       </c>
     </row>
     <row r="57">
@@ -18620,7 +18828,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>REHAB - Outpatients with cancer condition</v>
+        <v>REHAB - SCI incidence %</v>
       </c>
     </row>
     <row r="58">
@@ -18628,7 +18836,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>REHAB - SCI incidence %</v>
+        <v>REHAB - Inpatients with sensory condition</v>
       </c>
     </row>
     <row r="59">
@@ -18636,7 +18844,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>REHAB - Inpatients with sensory condition</v>
+        <v>REHAB - Sessions provided (neurological HCG, IPD)</v>
       </c>
     </row>
     <row r="60">
@@ -18644,7 +18852,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>REHAB - Sessions provided (neurological HCG, IPD)</v>
+        <v>REHAB - Waiting days - AP (OPD)</v>
       </c>
     </row>
     <row r="61">
@@ -18660,7 +18868,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>REHAB - Waiting days - AP (OPD)</v>
+        <v>REHAB - Outpatients with neurological condition</v>
       </c>
     </row>
     <row r="63">
@@ -18668,7 +18876,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B63" s="5" t="str">
-        <v>REHAB - Outpatients with neurological condition</v>
+        <v>REHAB - Sessions provided (mental HCG, IPD, rehab ward)</v>
       </c>
     </row>
     <row r="64">
@@ -18676,7 +18884,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B64" s="4" t="str">
-        <v>REHAB - Sessions provided (mental HCG, IPD, rehab ward)</v>
+        <v>REHAB - Prosthetists/orthotists</v>
       </c>
     </row>
     <row r="65">
@@ -18684,7 +18892,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B65" s="5" t="str">
-        <v>REHAB - Prosthetists/orthotists</v>
+        <v>REHAB - Functioning score at discharge (mean)</v>
       </c>
     </row>
     <row r="66">
@@ -18692,7 +18900,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B66" s="4" t="str">
-        <v>REHAB - Functioning score at discharge (mean)</v>
+        <v>REHAB - Stroke incidence %</v>
       </c>
     </row>
     <row r="67">
@@ -18700,7 +18908,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B67" s="5" t="str">
-        <v>REHAB - Stroke incidence %</v>
+        <v>REHAB - Sessions provided (sensory HCG, OPD)</v>
       </c>
     </row>
     <row r="68">
@@ -18708,7 +18916,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B68" s="4" t="str">
-        <v>REHAB - Sessions provided (sensory HCG, OPD)</v>
+        <v>REHAB - Burns incidence %</v>
       </c>
     </row>
     <row r="69">
@@ -18716,7 +18924,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B69" s="5" t="str">
-        <v>REHAB - Burns incidence %</v>
+        <v>REHAB - Package availability (overall)</v>
       </c>
     </row>
     <row r="70">
@@ -18724,7 +18932,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B70" s="4" t="str">
-        <v>REHAB - AP provided (OPD)</v>
+        <v>REHAB - National guidance package</v>
       </c>
     </row>
     <row r="71">
@@ -18732,7 +18940,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B71" s="5" t="str">
-        <v>REHAB - Inpatients with cancer condition (rehab ward)</v>
+        <v>REHAB - Sessions provided (musculoskeletal HCG, IPD)</v>
       </c>
     </row>
     <row r="72">
@@ -18740,7 +18948,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B72" s="4" t="str">
-        <v>REHAB - National guidance package</v>
+        <v>REHAB - Inpatients with cancer condition (rehab ward)</v>
       </c>
     </row>
     <row r="73">
@@ -18748,7 +18956,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B73" s="5" t="str">
-        <v>REHAB - Package availability (overall)</v>
+        <v>REHAB - AP provided (OPD)</v>
       </c>
     </row>
     <row r="74">
@@ -18756,7 +18964,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B74" s="4" t="str">
-        <v>REHAB - Sessions provided (musculoskeletal HCG, IPD)</v>
+        <v>REHAB - Sessions provided (cardiovascular HCG, IPD)</v>
       </c>
     </row>
     <row r="75">
@@ -18764,7 +18972,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B75" s="5" t="str">
-        <v>REHAB - Sessions provided (cardiovascular HCG, IPD)</v>
+        <v>REHAB - Waiting days - AP (IPD, rehab ward)</v>
       </c>
     </row>
     <row r="76">
@@ -18772,7 +18980,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B76" s="4" t="str">
-        <v>REHAB - Waiting days - AP (IPD, rehab ward)</v>
+        <v>REHAB - WHO basic package for rehab services</v>
       </c>
     </row>
     <row r="77">
@@ -18780,7 +18988,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B77" s="5" t="str">
-        <v>REHAB - WHO basic package for rehab services</v>
+        <v>REHAB - 1st sessions (OPD)</v>
       </c>
     </row>
     <row r="78">
@@ -18788,7 +18996,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B78" s="4" t="str">
-        <v>REHAB - 1st sessions (OPD)</v>
+        <v>REHAB - Other personnel</v>
       </c>
     </row>
     <row r="79">
@@ -18796,7 +19004,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B79" s="5" t="str">
-        <v>REHAB - Other personnel</v>
+        <v>REHAB - Waiting days - 1st session (OPD)</v>
       </c>
     </row>
     <row r="80">
@@ -18804,7 +19012,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B80" s="4" t="str">
-        <v>REHAB - Waiting days - 1st session (OPD)</v>
+        <v>REHAB - MMT incidence %</v>
       </c>
     </row>
     <row r="81">
@@ -18812,7 +19020,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B81" s="5" t="str">
-        <v>REHAB - MMT incidence %</v>
+        <v>REHAB - Sessions provided (IPD)</v>
       </c>
     </row>
     <row r="82">
@@ -18820,7 +19028,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B82" s="4" t="str">
-        <v>REHAB - Sessions provided (IPD)</v>
+        <v>REHAB - Outpatients with musculoskeletal condition</v>
       </c>
     </row>
     <row r="83">
@@ -18828,7 +19036,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B83" s="5" t="str">
-        <v>REHAB - Outpatients with musculoskeletal condition</v>
+        <v>REHAB - Functioning score at admission for discharged patients (mean)</v>
       </c>
     </row>
     <row r="84">
@@ -18836,7 +19044,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B84" s="4" t="str">
-        <v>REHAB - Functioning score at admission for discharged patients (mean)</v>
+        <v>REHAB - Inpatients with mental condition (rehab ward)</v>
       </c>
     </row>
     <row r="85">
@@ -18844,7 +19052,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B85" s="5" t="str">
-        <v>REHAB - Inpatients with mental condition (rehab ward)</v>
+        <v>REHAB - TBI incidence %</v>
       </c>
     </row>
     <row r="86">
@@ -18852,7 +19060,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B86" s="4" t="str">
-        <v>REHAB - TBI incidence %</v>
+        <v>REHAB - Sessions provided (IPD, rehab ward)</v>
       </c>
     </row>
     <row r="87">
@@ -18860,7 +19068,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B87" s="5" t="str">
-        <v>REHAB - Sessions provided (IPD, rehab ward)</v>
+        <v>REHAB - Availability (prosthetists/orthotists)</v>
       </c>
     </row>
     <row r="88">
@@ -18868,7 +19076,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B88" s="4" t="str">
-        <v>REHAB - Availability (prosthetists/orthotists)</v>
+        <v>REHAB - Sessions provided (cardiovascular HCG, IPD, rehab ward)</v>
       </c>
     </row>
     <row r="89">
@@ -18884,7 +19092,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B90" s="4" t="str">
-        <v>REHAB - Sessions provided (cardiovascular HCG, IPD, rehab ward)</v>
+        <v>REHAB - Sessions provided (sensory HCG, IPD, rehab ward)</v>
       </c>
     </row>
     <row r="91">
@@ -18892,7 +19100,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B91" s="5" t="str">
-        <v>REHAB - Sessions provided (sensory HCG, IPD, rehab ward)</v>
+        <v>REHAB - Sessions provided (respiratory HCG, OPD)</v>
       </c>
     </row>
     <row r="92">
@@ -18900,7 +19108,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B92" s="4" t="str">
-        <v>REHAB - Sessions provided (respiratory HCG, OPD)</v>
+        <v>REHAB - Inpatients with neurological condition (rehab ward)</v>
       </c>
     </row>
     <row r="93">
@@ -18908,7 +19116,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B93" s="5" t="str">
-        <v>REHAB - Inpatients with neurological condition (rehab ward)</v>
+        <v>REHAB - Outpatients with mental condition</v>
       </c>
     </row>
     <row r="94">
@@ -18916,7 +19124,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B94" s="4" t="str">
-        <v>REHAB - Outpatients with mental condition</v>
+        <v>REHAB - Outpatients with cardiovascular condition</v>
       </c>
     </row>
     <row r="95">
@@ -18924,7 +19132,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B95" s="5" t="str">
-        <v>REHAB - Outpatients with cardiovascular condition</v>
+        <v>REHAB - Inpatients with neurological condition</v>
       </c>
     </row>
     <row r="96">
@@ -18940,7 +19148,7 @@
         <v>Rehabilitation</v>
       </c>
       <c r="B97" s="5" t="str">
-        <v>REHAB - Inpatients with neurological condition</v>
+        <v>GEN - Population</v>
       </c>
     </row>
   </sheetData>
